--- a/outputs_HGR/c__Actinobacteria_train.xlsx
+++ b/outputs_HGR/c__Actinobacteria_train.xlsx
@@ -574,28 +574,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.962410921318967</v>
+        <v>0.980535932254177</v>
       </c>
       <c r="C2" t="n">
-        <v>2.220290375574443e-14</v>
+        <v>4.892919073367892e-14</v>
       </c>
       <c r="D2" t="n">
-        <v>2.220290375574443e-14</v>
+        <v>4.892919073367904e-14</v>
       </c>
       <c r="E2" t="n">
-        <v>0.005182603613971637</v>
+        <v>0.0006173494722793396</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02089261193923999</v>
+        <v>0.01884671827334777</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01151386312775472</v>
+        <v>4.892919073367902e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>2.220290375574443e-14</v>
+        <v>4.892919073367896e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0.962410921318967</v>
+        <v>0.980535932254177</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -610,28 +610,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8322163496852193</v>
+        <v>0.952312683770568</v>
       </c>
       <c r="C3" t="n">
-        <v>8.211621505136236e-14</v>
+        <v>1.583725963067993e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>8.211621505136236e-14</v>
+        <v>1.583725963067993e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01024662194859311</v>
+        <v>0.0002361218338457518</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06160807402199406</v>
+        <v>0.04745119439495279</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09592895434394709</v>
+        <v>1.583725963067994e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>8.211621505136233e-14</v>
+        <v>1.583725963067996e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8322163496852193</v>
+        <v>0.952312683770568</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -646,28 +646,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9804118504689563</v>
+        <v>0.9230825043369603</v>
       </c>
       <c r="C4" t="n">
-        <v>2.220169386913864e-14</v>
+        <v>2.212380649971994e-13</v>
       </c>
       <c r="D4" t="n">
-        <v>2.220169386913864e-14</v>
+        <v>2.212380649971995e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>0.003393476558392547</v>
+        <v>0.0007135307924483378</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0150713476793591</v>
+        <v>0.07620396486970661</v>
       </c>
       <c r="G4" t="n">
-        <v>0.001123325293225536</v>
+        <v>2.212380649971992e-13</v>
       </c>
       <c r="H4" t="n">
-        <v>2.220169386913864e-14</v>
+        <v>2.212380649971992e-13</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9804118504689563</v>
+        <v>0.9230825043369603</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -682,28 +682,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9805123941744168</v>
+        <v>0.9770737584025058</v>
       </c>
       <c r="C5" t="n">
-        <v>2.220627981866077e-14</v>
+        <v>2.488892889016882e-14</v>
       </c>
       <c r="D5" t="n">
-        <v>2.220627981866077e-14</v>
+        <v>2.488892889016882e-14</v>
       </c>
       <c r="E5" t="n">
-        <v>0.005948472387442754</v>
+        <v>0.002497832944154467</v>
       </c>
       <c r="F5" t="n">
-        <v>0.008110677379957817</v>
+        <v>0.02042840865324026</v>
       </c>
       <c r="G5" t="n">
-        <v>0.005428456058115931</v>
+        <v>2.488892889016882e-14</v>
       </c>
       <c r="H5" t="n">
-        <v>2.220627981866077e-14</v>
+        <v>2.488892889016882e-14</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9805123941744168</v>
+        <v>0.9770737584025058</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -718,28 +718,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9789475158888287</v>
+        <v>0.9712724130605658</v>
       </c>
       <c r="C6" t="n">
-        <v>2.220543680672643e-14</v>
+        <v>3.385536150743497e-14</v>
       </c>
       <c r="D6" t="n">
-        <v>2.220543680672643e-14</v>
+        <v>3.385536150743491e-14</v>
       </c>
       <c r="E6" t="n">
-        <v>0.005580966043821042</v>
+        <v>0.002575178905728916</v>
       </c>
       <c r="F6" t="n">
-        <v>0.009745791879536786</v>
+        <v>0.02615240803356986</v>
       </c>
       <c r="G6" t="n">
-        <v>0.005725726187746935</v>
+        <v>3.385536150743498e-14</v>
       </c>
       <c r="H6" t="n">
-        <v>2.220543680672643e-14</v>
+        <v>3.385536150743496e-14</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9789475158888287</v>
+        <v>0.9712724130605658</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -754,28 +754,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9734681465484341</v>
+        <v>0.9619874776126146</v>
       </c>
       <c r="C7" t="n">
-        <v>2.220561924306981e-14</v>
+        <v>2.220009784502983e-14</v>
       </c>
       <c r="D7" t="n">
-        <v>2.220561924306981e-14</v>
+        <v>2.220009784502983e-14</v>
       </c>
       <c r="E7" t="n">
-        <v>0.007520762454894584</v>
+        <v>0.002369332221561995</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0157030594425782</v>
+        <v>0.03564319016573468</v>
       </c>
       <c r="G7" t="n">
-        <v>0.003308031554026467</v>
+        <v>2.220009784502983e-14</v>
       </c>
       <c r="H7" t="n">
-        <v>2.220561924306981e-14</v>
+        <v>2.220009784502983e-14</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9734681465484341</v>
+        <v>0.9619874776126146</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -790,28 +790,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9783181066908343</v>
+        <v>0.8942039894220741</v>
       </c>
       <c r="C8" t="n">
-        <v>2.962824987801665e-14</v>
+        <v>1.201257884779948e-12</v>
       </c>
       <c r="D8" t="n">
-        <v>2.962824987801668e-14</v>
+        <v>1.201257884779947e-12</v>
       </c>
       <c r="E8" t="n">
-        <v>0.005848402193385126</v>
+        <v>0.02195354032429826</v>
       </c>
       <c r="F8" t="n">
-        <v>0.003599093345707603</v>
+        <v>0.08384247024882255</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01223439776998403</v>
+        <v>1.201257884779962e-12</v>
       </c>
       <c r="H8" t="n">
-        <v>2.96282498780173e-14</v>
+        <v>1.201257884779961e-12</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9783181066908343</v>
+        <v>0.8942039894220741</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -826,28 +826,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9716137815367096</v>
+        <v>0.8812001939071232</v>
       </c>
       <c r="C9" t="n">
-        <v>4.029956705804831e-14</v>
+        <v>1.647267912427839e-12</v>
       </c>
       <c r="D9" t="n">
-        <v>4.029956705804828e-14</v>
+        <v>1.64726791242784e-12</v>
       </c>
       <c r="E9" t="n">
-        <v>0.008462654132478969</v>
+        <v>0.02993134625816706</v>
       </c>
       <c r="F9" t="n">
-        <v>0.003310472004701928</v>
+        <v>0.08886845982812068</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01661309232598875</v>
+        <v>1.647267912427839e-12</v>
       </c>
       <c r="H9" t="n">
-        <v>4.029956705804907e-14</v>
+        <v>1.647267912427841e-12</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9716137815367096</v>
+        <v>0.8812001939071232</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -862,28 +862,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9775261772674374</v>
+        <v>0.9810529277225927</v>
       </c>
       <c r="C10" t="n">
-        <v>2.220186757010803e-14</v>
+        <v>2.220178481899514e-14</v>
       </c>
       <c r="D10" t="n">
-        <v>2.220186757010803e-14</v>
+        <v>2.220178481899514e-14</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01719478485235539</v>
+        <v>0.007442116175561739</v>
       </c>
       <c r="F10" t="n">
-        <v>0.004774373451448644</v>
+        <v>0.01150495610175677</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0005046644286919986</v>
+        <v>2.220178481899514e-14</v>
       </c>
       <c r="H10" t="n">
-        <v>2.220186757010803e-14</v>
+        <v>2.220178481899514e-14</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9775261772674374</v>
+        <v>0.9810529277225927</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -898,28 +898,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9739293134245908</v>
+        <v>0.9720915750664363</v>
       </c>
       <c r="C11" t="n">
-        <v>2.220315068894236e-14</v>
+        <v>2.220294750030832e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>2.220315068894236e-14</v>
+        <v>2.220294750030832e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0.01898014848515705</v>
+        <v>0.006964683627566399</v>
       </c>
       <c r="F11" t="n">
-        <v>0.006621116782496071</v>
+        <v>0.02094374130590838</v>
       </c>
       <c r="G11" t="n">
-        <v>0.000469421307689504</v>
+        <v>2.220294750030832e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>2.220315068894236e-14</v>
+        <v>2.220294750030832e-14</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9739293134245908</v>
+        <v>0.9720915750664363</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -934,28 +934,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9763975646552338</v>
+        <v>0.9743262997660945</v>
       </c>
       <c r="C12" t="n">
-        <v>2.219858144256951e-14</v>
+        <v>2.219987570117445e-14</v>
       </c>
       <c r="D12" t="n">
-        <v>2.219858144256951e-14</v>
+        <v>2.219987570117445e-14</v>
       </c>
       <c r="E12" t="n">
-        <v>0.02009157964763611</v>
+        <v>0.008999831675391437</v>
       </c>
       <c r="F12" t="n">
-        <v>0.003046343793773224</v>
+        <v>0.01667386855842526</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0004645119032901928</v>
+        <v>2.219987570117445e-14</v>
       </c>
       <c r="H12" t="n">
-        <v>2.219858144256951e-14</v>
+        <v>2.219987570117445e-14</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9763975646552338</v>
+        <v>0.9743262997660945</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -970,28 +970,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9787067491080997</v>
+        <v>0.9790441702586803</v>
       </c>
       <c r="C13" t="n">
-        <v>2.853067436283142e-14</v>
+        <v>3.606068830185085e-13</v>
       </c>
       <c r="D13" t="n">
-        <v>2.853067436283144e-14</v>
+        <v>3.606068830185079e-13</v>
       </c>
       <c r="E13" t="n">
-        <v>0.00577818173092336</v>
+        <v>0.005772788938025416</v>
       </c>
       <c r="F13" t="n">
-        <v>0.002205456214135908</v>
+        <v>0.01518304080185179</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0133096129467554</v>
+        <v>3.606068830185088e-13</v>
       </c>
       <c r="H13" t="n">
-        <v>2.853067436283145e-14</v>
+        <v>3.606068830185081e-13</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9787067491080997</v>
+        <v>0.9790441702586803</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1006,28 +1006,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9639322595871891</v>
+        <v>0.9574977711111592</v>
       </c>
       <c r="C14" t="n">
-        <v>4.791448947343184e-14</v>
+        <v>5.232495079134131e-13</v>
       </c>
       <c r="D14" t="n">
-        <v>4.791448947343177e-14</v>
+        <v>5.232495079134135e-13</v>
       </c>
       <c r="E14" t="n">
-        <v>0.008419026314610391</v>
+        <v>0.008645808127633277</v>
       </c>
       <c r="F14" t="n">
-        <v>0.006457493525794319</v>
+        <v>0.03385642075911439</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02119122057226238</v>
+        <v>5.232495079134142e-13</v>
       </c>
       <c r="H14" t="n">
-        <v>4.791448947343191e-14</v>
+        <v>5.232495079134138e-13</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9639322595871891</v>
+        <v>0.9574977711111592</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1042,28 +1042,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9816688487592558</v>
+        <v>0.981812783110069</v>
       </c>
       <c r="C15" t="n">
-        <v>2.220014190573663e-14</v>
+        <v>2.224802452842646e-14</v>
       </c>
       <c r="D15" t="n">
-        <v>2.220014190573663e-14</v>
+        <v>2.224802452842646e-14</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004202240885252185</v>
+        <v>0.0007648900773241402</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01403414722458014</v>
+        <v>0.01742232681251794</v>
       </c>
       <c r="G15" t="n">
-        <v>9.476313084528482e-05</v>
+        <v>2.224802452842646e-14</v>
       </c>
       <c r="H15" t="n">
-        <v>2.220014190573663e-14</v>
+        <v>2.224802452842646e-14</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9816688487592558</v>
+        <v>0.981812783110069</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1078,28 +1078,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9962707517148367</v>
+        <v>0.9895590015460539</v>
       </c>
       <c r="C16" t="n">
-        <v>2.220080287673198e-14</v>
+        <v>2.219931374243446e-14</v>
       </c>
       <c r="D16" t="n">
-        <v>2.220080287673198e-14</v>
+        <v>2.219931374243446e-14</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001356395927324584</v>
+        <v>0.0002266519813117993</v>
       </c>
       <c r="F16" t="n">
-        <v>0.002371829531307441</v>
+        <v>0.01021434647254537</v>
       </c>
       <c r="G16" t="n">
-        <v>1.022826464790504e-06</v>
+        <v>2.219931374243446e-14</v>
       </c>
       <c r="H16" t="n">
-        <v>2.220080287673198e-14</v>
+        <v>2.219931374243446e-14</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9962707517148367</v>
+        <v>0.9895590015460539</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1114,28 +1114,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.996803675267094</v>
+        <v>0.9972419581195033</v>
       </c>
       <c r="C17" t="n">
-        <v>2.219985506834806e-14</v>
+        <v>2.219955681028272e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>2.219985506834806e-14</v>
+        <v>2.219955681028272e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>0.002695773295273356</v>
+        <v>0.0003196770226230344</v>
       </c>
       <c r="F17" t="n">
-        <v>0.000251788064091136</v>
+        <v>0.002438364857784769</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0002487633734748263</v>
+        <v>2.219955681028272e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>2.219985506834806e-14</v>
+        <v>2.219955681028272e-14</v>
       </c>
       <c r="I17" t="n">
-        <v>0.996803675267094</v>
+        <v>0.9972419581195033</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1150,28 +1150,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9796250386532441</v>
+        <v>0.9700609660866509</v>
       </c>
       <c r="C18" t="n">
-        <v>2.22006212553916e-14</v>
+        <v>4.860693805401042e-14</v>
       </c>
       <c r="D18" t="n">
-        <v>2.22006212553916e-14</v>
+        <v>4.860693805401041e-14</v>
       </c>
       <c r="E18" t="n">
-        <v>0.007577860720224342</v>
+        <v>0.003274336743290549</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0007306605259180715</v>
+        <v>0.02666469716986395</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01206644010054677</v>
+        <v>4.86069380540115e-14</v>
       </c>
       <c r="H18" t="n">
-        <v>2.22006212553916e-14</v>
+        <v>4.860693805401157e-14</v>
       </c>
       <c r="I18" t="n">
-        <v>0.9796250386532441</v>
+        <v>0.9700609660866509</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1186,28 +1186,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9923815962624363</v>
+        <v>0.9855957296127474</v>
       </c>
       <c r="C19" t="n">
-        <v>2.220168189935907e-14</v>
+        <v>3.022337633361078e-14</v>
       </c>
       <c r="D19" t="n">
-        <v>2.220168189935907e-14</v>
+        <v>3.022337633361078e-14</v>
       </c>
       <c r="E19" t="n">
-        <v>0.005009124380960591</v>
+        <v>0.003163284902723039</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0001043520623690168</v>
+        <v>0.01124098548440872</v>
       </c>
       <c r="G19" t="n">
-        <v>0.00250492729416764</v>
+        <v>3.022337633361072e-14</v>
       </c>
       <c r="H19" t="n">
-        <v>2.220168189935907e-14</v>
+        <v>3.022337633361072e-14</v>
       </c>
       <c r="I19" t="n">
-        <v>0.9923815962624363</v>
+        <v>0.9855957296127474</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1222,28 +1222,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9786706193670697</v>
+        <v>0.9899973280859073</v>
       </c>
       <c r="C20" t="n">
-        <v>2.220235976909183e-14</v>
+        <v>2.220046778942065e-14</v>
       </c>
       <c r="D20" t="n">
-        <v>2.220235976909183e-14</v>
+        <v>2.220046778942065e-14</v>
       </c>
       <c r="E20" t="n">
-        <v>0.005786505720304439</v>
+        <v>0.001170024213490676</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0003417923102927691</v>
+        <v>0.008832647700513122</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01520108260226652</v>
+        <v>2.220046778942065e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>2.220235976909183e-14</v>
+        <v>2.220046778942065e-14</v>
       </c>
       <c r="I20" t="n">
-        <v>0.9786706193670697</v>
+        <v>0.9899973280859073</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1258,28 +1258,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9951616050895168</v>
+        <v>0.9930459247028258</v>
       </c>
       <c r="C21" t="n">
-        <v>2.22000733095387e-14</v>
+        <v>2.219922680633683e-14</v>
       </c>
       <c r="D21" t="n">
-        <v>2.22000733095387e-14</v>
+        <v>2.219922680633683e-14</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003037261942947878</v>
+        <v>0.0001621939845682209</v>
       </c>
       <c r="F21" t="n">
-        <v>0.001734767085657141</v>
+        <v>0.006791881312517238</v>
       </c>
       <c r="G21" t="n">
-        <v>6.636588181167945e-05</v>
+        <v>2.219922680633683e-14</v>
       </c>
       <c r="H21" t="n">
-        <v>2.22000733095387e-14</v>
+        <v>2.219922680633683e-14</v>
       </c>
       <c r="I21" t="n">
-        <v>0.9951616050895168</v>
+        <v>0.9930459247028258</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1294,28 +1294,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.962410921318967</v>
+        <v>0.980535932254177</v>
       </c>
       <c r="C22" t="n">
-        <v>2.220290375574443e-14</v>
+        <v>4.892919073367892e-14</v>
       </c>
       <c r="D22" t="n">
-        <v>2.220290375574443e-14</v>
+        <v>4.892919073367904e-14</v>
       </c>
       <c r="E22" t="n">
-        <v>0.005182603613971637</v>
+        <v>0.0006173494722793396</v>
       </c>
       <c r="F22" t="n">
-        <v>0.02089261193923999</v>
+        <v>0.01884671827334777</v>
       </c>
       <c r="G22" t="n">
-        <v>0.01151386312775472</v>
+        <v>4.892919073367902e-14</v>
       </c>
       <c r="H22" t="n">
-        <v>2.220290375574443e-14</v>
+        <v>4.892919073367896e-14</v>
       </c>
       <c r="I22" t="n">
-        <v>0.962410921318967</v>
+        <v>0.980535932254177</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1330,28 +1330,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8322163496852193</v>
+        <v>0.952312683770568</v>
       </c>
       <c r="C23" t="n">
-        <v>8.211621505136236e-14</v>
+        <v>1.583725963067993e-13</v>
       </c>
       <c r="D23" t="n">
-        <v>8.211621505136236e-14</v>
+        <v>1.583725963067993e-13</v>
       </c>
       <c r="E23" t="n">
-        <v>0.01024662194859311</v>
+        <v>0.0002361218338457518</v>
       </c>
       <c r="F23" t="n">
-        <v>0.06160807402199406</v>
+        <v>0.04745119439495279</v>
       </c>
       <c r="G23" t="n">
-        <v>0.09592895434394709</v>
+        <v>1.583725963067994e-13</v>
       </c>
       <c r="H23" t="n">
-        <v>8.211621505136233e-14</v>
+        <v>1.583725963067996e-13</v>
       </c>
       <c r="I23" t="n">
-        <v>0.8322163496852193</v>
+        <v>0.952312683770568</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1366,28 +1366,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9804118504689563</v>
+        <v>0.9230825043369603</v>
       </c>
       <c r="C24" t="n">
-        <v>2.220169386913864e-14</v>
+        <v>2.212380649971994e-13</v>
       </c>
       <c r="D24" t="n">
-        <v>2.220169386913864e-14</v>
+        <v>2.212380649971995e-13</v>
       </c>
       <c r="E24" t="n">
-        <v>0.003393476558392547</v>
+        <v>0.0007135307924483378</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0150713476793591</v>
+        <v>0.07620396486970661</v>
       </c>
       <c r="G24" t="n">
-        <v>0.001123325293225536</v>
+        <v>2.212380649971992e-13</v>
       </c>
       <c r="H24" t="n">
-        <v>2.220169386913864e-14</v>
+        <v>2.212380649971992e-13</v>
       </c>
       <c r="I24" t="n">
-        <v>0.9804118504689563</v>
+        <v>0.9230825043369603</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1402,28 +1402,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9805123941744168</v>
+        <v>0.9770737584025058</v>
       </c>
       <c r="C25" t="n">
-        <v>2.220627981866077e-14</v>
+        <v>2.488892889016882e-14</v>
       </c>
       <c r="D25" t="n">
-        <v>2.220627981866077e-14</v>
+        <v>2.488892889016882e-14</v>
       </c>
       <c r="E25" t="n">
-        <v>0.005948472387442754</v>
+        <v>0.002497832944154467</v>
       </c>
       <c r="F25" t="n">
-        <v>0.008110677379957817</v>
+        <v>0.02042840865324026</v>
       </c>
       <c r="G25" t="n">
-        <v>0.005428456058115931</v>
+        <v>2.488892889016882e-14</v>
       </c>
       <c r="H25" t="n">
-        <v>2.220627981866077e-14</v>
+        <v>2.488892889016882e-14</v>
       </c>
       <c r="I25" t="n">
-        <v>0.9805123941744168</v>
+        <v>0.9770737584025058</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1438,28 +1438,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9789475158888287</v>
+        <v>0.9712724130605658</v>
       </c>
       <c r="C26" t="n">
-        <v>2.220543680672643e-14</v>
+        <v>3.385536150743497e-14</v>
       </c>
       <c r="D26" t="n">
-        <v>2.220543680672643e-14</v>
+        <v>3.385536150743491e-14</v>
       </c>
       <c r="E26" t="n">
-        <v>0.005580966043821042</v>
+        <v>0.002575178905728916</v>
       </c>
       <c r="F26" t="n">
-        <v>0.009745791879536786</v>
+        <v>0.02615240803356986</v>
       </c>
       <c r="G26" t="n">
-        <v>0.005725726187746935</v>
+        <v>3.385536150743498e-14</v>
       </c>
       <c r="H26" t="n">
-        <v>2.220543680672643e-14</v>
+        <v>3.385536150743496e-14</v>
       </c>
       <c r="I26" t="n">
-        <v>0.9789475158888287</v>
+        <v>0.9712724130605658</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1474,28 +1474,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.9734681465484341</v>
+        <v>0.9619874776126146</v>
       </c>
       <c r="C27" t="n">
-        <v>2.220561924306981e-14</v>
+        <v>2.220009784502983e-14</v>
       </c>
       <c r="D27" t="n">
-        <v>2.220561924306981e-14</v>
+        <v>2.220009784502983e-14</v>
       </c>
       <c r="E27" t="n">
-        <v>0.007520762454894584</v>
+        <v>0.002369332221561995</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0157030594425782</v>
+        <v>0.03564319016573468</v>
       </c>
       <c r="G27" t="n">
-        <v>0.003308031554026467</v>
+        <v>2.220009784502983e-14</v>
       </c>
       <c r="H27" t="n">
-        <v>2.220561924306981e-14</v>
+        <v>2.220009784502983e-14</v>
       </c>
       <c r="I27" t="n">
-        <v>0.9734681465484341</v>
+        <v>0.9619874776126146</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1510,28 +1510,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.9783181066908343</v>
+        <v>0.8942039894220741</v>
       </c>
       <c r="C28" t="n">
-        <v>2.962824987801665e-14</v>
+        <v>1.201257884779948e-12</v>
       </c>
       <c r="D28" t="n">
-        <v>2.962824987801668e-14</v>
+        <v>1.201257884779947e-12</v>
       </c>
       <c r="E28" t="n">
-        <v>0.005848402193385126</v>
+        <v>0.02195354032429826</v>
       </c>
       <c r="F28" t="n">
-        <v>0.003599093345707603</v>
+        <v>0.08384247024882255</v>
       </c>
       <c r="G28" t="n">
-        <v>0.01223439776998403</v>
+        <v>1.201257884779962e-12</v>
       </c>
       <c r="H28" t="n">
-        <v>2.96282498780173e-14</v>
+        <v>1.201257884779961e-12</v>
       </c>
       <c r="I28" t="n">
-        <v>0.9783181066908343</v>
+        <v>0.8942039894220741</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -1546,28 +1546,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.9716137815367096</v>
+        <v>0.8812001939071232</v>
       </c>
       <c r="C29" t="n">
-        <v>4.029956705804831e-14</v>
+        <v>1.647267912427839e-12</v>
       </c>
       <c r="D29" t="n">
-        <v>4.029956705804828e-14</v>
+        <v>1.64726791242784e-12</v>
       </c>
       <c r="E29" t="n">
-        <v>0.008462654132478969</v>
+        <v>0.02993134625816706</v>
       </c>
       <c r="F29" t="n">
-        <v>0.003310472004701928</v>
+        <v>0.08886845982812068</v>
       </c>
       <c r="G29" t="n">
-        <v>0.01661309232598875</v>
+        <v>1.647267912427839e-12</v>
       </c>
       <c r="H29" t="n">
-        <v>4.029956705804907e-14</v>
+        <v>1.647267912427841e-12</v>
       </c>
       <c r="I29" t="n">
-        <v>0.9716137815367096</v>
+        <v>0.8812001939071232</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -1582,28 +1582,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.9775261772674374</v>
+        <v>0.9810529277225927</v>
       </c>
       <c r="C30" t="n">
-        <v>2.220186757010803e-14</v>
+        <v>2.220178481899514e-14</v>
       </c>
       <c r="D30" t="n">
-        <v>2.220186757010803e-14</v>
+        <v>2.220178481899514e-14</v>
       </c>
       <c r="E30" t="n">
-        <v>0.01719478485235539</v>
+        <v>0.007442116175561739</v>
       </c>
       <c r="F30" t="n">
-        <v>0.004774373451448644</v>
+        <v>0.01150495610175677</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0005046644286919986</v>
+        <v>2.220178481899514e-14</v>
       </c>
       <c r="H30" t="n">
-        <v>2.220186757010803e-14</v>
+        <v>2.220178481899514e-14</v>
       </c>
       <c r="I30" t="n">
-        <v>0.9775261772674374</v>
+        <v>0.9810529277225927</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1618,28 +1618,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.9739293134245908</v>
+        <v>0.9720915750664363</v>
       </c>
       <c r="C31" t="n">
-        <v>2.220315068894236e-14</v>
+        <v>2.220294750030832e-14</v>
       </c>
       <c r="D31" t="n">
-        <v>2.220315068894236e-14</v>
+        <v>2.220294750030832e-14</v>
       </c>
       <c r="E31" t="n">
-        <v>0.01898014848515705</v>
+        <v>0.006964683627566399</v>
       </c>
       <c r="F31" t="n">
-        <v>0.006621116782496071</v>
+        <v>0.02094374130590838</v>
       </c>
       <c r="G31" t="n">
-        <v>0.000469421307689504</v>
+        <v>2.220294750030832e-14</v>
       </c>
       <c r="H31" t="n">
-        <v>2.220315068894236e-14</v>
+        <v>2.220294750030832e-14</v>
       </c>
       <c r="I31" t="n">
-        <v>0.9739293134245908</v>
+        <v>0.9720915750664363</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -1654,28 +1654,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.9763975646552338</v>
+        <v>0.9743262997660945</v>
       </c>
       <c r="C32" t="n">
-        <v>2.219858144256951e-14</v>
+        <v>2.219987570117445e-14</v>
       </c>
       <c r="D32" t="n">
-        <v>2.219858144256951e-14</v>
+        <v>2.219987570117445e-14</v>
       </c>
       <c r="E32" t="n">
-        <v>0.02009157964763611</v>
+        <v>0.008999831675391437</v>
       </c>
       <c r="F32" t="n">
-        <v>0.003046343793773224</v>
+        <v>0.01667386855842526</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0004645119032901928</v>
+        <v>2.219987570117445e-14</v>
       </c>
       <c r="H32" t="n">
-        <v>2.219858144256951e-14</v>
+        <v>2.219987570117445e-14</v>
       </c>
       <c r="I32" t="n">
-        <v>0.9763975646552338</v>
+        <v>0.9743262997660945</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -1690,28 +1690,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.9787067491080997</v>
+        <v>0.9790441702586803</v>
       </c>
       <c r="C33" t="n">
-        <v>2.853067436283142e-14</v>
+        <v>3.606068830185085e-13</v>
       </c>
       <c r="D33" t="n">
-        <v>2.853067436283144e-14</v>
+        <v>3.606068830185079e-13</v>
       </c>
       <c r="E33" t="n">
-        <v>0.00577818173092336</v>
+        <v>0.005772788938025416</v>
       </c>
       <c r="F33" t="n">
-        <v>0.002205456214135908</v>
+        <v>0.01518304080185179</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0133096129467554</v>
+        <v>3.606068830185088e-13</v>
       </c>
       <c r="H33" t="n">
-        <v>2.853067436283145e-14</v>
+        <v>3.606068830185081e-13</v>
       </c>
       <c r="I33" t="n">
-        <v>0.9787067491080997</v>
+        <v>0.9790441702586803</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -1726,28 +1726,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.9639322595871891</v>
+        <v>0.9574977711111592</v>
       </c>
       <c r="C34" t="n">
-        <v>4.791448947343184e-14</v>
+        <v>5.232495079134131e-13</v>
       </c>
       <c r="D34" t="n">
-        <v>4.791448947343177e-14</v>
+        <v>5.232495079134135e-13</v>
       </c>
       <c r="E34" t="n">
-        <v>0.008419026314610391</v>
+        <v>0.008645808127633277</v>
       </c>
       <c r="F34" t="n">
-        <v>0.006457493525794319</v>
+        <v>0.03385642075911439</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02119122057226238</v>
+        <v>5.232495079134142e-13</v>
       </c>
       <c r="H34" t="n">
-        <v>4.791448947343191e-14</v>
+        <v>5.232495079134138e-13</v>
       </c>
       <c r="I34" t="n">
-        <v>0.9639322595871891</v>
+        <v>0.9574977711111592</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.9816688487592558</v>
+        <v>0.981812783110069</v>
       </c>
       <c r="C35" t="n">
-        <v>2.220014190573663e-14</v>
+        <v>2.224802452842646e-14</v>
       </c>
       <c r="D35" t="n">
-        <v>2.220014190573663e-14</v>
+        <v>2.224802452842646e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>0.004202240885252185</v>
+        <v>0.0007648900773241402</v>
       </c>
       <c r="F35" t="n">
-        <v>0.01403414722458014</v>
+        <v>0.01742232681251794</v>
       </c>
       <c r="G35" t="n">
-        <v>9.476313084528482e-05</v>
+        <v>2.224802452842646e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>2.220014190573663e-14</v>
+        <v>2.224802452842646e-14</v>
       </c>
       <c r="I35" t="n">
-        <v>0.9816688487592558</v>
+        <v>0.981812783110069</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -1798,28 +1798,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.9962707517148367</v>
+        <v>0.9895590015460539</v>
       </c>
       <c r="C36" t="n">
-        <v>2.220080287673198e-14</v>
+        <v>2.219931374243446e-14</v>
       </c>
       <c r="D36" t="n">
-        <v>2.220080287673198e-14</v>
+        <v>2.219931374243446e-14</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001356395927324584</v>
+        <v>0.0002266519813117993</v>
       </c>
       <c r="F36" t="n">
-        <v>0.002371829531307441</v>
+        <v>0.01021434647254537</v>
       </c>
       <c r="G36" t="n">
-        <v>1.022826464790504e-06</v>
+        <v>2.219931374243446e-14</v>
       </c>
       <c r="H36" t="n">
-        <v>2.220080287673198e-14</v>
+        <v>2.219931374243446e-14</v>
       </c>
       <c r="I36" t="n">
-        <v>0.9962707517148367</v>
+        <v>0.9895590015460539</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -1834,28 +1834,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.996803675267094</v>
+        <v>0.9972419581195033</v>
       </c>
       <c r="C37" t="n">
-        <v>2.219985506834806e-14</v>
+        <v>2.219955681028272e-14</v>
       </c>
       <c r="D37" t="n">
-        <v>2.219985506834806e-14</v>
+        <v>2.219955681028272e-14</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002695773295273356</v>
+        <v>0.0003196770226230344</v>
       </c>
       <c r="F37" t="n">
-        <v>0.000251788064091136</v>
+        <v>0.002438364857784769</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0002487633734748263</v>
+        <v>2.219955681028272e-14</v>
       </c>
       <c r="H37" t="n">
-        <v>2.219985506834806e-14</v>
+        <v>2.219955681028272e-14</v>
       </c>
       <c r="I37" t="n">
-        <v>0.996803675267094</v>
+        <v>0.9972419581195033</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -1870,28 +1870,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.9796250386532441</v>
+        <v>0.9700609660866509</v>
       </c>
       <c r="C38" t="n">
-        <v>2.22006212553916e-14</v>
+        <v>4.860693805401042e-14</v>
       </c>
       <c r="D38" t="n">
-        <v>2.22006212553916e-14</v>
+        <v>4.860693805401041e-14</v>
       </c>
       <c r="E38" t="n">
-        <v>0.007577860720224342</v>
+        <v>0.003274336743290549</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0007306605259180715</v>
+        <v>0.02666469716986395</v>
       </c>
       <c r="G38" t="n">
-        <v>0.01206644010054677</v>
+        <v>4.86069380540115e-14</v>
       </c>
       <c r="H38" t="n">
-        <v>2.22006212553916e-14</v>
+        <v>4.860693805401157e-14</v>
       </c>
       <c r="I38" t="n">
-        <v>0.9796250386532441</v>
+        <v>0.9700609660866509</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -1906,28 +1906,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.9923815962624363</v>
+        <v>0.9855957296127474</v>
       </c>
       <c r="C39" t="n">
-        <v>2.220168189935907e-14</v>
+        <v>3.022337633361078e-14</v>
       </c>
       <c r="D39" t="n">
-        <v>2.220168189935907e-14</v>
+        <v>3.022337633361078e-14</v>
       </c>
       <c r="E39" t="n">
-        <v>0.005009124380960591</v>
+        <v>0.003163284902723039</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0001043520623690168</v>
+        <v>0.01124098548440872</v>
       </c>
       <c r="G39" t="n">
-        <v>0.00250492729416764</v>
+        <v>3.022337633361072e-14</v>
       </c>
       <c r="H39" t="n">
-        <v>2.220168189935907e-14</v>
+        <v>3.022337633361072e-14</v>
       </c>
       <c r="I39" t="n">
-        <v>0.9923815962624363</v>
+        <v>0.9855957296127474</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -1942,28 +1942,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.9786706193670697</v>
+        <v>0.9899973280859073</v>
       </c>
       <c r="C40" t="n">
-        <v>2.220235976909183e-14</v>
+        <v>2.220046778942065e-14</v>
       </c>
       <c r="D40" t="n">
-        <v>2.220235976909183e-14</v>
+        <v>2.220046778942065e-14</v>
       </c>
       <c r="E40" t="n">
-        <v>0.005786505720304439</v>
+        <v>0.001170024213490676</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0003417923102927691</v>
+        <v>0.008832647700513122</v>
       </c>
       <c r="G40" t="n">
-        <v>0.01520108260226652</v>
+        <v>2.220046778942065e-14</v>
       </c>
       <c r="H40" t="n">
-        <v>2.220235976909183e-14</v>
+        <v>2.220046778942065e-14</v>
       </c>
       <c r="I40" t="n">
-        <v>0.9786706193670697</v>
+        <v>0.9899973280859073</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -1978,28 +1978,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.9951616050895168</v>
+        <v>0.9930459247028258</v>
       </c>
       <c r="C41" t="n">
-        <v>2.22000733095387e-14</v>
+        <v>2.219922680633683e-14</v>
       </c>
       <c r="D41" t="n">
-        <v>2.22000733095387e-14</v>
+        <v>2.219922680633683e-14</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003037261942947878</v>
+        <v>0.0001621939845682209</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001734767085657141</v>
+        <v>0.006791881312517238</v>
       </c>
       <c r="G41" t="n">
-        <v>6.636588181167945e-05</v>
+        <v>2.219922680633683e-14</v>
       </c>
       <c r="H41" t="n">
-        <v>2.22000733095387e-14</v>
+        <v>2.219922680633683e-14</v>
       </c>
       <c r="I41" t="n">
-        <v>0.9951616050895168</v>
+        <v>0.9930459247028258</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -2014,28 +2014,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.8882591075152739</v>
+        <v>0.8295496172221534</v>
       </c>
       <c r="C42" t="n">
-        <v>6.519984574326829e-14</v>
+        <v>4.693513987575427e-14</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0113209620174397</v>
+        <v>0.1224239507546238</v>
       </c>
       <c r="E42" t="n">
-        <v>0.01258183951065524</v>
+        <v>0.002105174742210685</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07628512479553559</v>
+        <v>0.04592125728087129</v>
       </c>
       <c r="G42" t="n">
-        <v>0.01155296616096521</v>
+        <v>4.693513987575426e-14</v>
       </c>
       <c r="H42" t="n">
-        <v>6.519984574326828e-14</v>
+        <v>4.693513987575427e-14</v>
       </c>
       <c r="I42" t="n">
-        <v>0.8882591075152739</v>
+        <v>0.8295496172221534</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -2050,28 +2050,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.9585646968363645</v>
+        <v>0.9603002987366711</v>
       </c>
       <c r="C43" t="n">
-        <v>2.220113642916479e-14</v>
+        <v>2.923288938302486e-14</v>
       </c>
       <c r="D43" t="n">
-        <v>0.01163218257834786</v>
+        <v>0.01640550794614642</v>
       </c>
       <c r="E43" t="n">
-        <v>0.01015199205125322</v>
+        <v>0.01626214444085719</v>
       </c>
       <c r="F43" t="n">
-        <v>0.009518604009546097</v>
+        <v>0.007032048876237486</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01013252452444393</v>
+        <v>2.923288938302524e-14</v>
       </c>
       <c r="H43" t="n">
-        <v>2.220113642916479e-14</v>
+        <v>2.923288938302525e-14</v>
       </c>
       <c r="I43" t="n">
-        <v>0.9585646968363645</v>
+        <v>0.9603002987366711</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -2086,28 +2086,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.9449653491092974</v>
+        <v>0.9170716349608234</v>
       </c>
       <c r="C44" t="n">
-        <v>2.221447637192259e-14</v>
+        <v>3.276700455365284e-14</v>
       </c>
       <c r="D44" t="n">
-        <v>0.02669682528846781</v>
+        <v>0.02143569897827399</v>
       </c>
       <c r="E44" t="n">
-        <v>0.005268732322025952</v>
+        <v>0.01103230115668747</v>
       </c>
       <c r="F44" t="n">
-        <v>0.01804847658021844</v>
+        <v>0.05046036490411676</v>
       </c>
       <c r="G44" t="n">
-        <v>0.005020616699945989</v>
+        <v>3.276700455365286e-14</v>
       </c>
       <c r="H44" t="n">
-        <v>2.221447637192259e-14</v>
+        <v>3.276700455365286e-14</v>
       </c>
       <c r="I44" t="n">
-        <v>0.9449653491092974</v>
+        <v>0.9170716349608234</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -2122,28 +2122,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.9366780241014472</v>
+        <v>0.9010765775884415</v>
       </c>
       <c r="C45" t="n">
-        <v>3.128704255896451e-14</v>
+        <v>7.254450006225286e-14</v>
       </c>
       <c r="D45" t="n">
-        <v>0.03666939082196224</v>
+        <v>0.07688959412712945</v>
       </c>
       <c r="E45" t="n">
-        <v>0.006098919467992053</v>
+        <v>0.009912117200301702</v>
       </c>
       <c r="F45" t="n">
-        <v>0.006917162860724491</v>
+        <v>0.01212171108390967</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0136365027478113</v>
+        <v>7.254450006225287e-14</v>
       </c>
       <c r="H45" t="n">
-        <v>3.12870425589645e-14</v>
+        <v>7.254450006225282e-14</v>
       </c>
       <c r="I45" t="n">
-        <v>0.9366780241014472</v>
+        <v>0.9010765775884415</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -2158,28 +2158,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.9572735293870834</v>
+        <v>0.9434457188018578</v>
       </c>
       <c r="C46" t="n">
-        <v>2.220410879642103e-14</v>
+        <v>3.775020682739004e-14</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0002587046418333211</v>
+        <v>5.087142548595249e-05</v>
       </c>
       <c r="E46" t="n">
-        <v>0.02075330300976243</v>
+        <v>0.03184578830414804</v>
       </c>
       <c r="F46" t="n">
-        <v>0.02074238036399044</v>
+        <v>0.02465762146839512</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0009720825972860406</v>
+        <v>3.775020682739006e-14</v>
       </c>
       <c r="H46" t="n">
-        <v>2.220410879642103e-14</v>
+        <v>3.775020682739011e-14</v>
       </c>
       <c r="I46" t="n">
-        <v>0.9572735293870834</v>
+        <v>0.9434457188018578</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -2194,28 +2194,28 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.9649585214244126</v>
+        <v>0.9665941470958328</v>
       </c>
       <c r="C47" t="n">
-        <v>2.22073250600964e-14</v>
+        <v>2.220490857081728e-14</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0003286050548256998</v>
+        <v>2.789457520816503e-05</v>
       </c>
       <c r="E47" t="n">
-        <v>0.01465017514044637</v>
+        <v>0.02092719850134273</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0198208927698518</v>
+        <v>0.01245075982754974</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0002418056104191181</v>
+        <v>2.220490857081728e-14</v>
       </c>
       <c r="H47" t="n">
-        <v>2.22073250600964e-14</v>
+        <v>2.220490857081728e-14</v>
       </c>
       <c r="I47" t="n">
-        <v>0.9649585214244126</v>
+        <v>0.9665941470958328</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -2230,28 +2230,28 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.9802755960703816</v>
+        <v>0.9599040003349345</v>
       </c>
       <c r="C48" t="n">
-        <v>2.220302122781613e-14</v>
+        <v>4.207502727331853e-14</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0002666244815860414</v>
+        <v>0.0001686265387934679</v>
       </c>
       <c r="E48" t="n">
-        <v>0.01332476907322684</v>
+        <v>0.03055232466306906</v>
       </c>
       <c r="F48" t="n">
-        <v>0.005356370547826599</v>
+        <v>0.009375048463076723</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0007766398269344431</v>
+        <v>4.207502727331852e-14</v>
       </c>
       <c r="H48" t="n">
-        <v>2.220302122781613e-14</v>
+        <v>4.207502727331855e-14</v>
       </c>
       <c r="I48" t="n">
-        <v>0.9802755960703816</v>
+        <v>0.9599040003349345</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -2266,28 +2266,28 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.9414987260424171</v>
+        <v>0.9267001894469861</v>
       </c>
       <c r="C49" t="n">
-        <v>3.528108896436897e-14</v>
+        <v>5.312597281285579e-14</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0003224568712808147</v>
+        <v>4.250318450012682e-05</v>
       </c>
       <c r="E49" t="n">
-        <v>0.03186795441475363</v>
+        <v>0.03732735188974538</v>
       </c>
       <c r="F49" t="n">
-        <v>0.02447991555067053</v>
+        <v>0.03592995547860911</v>
       </c>
       <c r="G49" t="n">
-        <v>0.001830947120807162</v>
+        <v>5.31259728128558e-14</v>
       </c>
       <c r="H49" t="n">
-        <v>3.528108896436895e-14</v>
+        <v>5.312597281285576e-14</v>
       </c>
       <c r="I49" t="n">
-        <v>0.9414987260424171</v>
+        <v>0.9267001894469861</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -2302,28 +2302,28 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.9442940571022654</v>
+        <v>0.901770632883318</v>
       </c>
       <c r="C50" t="n">
-        <v>3.116199847714168e-14</v>
+        <v>4.071859635935245e-14</v>
       </c>
       <c r="D50" t="n">
-        <v>0.03359248238278362</v>
+        <v>0.08718369951965561</v>
       </c>
       <c r="E50" t="n">
-        <v>0.006780063422933949</v>
+        <v>0.006460234449285666</v>
       </c>
       <c r="F50" t="n">
-        <v>0.003749729751498761</v>
+        <v>0.004585433147618608</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0115836673404559</v>
+        <v>4.071859635935245e-14</v>
       </c>
       <c r="H50" t="n">
-        <v>3.116199847714191e-14</v>
+        <v>4.071859635935246e-14</v>
       </c>
       <c r="I50" t="n">
-        <v>0.9442940571022654</v>
+        <v>0.901770632883318</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -2338,28 +2338,28 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.8723501207843753</v>
+        <v>0.8249803085086643</v>
       </c>
       <c r="C51" t="n">
-        <v>8.702169935608807e-14</v>
+        <v>1.389116398671849e-13</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0007077931551134844</v>
+        <v>0.0003505205949311127</v>
       </c>
       <c r="E51" t="n">
-        <v>0.05051540157183134</v>
+        <v>0.04035151997819824</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0666461870836919</v>
+        <v>0.1343176509177895</v>
       </c>
       <c r="G51" t="n">
-        <v>0.009780497404813997</v>
+        <v>1.389116398671849e-13</v>
       </c>
       <c r="H51" t="n">
-        <v>8.70216993560881e-14</v>
+        <v>1.389116398671849e-13</v>
       </c>
       <c r="I51" t="n">
-        <v>0.8723501207843753</v>
+        <v>0.8249803085086643</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -2374,28 +2374,28 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.903946898557511</v>
+        <v>0.8329721974881601</v>
       </c>
       <c r="C52" t="n">
-        <v>3.369171990182085e-14</v>
+        <v>6.785788082620288e-14</v>
       </c>
       <c r="D52" t="n">
-        <v>0.06903379868537479</v>
+        <v>0.1457941911333711</v>
       </c>
       <c r="E52" t="n">
-        <v>0.00662290594513398</v>
+        <v>0.009077061496237753</v>
       </c>
       <c r="F52" t="n">
-        <v>0.006025460372359205</v>
+        <v>0.01215654988202752</v>
       </c>
       <c r="G52" t="n">
-        <v>0.01437093643955357</v>
+        <v>6.785788082620292e-14</v>
       </c>
       <c r="H52" t="n">
-        <v>3.369171990182083e-14</v>
+        <v>6.785788082620292e-14</v>
       </c>
       <c r="I52" t="n">
-        <v>0.903946898557511</v>
+        <v>0.8329721974881601</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -2410,28 +2410,28 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.9924986987445253</v>
+        <v>0.9394747117846451</v>
       </c>
       <c r="C53" t="n">
-        <v>2.369046000948132e-14</v>
+        <v>5.731433542961729e-14</v>
       </c>
       <c r="D53" t="n">
-        <v>5.726887268816575e-05</v>
+        <v>6.07394548226495e-05</v>
       </c>
       <c r="E53" t="n">
-        <v>0.004712565703635858</v>
+        <v>0.01640317037644007</v>
       </c>
       <c r="F53" t="n">
-        <v>0.002255107762955898</v>
+        <v>0.04406137838392028</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0004763589161475224</v>
+        <v>5.731433542961729e-14</v>
       </c>
       <c r="H53" t="n">
-        <v>2.369046000948139e-14</v>
+        <v>5.731433542961724e-14</v>
       </c>
       <c r="I53" t="n">
-        <v>0.9924986987445253</v>
+        <v>0.9394747117846451</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -2446,28 +2446,28 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.9612441346076492</v>
+        <v>0.9365964105402593</v>
       </c>
       <c r="C54" t="n">
-        <v>2.220435954703155e-14</v>
+        <v>2.220430992061961e-14</v>
       </c>
       <c r="D54" t="n">
-        <v>0.008637841657792654</v>
+        <v>0.05095571703940944</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001428281577126627</v>
+        <v>0.0008604605570725302</v>
       </c>
       <c r="F54" t="n">
-        <v>0.02868866716902293</v>
+        <v>0.01158741186319218</v>
       </c>
       <c r="G54" t="n">
-        <v>1.074988364213785e-06</v>
+        <v>2.220430992061961e-14</v>
       </c>
       <c r="H54" t="n">
-        <v>2.220435954703155e-14</v>
+        <v>2.220430992061961e-14</v>
       </c>
       <c r="I54" t="n">
-        <v>0.9612441346076492</v>
+        <v>0.9365964105402593</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -2482,28 +2482,28 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.9966614351344085</v>
+        <v>0.990017262978558</v>
       </c>
       <c r="C55" t="n">
-        <v>2.220037731559686e-14</v>
+        <v>2.791209570486344e-14</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0001763390006128182</v>
+        <v>0.001189094731930071</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002239514033674278</v>
+        <v>0.004167413710970536</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0006856136844148683</v>
+        <v>0.004626228578457838</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0002370981468451767</v>
+        <v>2.791209570486344e-14</v>
       </c>
       <c r="H55" t="n">
-        <v>2.220037731559686e-14</v>
+        <v>2.791209570486349e-14</v>
       </c>
       <c r="I55" t="n">
-        <v>0.9966614351344085</v>
+        <v>0.990017262978558</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -2518,28 +2518,28 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.9881719021782402</v>
+        <v>0.9870764597463924</v>
       </c>
       <c r="C56" t="n">
-        <v>2.221278577044683e-14</v>
+        <v>2.220066707044714e-14</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0003096283977495938</v>
+        <v>0.0002086064281196847</v>
       </c>
       <c r="E56" t="n">
-        <v>0.006555903932938171</v>
+        <v>0.003046775702054448</v>
       </c>
       <c r="F56" t="n">
-        <v>0.001413747992847433</v>
+        <v>0.009668158123366973</v>
       </c>
       <c r="G56" t="n">
-        <v>0.003548817498180193</v>
+        <v>2.220066707044714e-14</v>
       </c>
       <c r="H56" t="n">
-        <v>2.221278577044683e-14</v>
+        <v>2.220066707044714e-14</v>
       </c>
       <c r="I56" t="n">
-        <v>0.9881719021782402</v>
+        <v>0.9870764597463924</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.9955878529701291</v>
+        <v>0.9822629012153382</v>
       </c>
       <c r="C57" t="n">
-        <v>2.220150931219881e-14</v>
+        <v>3.393587422479624e-14</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0009789548237256827</v>
+        <v>0.00395782265570327</v>
       </c>
       <c r="E57" t="n">
-        <v>0.001957325197358317</v>
+        <v>0.005817666568308411</v>
       </c>
       <c r="F57" t="n">
-        <v>0.001426829114265824</v>
+        <v>0.007961609560548208</v>
       </c>
       <c r="G57" t="n">
-        <v>4.903789447674698e-05</v>
+        <v>3.393587422479634e-14</v>
       </c>
       <c r="H57" t="n">
-        <v>2.220150931219881e-14</v>
+        <v>3.393587422479631e-14</v>
       </c>
       <c r="I57" t="n">
-        <v>0.9955878529701291</v>
+        <v>0.9822629012153382</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -2590,28 +2590,28 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.9753802638860338</v>
+        <v>0.979336146371392</v>
       </c>
       <c r="C58" t="n">
-        <v>2.220275420957656e-14</v>
+        <v>5.348381100066307e-14</v>
       </c>
       <c r="D58" t="n">
-        <v>0.003531931575536176</v>
+        <v>0.008497126409447685</v>
       </c>
       <c r="E58" t="n">
-        <v>0.003861447572058689</v>
+        <v>0.005815829483040691</v>
       </c>
       <c r="F58" t="n">
-        <v>0.001089304397832301</v>
+        <v>0.006350897735959058</v>
       </c>
       <c r="G58" t="n">
-        <v>0.01613705256849456</v>
+        <v>5.348381100066294e-14</v>
       </c>
       <c r="H58" t="n">
-        <v>2.220275420957656e-14</v>
+        <v>5.348381100066291e-14</v>
       </c>
       <c r="I58" t="n">
-        <v>0.9753802638860338</v>
+        <v>0.979336146371392</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -2626,28 +2626,28 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.8922685947079324</v>
+        <v>0.9471660983714267</v>
       </c>
       <c r="C59" t="n">
-        <v>3.744783685957075e-14</v>
+        <v>7.626370620036916e-14</v>
       </c>
       <c r="D59" t="n">
-        <v>0.03719151043984428</v>
+        <v>0.01272654300763094</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0091008043699062</v>
+        <v>0.01180420707872187</v>
       </c>
       <c r="F59" t="n">
-        <v>0.005616953460562023</v>
+        <v>0.02830315154199155</v>
       </c>
       <c r="G59" t="n">
-        <v>0.05582213702168014</v>
+        <v>7.626370620036911e-14</v>
       </c>
       <c r="H59" t="n">
-        <v>3.744783685957058e-14</v>
+        <v>7.626370620036915e-14</v>
       </c>
       <c r="I59" t="n">
-        <v>0.8922685947079324</v>
+        <v>0.9471660983714267</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -2662,28 +2662,28 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.9030432498837297</v>
+        <v>0.9692597196840167</v>
       </c>
       <c r="C60" t="n">
-        <v>4.233896207013736e-14</v>
+        <v>6.070306588856484e-14</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0135876502983039</v>
+        <v>0.003304368838403167</v>
       </c>
       <c r="E60" t="n">
-        <v>0.01067610460312196</v>
+        <v>0.009334960207285664</v>
       </c>
       <c r="F60" t="n">
-        <v>0.003981825507808907</v>
+        <v>0.01810095127011247</v>
       </c>
       <c r="G60" t="n">
-        <v>0.06871116970695069</v>
+        <v>6.070306588856499e-14</v>
       </c>
       <c r="H60" t="n">
-        <v>4.233896207013742e-14</v>
+        <v>6.070306588856499e-14</v>
       </c>
       <c r="I60" t="n">
-        <v>0.9030432498837297</v>
+        <v>0.9692597196840167</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -2698,28 +2698,28 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.9287415771075899</v>
+        <v>0.9642492742004655</v>
       </c>
       <c r="C61" t="n">
-        <v>2.221044110143391e-14</v>
+        <v>2.220168281699428e-14</v>
       </c>
       <c r="D61" t="n">
-        <v>0.05606206899684352</v>
+        <v>0.02827553508225409</v>
       </c>
       <c r="E61" t="n">
-        <v>0.000801649792576651</v>
+        <v>0.001712982986035384</v>
       </c>
       <c r="F61" t="n">
-        <v>0.01439430768746274</v>
+        <v>0.005762207731178589</v>
       </c>
       <c r="G61" t="n">
-        <v>3.96415482828781e-07</v>
+        <v>2.220168281699428e-14</v>
       </c>
       <c r="H61" t="n">
-        <v>2.221044110143391e-14</v>
+        <v>2.220168281699428e-14</v>
       </c>
       <c r="I61" t="n">
-        <v>0.9287415771075899</v>
+        <v>0.9642492742004655</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -2734,28 +2734,28 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.9803004342564476</v>
+        <v>0.9889992170662405</v>
       </c>
       <c r="C62" t="n">
-        <v>2.220386356050316e-14</v>
+        <v>2.219933389792715e-14</v>
       </c>
       <c r="D62" t="n">
-        <v>2.220386356050316e-14</v>
+        <v>2.219933389792715e-14</v>
       </c>
       <c r="E62" t="n">
-        <v>0.001031176923077845</v>
+        <v>0.0002120197079021602</v>
       </c>
       <c r="F62" t="n">
-        <v>0.01281898429422786</v>
+        <v>0.01078876322576849</v>
       </c>
       <c r="G62" t="n">
-        <v>0.005849404526180103</v>
+        <v>2.219933389792715e-14</v>
       </c>
       <c r="H62" t="n">
-        <v>2.220386356050316e-14</v>
+        <v>2.219933389792715e-14</v>
       </c>
       <c r="I62" t="n">
-        <v>0.9803004342564476</v>
+        <v>0.9889992170662405</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -2770,28 +2770,28 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.8874266084886604</v>
+        <v>0.8463709050112314</v>
       </c>
       <c r="C63" t="n">
-        <v>6.759033462363007e-14</v>
+        <v>4.669849114502033e-12</v>
       </c>
       <c r="D63" t="n">
-        <v>6.759033462363006e-14</v>
+        <v>4.669849114502033e-12</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003027925012489817</v>
+        <v>0.008807838616643707</v>
       </c>
       <c r="F63" t="n">
-        <v>0.05391759870311607</v>
+        <v>0.1448212563534454</v>
       </c>
       <c r="G63" t="n">
-        <v>0.05562786779553097</v>
+        <v>4.66984911450196e-12</v>
       </c>
       <c r="H63" t="n">
-        <v>6.759033462363015e-14</v>
+        <v>4.66984911450197e-12</v>
       </c>
       <c r="I63" t="n">
-        <v>0.8874266084886604</v>
+        <v>0.8463709050112314</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -2806,28 +2806,28 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.9813536237841478</v>
+        <v>0.9081721632907974</v>
       </c>
       <c r="C64" t="n">
-        <v>2.220076867335815e-14</v>
+        <v>1.598953510474292e-13</v>
       </c>
       <c r="D64" t="n">
-        <v>2.220076867335815e-14</v>
+        <v>1.598953510474292e-13</v>
       </c>
       <c r="E64" t="n">
-        <v>0.001639521849042169</v>
+        <v>0.001644032205871152</v>
       </c>
       <c r="F64" t="n">
-        <v>0.01583017924397491</v>
+        <v>0.09018380450269183</v>
       </c>
       <c r="G64" t="n">
-        <v>0.001176675122768482</v>
+        <v>1.598953510474295e-13</v>
       </c>
       <c r="H64" t="n">
-        <v>2.220076867335815e-14</v>
+        <v>1.598953510474295e-13</v>
       </c>
       <c r="I64" t="n">
-        <v>0.9813536237841478</v>
+        <v>0.9081721632907974</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -2842,28 +2842,28 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.9848626144200843</v>
+        <v>0.9198670627564466</v>
       </c>
       <c r="C65" t="n">
-        <v>2.220074819269172e-14</v>
+        <v>1.381777392963412e-13</v>
       </c>
       <c r="D65" t="n">
-        <v>2.220074819269172e-14</v>
+        <v>1.381777392963412e-13</v>
       </c>
       <c r="E65" t="n">
-        <v>0.001551957719653341</v>
+        <v>0.0009290089774258143</v>
       </c>
       <c r="F65" t="n">
-        <v>0.01269396432628654</v>
+        <v>0.07920392826557499</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0008914635339093611</v>
+        <v>1.38177739296341e-13</v>
       </c>
       <c r="H65" t="n">
-        <v>2.220074819269172e-14</v>
+        <v>1.381777392963411e-13</v>
       </c>
       <c r="I65" t="n">
-        <v>0.9848626144200843</v>
+        <v>0.9198670627564466</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -2878,28 +2878,28 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.9767702864309119</v>
+        <v>0.9727320573254556</v>
       </c>
       <c r="C66" t="n">
-        <v>2.219993733459833e-14</v>
+        <v>2.219969639886424e-14</v>
       </c>
       <c r="D66" t="n">
-        <v>2.219993733459833e-14</v>
+        <v>2.219969639886424e-14</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001767389556052758</v>
+        <v>0.0007179766486594112</v>
       </c>
       <c r="F66" t="n">
-        <v>0.01862655140473258</v>
+        <v>0.02654996602579631</v>
       </c>
       <c r="G66" t="n">
-        <v>0.002835772608236118</v>
+        <v>2.219969639886424e-14</v>
       </c>
       <c r="H66" t="n">
-        <v>2.219993733459833e-14</v>
+        <v>2.219969639886424e-14</v>
       </c>
       <c r="I66" t="n">
-        <v>0.9767702864309119</v>
+        <v>0.9727320573254556</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -2914,28 +2914,28 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.9678589800874721</v>
+        <v>0.8331829090917181</v>
       </c>
       <c r="C67" t="n">
-        <v>2.220182168448844e-14</v>
+        <v>8.20124008228043e-13</v>
       </c>
       <c r="D67" t="n">
-        <v>2.220182168448844e-14</v>
+        <v>8.201240082280438e-13</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002168000810140012</v>
+        <v>0.01426018143628088</v>
       </c>
       <c r="F67" t="n">
-        <v>0.01905337420949289</v>
+        <v>0.1525569094687207</v>
       </c>
       <c r="G67" t="n">
-        <v>0.01091964489282861</v>
+        <v>8.201240082280438e-13</v>
       </c>
       <c r="H67" t="n">
-        <v>2.220182168448844e-14</v>
+        <v>8.201240082280436e-13</v>
       </c>
       <c r="I67" t="n">
-        <v>0.9678589800874721</v>
+        <v>0.8331829090917181</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -2950,28 +2950,28 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.9902031409300784</v>
+        <v>0.9840975183095086</v>
       </c>
       <c r="C68" t="n">
-        <v>2.219930851590267e-14</v>
+        <v>2.219887652706682e-14</v>
       </c>
       <c r="D68" t="n">
-        <v>2.219930851590267e-14</v>
+        <v>2.219887652706682e-14</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0003113363092342962</v>
+        <v>6.669048094883149e-05</v>
       </c>
       <c r="F68" t="n">
-        <v>0.009484899596863879</v>
+        <v>0.01583579120945369</v>
       </c>
       <c r="G68" t="n">
-        <v>6.231637568076031e-07</v>
+        <v>2.219887652706682e-14</v>
       </c>
       <c r="H68" t="n">
-        <v>2.219930851590267e-14</v>
+        <v>2.219887652706682e-14</v>
       </c>
       <c r="I68" t="n">
-        <v>0.9902031409300784</v>
+        <v>0.9840975183095086</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -2986,28 +2986,28 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.9837767273430406</v>
+        <v>0.9909793991598927</v>
       </c>
       <c r="C69" t="n">
-        <v>3.172707530061777e-14</v>
+        <v>2.224058361262512e-14</v>
       </c>
       <c r="D69" t="n">
-        <v>3.172707530061774e-14</v>
+        <v>2.224058361262512e-14</v>
       </c>
       <c r="E69" t="n">
-        <v>0.003345269823799671</v>
+        <v>0.0003180197065085179</v>
       </c>
       <c r="F69" t="n">
-        <v>0.001581658713804947</v>
+        <v>0.008702581133509815</v>
       </c>
       <c r="G69" t="n">
-        <v>0.01129634411925962</v>
+        <v>2.224058361262513e-14</v>
       </c>
       <c r="H69" t="n">
-        <v>3.172707530061861e-14</v>
+        <v>2.224058361262513e-14</v>
       </c>
       <c r="I69" t="n">
-        <v>0.9837767273430406</v>
+        <v>0.9909793991598927</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -3022,28 +3022,28 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.995301693460757</v>
+        <v>0.9850744221982021</v>
       </c>
       <c r="C70" t="n">
-        <v>2.220008669654498e-14</v>
+        <v>2.219870068345085e-14</v>
       </c>
       <c r="D70" t="n">
-        <v>2.220008669654498e-14</v>
+        <v>2.219870068345085e-14</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0005928333003778728</v>
+        <v>3.251956622697457e-05</v>
       </c>
       <c r="F70" t="n">
-        <v>0.004087022838463262</v>
+        <v>0.01489305823548222</v>
       </c>
       <c r="G70" t="n">
-        <v>1.845040033506786e-05</v>
+        <v>2.219870068345085e-14</v>
       </c>
       <c r="H70" t="n">
-        <v>2.220008669654498e-14</v>
+        <v>2.219870068345085e-14</v>
       </c>
       <c r="I70" t="n">
-        <v>0.995301693460757</v>
+        <v>0.9850744221982021</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -3058,28 +3058,28 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.9740192288922463</v>
+        <v>0.9678848510315595</v>
       </c>
       <c r="C71" t="n">
-        <v>2.219587224016345e-14</v>
+        <v>2.219896445742164e-14</v>
       </c>
       <c r="D71" t="n">
-        <v>2.219587224016345e-14</v>
+        <v>2.219896445742164e-14</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0001439094725444684</v>
+        <v>3.982987950533879e-06</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0258357228111301</v>
+        <v>0.03211116598040126</v>
       </c>
       <c r="G71" t="n">
-        <v>1.138824012287108e-06</v>
+        <v>2.219896445742164e-14</v>
       </c>
       <c r="H71" t="n">
-        <v>2.219587224016345e-14</v>
+        <v>2.219896445742164e-14</v>
       </c>
       <c r="I71" t="n">
-        <v>0.9740192288922463</v>
+        <v>0.9678848510315595</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -3094,28 +3094,28 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.9957173816507839</v>
+        <v>0.9856500801816258</v>
       </c>
       <c r="C72" t="n">
-        <v>2.220125479650059e-14</v>
+        <v>2.219849159370022e-14</v>
       </c>
       <c r="D72" t="n">
-        <v>2.220125479650059e-14</v>
+        <v>2.219849159370022e-14</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001936314571519817</v>
+        <v>0.0001103127749707302</v>
       </c>
       <c r="F72" t="n">
-        <v>0.001625478677804967</v>
+        <v>0.01423960704331467</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0007208250998247443</v>
+        <v>2.219849159370022e-14</v>
       </c>
       <c r="H72" t="n">
-        <v>2.220125479650059e-14</v>
+        <v>2.219849159370022e-14</v>
       </c>
       <c r="I72" t="n">
-        <v>0.9957173816507839</v>
+        <v>0.9856500801816258</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -3130,28 +3130,28 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.7038776018720254</v>
+        <v>0.874713519822424</v>
       </c>
       <c r="C73" t="n">
-        <v>2.219424102013719e-14</v>
+        <v>2.219975729280339e-14</v>
       </c>
       <c r="D73" t="n">
-        <v>2.219424102013719e-14</v>
+        <v>2.219975729280339e-14</v>
       </c>
       <c r="E73" t="n">
-        <v>5.155033384584838e-05</v>
+        <v>7.700069122823417e-07</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2960704403236935</v>
+        <v>0.1252857101705749</v>
       </c>
       <c r="G73" t="n">
-        <v>4.074703686272041e-07</v>
+        <v>2.219975729280339e-14</v>
       </c>
       <c r="H73" t="n">
-        <v>2.219424102013719e-14</v>
+        <v>2.219975729280339e-14</v>
       </c>
       <c r="I73" t="n">
-        <v>0.7038776018720254</v>
+        <v>0.874713519822424</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -3166,28 +3166,28 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.9948517976196976</v>
+        <v>0.9898193398121877</v>
       </c>
       <c r="C74" t="n">
-        <v>2.632045269589699e-14</v>
+        <v>2.21992965137037e-14</v>
       </c>
       <c r="D74" t="n">
-        <v>2.632045269589706e-14</v>
+        <v>2.21992965137037e-14</v>
       </c>
       <c r="E74" t="n">
-        <v>0.001554841726030827</v>
+        <v>0.0001542001330127071</v>
       </c>
       <c r="F74" t="n">
-        <v>0.00315874649112513</v>
+        <v>0.01002646005471071</v>
       </c>
       <c r="G74" t="n">
-        <v>0.000434614163067509</v>
+        <v>2.21992965137037e-14</v>
       </c>
       <c r="H74" t="n">
-        <v>2.632045269589704e-14</v>
+        <v>2.21992965137037e-14</v>
       </c>
       <c r="I74" t="n">
-        <v>0.9948517976196976</v>
+        <v>0.9898193398121877</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -3202,28 +3202,28 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.9970863751480276</v>
+        <v>0.9946832754828696</v>
       </c>
       <c r="C75" t="n">
-        <v>2.220108384466476e-14</v>
+        <v>2.219913203862071e-14</v>
       </c>
       <c r="D75" t="n">
-        <v>2.220108384466476e-14</v>
+        <v>2.219913203862071e-14</v>
       </c>
       <c r="E75" t="n">
-        <v>0.00119091042297952</v>
+        <v>0.0001287083492828814</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0010532191743202</v>
+        <v>0.005188016167758762</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0006694952546062168</v>
+        <v>2.219913203862071e-14</v>
       </c>
       <c r="H75" t="n">
-        <v>2.220108384466476e-14</v>
+        <v>2.219913203862071e-14</v>
       </c>
       <c r="I75" t="n">
-        <v>0.9970863751480276</v>
+        <v>0.9946832754828696</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -3238,28 +3238,28 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.9739289794095618</v>
+        <v>0.9744919717285352</v>
       </c>
       <c r="C76" t="n">
-        <v>2.220036408381335e-14</v>
+        <v>8.868583285666127e-14</v>
       </c>
       <c r="D76" t="n">
-        <v>2.220036408381335e-14</v>
+        <v>8.868583285666123e-14</v>
       </c>
       <c r="E76" t="n">
-        <v>0.00145267052641356</v>
+        <v>0.000816877012617909</v>
       </c>
       <c r="F76" t="n">
-        <v>0.002143311734475519</v>
+        <v>0.02469115125849196</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02247503832948238</v>
+        <v>8.868583285666087e-14</v>
       </c>
       <c r="H76" t="n">
-        <v>2.220036408381335e-14</v>
+        <v>8.868583285666109e-14</v>
       </c>
       <c r="I76" t="n">
-        <v>0.9739289794095618</v>
+        <v>0.9744919717285352</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -3274,28 +3274,28 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.9961534129946391</v>
+        <v>0.9888207086830549</v>
       </c>
       <c r="C77" t="n">
-        <v>2.220085854521336e-14</v>
+        <v>2.219892430631651e-14</v>
       </c>
       <c r="D77" t="n">
-        <v>2.220085854521336e-14</v>
+        <v>2.219892430631651e-14</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001667147650232109</v>
+        <v>7.094420773664325e-05</v>
       </c>
       <c r="F77" t="n">
-        <v>0.001605352164001136</v>
+        <v>0.01110834710911963</v>
       </c>
       <c r="G77" t="n">
-        <v>0.000574087191061019</v>
+        <v>2.219892430631651e-14</v>
       </c>
       <c r="H77" t="n">
-        <v>2.220085854521336e-14</v>
+        <v>2.219892430631651e-14</v>
       </c>
       <c r="I77" t="n">
-        <v>0.9961534129946391</v>
+        <v>0.9888207086830549</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -3310,28 +3310,28 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.9917986260635466</v>
+        <v>0.9803553984757711</v>
       </c>
       <c r="C78" t="n">
-        <v>2.21994371158652e-14</v>
+        <v>2.219874765970155e-14</v>
       </c>
       <c r="D78" t="n">
-        <v>2.21994371158652e-14</v>
+        <v>2.219874765970155e-14</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0004580378697323795</v>
+        <v>1.990309983806849e-05</v>
       </c>
       <c r="F78" t="n">
-        <v>0.007722855675207519</v>
+        <v>0.01962469842430203</v>
       </c>
       <c r="G78" t="n">
-        <v>2.048039144675206e-05</v>
+        <v>2.219874765970155e-14</v>
       </c>
       <c r="H78" t="n">
-        <v>2.21994371158652e-14</v>
+        <v>2.219874765970155e-14</v>
       </c>
       <c r="I78" t="n">
-        <v>0.9917986260635466</v>
+        <v>0.9803553984757711</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -3346,28 +3346,28 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.9967731676062274</v>
+        <v>0.9910173225307647</v>
       </c>
       <c r="C79" t="n">
-        <v>2.220038785070195e-14</v>
+        <v>2.219908571289734e-14</v>
       </c>
       <c r="D79" t="n">
-        <v>2.220038785070195e-14</v>
+        <v>2.219908571289734e-14</v>
       </c>
       <c r="E79" t="n">
-        <v>0.001212356480686772</v>
+        <v>3.810456911733855e-05</v>
       </c>
       <c r="F79" t="n">
-        <v>0.001636978766823743</v>
+        <v>0.008944572900029119</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0003774971461956806</v>
+        <v>2.219908571289734e-14</v>
       </c>
       <c r="H79" t="n">
-        <v>2.220038785070195e-14</v>
+        <v>2.219908571289734e-14</v>
       </c>
       <c r="I79" t="n">
-        <v>0.9967731676062274</v>
+        <v>0.9910173225307647</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -3382,28 +3382,28 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.9494861538924084</v>
+        <v>0.9748560061522192</v>
       </c>
       <c r="C80" t="n">
-        <v>8.099277253229866e-14</v>
+        <v>2.220212164280404e-14</v>
       </c>
       <c r="D80" t="n">
-        <v>8.099277253229856e-14</v>
+        <v>2.220212164280404e-14</v>
       </c>
       <c r="E80" t="n">
-        <v>0.004405564163279119</v>
+        <v>4.892341948254341e-05</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0384774550403474</v>
+        <v>0.02509507042820949</v>
       </c>
       <c r="G80" t="n">
-        <v>0.007630826903721957</v>
+        <v>2.220212164280404e-14</v>
       </c>
       <c r="H80" t="n">
-        <v>8.099277253229861e-14</v>
+        <v>2.220212164280404e-14</v>
       </c>
       <c r="I80" t="n">
-        <v>0.9494861538924084</v>
+        <v>0.9748560061522192</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -3418,28 +3418,28 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.9805860943036668</v>
+        <v>0.9795943397682182</v>
       </c>
       <c r="C81" t="n">
-        <v>2.219971444186568e-14</v>
+        <v>2.219916909606178e-14</v>
       </c>
       <c r="D81" t="n">
-        <v>2.219971444186568e-14</v>
+        <v>2.219916909606178e-14</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0007223235192463425</v>
+        <v>1.304298854553795e-05</v>
       </c>
       <c r="F81" t="n">
-        <v>0.01853124719180062</v>
+        <v>0.02039261724314748</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0001603349852196687</v>
+        <v>2.219916909606178e-14</v>
       </c>
       <c r="H81" t="n">
-        <v>2.219971444186568e-14</v>
+        <v>2.219916909606178e-14</v>
       </c>
       <c r="I81" t="n">
-        <v>0.9805860943036668</v>
+        <v>0.9795943397682182</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -3454,28 +3454,28 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.9725712260712102</v>
+        <v>0.9738996118863228</v>
       </c>
       <c r="C82" t="n">
-        <v>2.411615400271007e-13</v>
+        <v>4.738062371269553e-13</v>
       </c>
       <c r="D82" t="n">
-        <v>2.411615400271007e-13</v>
+        <v>4.738062371269556e-13</v>
       </c>
       <c r="E82" t="n">
-        <v>2.411615400271013e-13</v>
+        <v>4.738062371269565e-13</v>
       </c>
       <c r="F82" t="n">
-        <v>0.02742877392758384</v>
+        <v>0.02610038811130806</v>
       </c>
       <c r="G82" t="n">
-        <v>2.411615400271018e-13</v>
+        <v>4.738062371269787e-13</v>
       </c>
       <c r="H82" t="n">
-        <v>2.411615400271016e-13</v>
+        <v>4.738062371269781e-13</v>
       </c>
       <c r="I82" t="n">
-        <v>0.9725712260712102</v>
+        <v>0.9738996118863228</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -3490,28 +3490,28 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.9074490596372133</v>
+        <v>0.8329265660420442</v>
       </c>
       <c r="C83" t="n">
-        <v>1.35874546240109e-12</v>
+        <v>5.445332678947948e-12</v>
       </c>
       <c r="D83" t="n">
-        <v>1.358745462401091e-12</v>
+        <v>5.445332678947947e-12</v>
       </c>
       <c r="E83" t="n">
-        <v>1.358745462401095e-12</v>
+        <v>5.445332678947947e-12</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09255094035599294</v>
+        <v>0.1670734339307291</v>
       </c>
       <c r="G83" t="n">
-        <v>1.358745462401093e-12</v>
+        <v>5.445332678947943e-12</v>
       </c>
       <c r="H83" t="n">
-        <v>1.358745462401094e-12</v>
+        <v>5.445332678947949e-12</v>
       </c>
       <c r="I83" t="n">
-        <v>0.9074490596372133</v>
+        <v>0.8329265660420442</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -3526,28 +3526,28 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.9881800267459477</v>
+        <v>0.9915010984743142</v>
       </c>
       <c r="C84" t="n">
-        <v>2.219917763769998e-14</v>
+        <v>2.21991319469255e-14</v>
       </c>
       <c r="D84" t="n">
-        <v>2.219917763769998e-14</v>
+        <v>2.21991319469255e-14</v>
       </c>
       <c r="E84" t="n">
-        <v>2.219917763769998e-14</v>
+        <v>2.21991319469255e-14</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0118199732539412</v>
+        <v>0.00849890152557475</v>
       </c>
       <c r="G84" t="n">
-        <v>2.219917763769998e-14</v>
+        <v>2.21991319469255e-14</v>
       </c>
       <c r="H84" t="n">
-        <v>2.219917763769998e-14</v>
+        <v>2.21991319469255e-14</v>
       </c>
       <c r="I84" t="n">
-        <v>0.9881800267459477</v>
+        <v>0.9915010984743142</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -3562,28 +3562,28 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.9817072598277149</v>
+        <v>0.9887459792451546</v>
       </c>
       <c r="C85" t="n">
-        <v>2.219924841685742e-14</v>
+        <v>2.80440168489237e-14</v>
       </c>
       <c r="D85" t="n">
-        <v>2.219924841685742e-14</v>
+        <v>2.804401684892373e-14</v>
       </c>
       <c r="E85" t="n">
-        <v>2.219924841685742e-14</v>
+        <v>2.804401684892368e-14</v>
       </c>
       <c r="F85" t="n">
-        <v>0.01829274017217406</v>
+        <v>0.01125402075470495</v>
       </c>
       <c r="G85" t="n">
-        <v>2.219924841685742e-14</v>
+        <v>2.804401684892368e-14</v>
       </c>
       <c r="H85" t="n">
-        <v>2.219924841685742e-14</v>
+        <v>2.804401684892373e-14</v>
       </c>
       <c r="I85" t="n">
-        <v>0.9817072598277149</v>
+        <v>0.9887459792451546</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -3598,28 +3598,28 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.9841790695398327</v>
+        <v>0.9743081768534317</v>
       </c>
       <c r="C86" t="n">
-        <v>1.18644288662702e-12</v>
+        <v>4.529241204386089e-12</v>
       </c>
       <c r="D86" t="n">
-        <v>1.186442886627028e-12</v>
+        <v>4.529241204386086e-12</v>
       </c>
       <c r="E86" t="n">
-        <v>1.186442886627031e-12</v>
+        <v>4.529241204386092e-12</v>
       </c>
       <c r="F86" t="n">
-        <v>0.01582093045423505</v>
+        <v>0.02569182312392225</v>
       </c>
       <c r="G86" t="n">
-        <v>1.186442886627024e-12</v>
+        <v>4.52924120438609e-12</v>
       </c>
       <c r="H86" t="n">
-        <v>1.186442886627026e-12</v>
+        <v>4.529241204386096e-12</v>
       </c>
       <c r="I86" t="n">
-        <v>0.9841790695398327</v>
+        <v>0.9743081768534317</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -3634,28 +3634,28 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.9979038828885565</v>
+        <v>0.992689450280585</v>
       </c>
       <c r="C87" t="n">
-        <v>2.219940239350973e-14</v>
+        <v>2.349329334873767e-14</v>
       </c>
       <c r="D87" t="n">
-        <v>2.219940239350973e-14</v>
+        <v>2.349329334873769e-14</v>
       </c>
       <c r="E87" t="n">
-        <v>2.219940239350973e-14</v>
+        <v>2.349329334873769e-14</v>
       </c>
       <c r="F87" t="n">
-        <v>0.002096117111332564</v>
+        <v>0.007310549719297313</v>
       </c>
       <c r="G87" t="n">
-        <v>2.219940239350973e-14</v>
+        <v>2.349329334873771e-14</v>
       </c>
       <c r="H87" t="n">
-        <v>2.219940239350973e-14</v>
+        <v>2.349329334873771e-14</v>
       </c>
       <c r="I87" t="n">
-        <v>0.9979038828885565</v>
+        <v>0.992689450280585</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -3670,28 +3670,28 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.9920148703471712</v>
+        <v>0.9855589418350724</v>
       </c>
       <c r="C88" t="n">
-        <v>2.219914174690343e-14</v>
+        <v>2.220058483854061e-14</v>
       </c>
       <c r="D88" t="n">
-        <v>2.219914174690343e-14</v>
+        <v>2.220058483854061e-14</v>
       </c>
       <c r="E88" t="n">
-        <v>2.219914174690343e-14</v>
+        <v>2.220058483854061e-14</v>
       </c>
       <c r="F88" t="n">
-        <v>0.007985129652717856</v>
+        <v>0.01444105816481654</v>
       </c>
       <c r="G88" t="n">
-        <v>2.219914174690343e-14</v>
+        <v>2.220058483854061e-14</v>
       </c>
       <c r="H88" t="n">
-        <v>2.219914174690343e-14</v>
+        <v>2.220058483854061e-14</v>
       </c>
       <c r="I88" t="n">
-        <v>0.9920148703471712</v>
+        <v>0.9855589418350724</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
@@ -3706,28 +3706,28 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.9976072752128857</v>
+        <v>0.9909203621453773</v>
       </c>
       <c r="C89" t="n">
-        <v>2.219907572678969e-14</v>
+        <v>2.219914224478938e-14</v>
       </c>
       <c r="D89" t="n">
-        <v>2.219907572678969e-14</v>
+        <v>2.219914224478938e-14</v>
       </c>
       <c r="E89" t="n">
-        <v>2.219907572678969e-14</v>
+        <v>2.219914224478938e-14</v>
       </c>
       <c r="F89" t="n">
-        <v>0.002392724787003147</v>
+        <v>0.00907963785451186</v>
       </c>
       <c r="G89" t="n">
-        <v>2.219907572678969e-14</v>
+        <v>2.219914224478938e-14</v>
       </c>
       <c r="H89" t="n">
-        <v>2.219907572678969e-14</v>
+        <v>2.219914224478938e-14</v>
       </c>
       <c r="I89" t="n">
-        <v>0.9976072752128857</v>
+        <v>0.9909203621453773</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
@@ -3742,28 +3742,28 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.9980272930358827</v>
+        <v>0.9935459736502398</v>
       </c>
       <c r="C90" t="n">
-        <v>2.273693122965099e-14</v>
+        <v>2.220228547483299e-14</v>
       </c>
       <c r="D90" t="n">
-        <v>2.273693122965101e-14</v>
+        <v>2.220228547483299e-14</v>
       </c>
       <c r="E90" t="n">
-        <v>2.273693122965101e-14</v>
+        <v>2.220228547483299e-14</v>
       </c>
       <c r="F90" t="n">
-        <v>0.001972706964003548</v>
+        <v>0.006454026349649209</v>
       </c>
       <c r="G90" t="n">
-        <v>2.273693122965102e-14</v>
+        <v>2.220228547483299e-14</v>
       </c>
       <c r="H90" t="n">
-        <v>2.273693122965102e-14</v>
+        <v>2.220228547483299e-14</v>
       </c>
       <c r="I90" t="n">
-        <v>0.9980272930358827</v>
+        <v>0.9935459736502398</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
@@ -3778,28 +3778,28 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.9936747703068013</v>
+        <v>0.9876798353714094</v>
       </c>
       <c r="C91" t="n">
-        <v>2.219912067643052e-14</v>
+        <v>2.220547714557888e-14</v>
       </c>
       <c r="D91" t="n">
-        <v>2.219912067643052e-14</v>
+        <v>2.220547714557888e-14</v>
       </c>
       <c r="E91" t="n">
-        <v>2.219912067643052e-14</v>
+        <v>2.220547714557888e-14</v>
       </c>
       <c r="F91" t="n">
-        <v>0.006325229693087798</v>
+        <v>0.01232016462847965</v>
       </c>
       <c r="G91" t="n">
-        <v>2.219912067643052e-14</v>
+        <v>2.220547714557888e-14</v>
       </c>
       <c r="H91" t="n">
-        <v>2.219912067643052e-14</v>
+        <v>2.220547714557888e-14</v>
       </c>
       <c r="I91" t="n">
-        <v>0.9936747703068013</v>
+        <v>0.9876798353714094</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
@@ -3814,28 +3814,28 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.9858841863621431</v>
+        <v>0.9755038154031106</v>
       </c>
       <c r="C92" t="n">
-        <v>2.891988740576584e-13</v>
+        <v>1.472029577784431e-12</v>
       </c>
       <c r="D92" t="n">
-        <v>2.891988740576583e-13</v>
+        <v>1.472029577784432e-12</v>
       </c>
       <c r="E92" t="n">
-        <v>2.891988740576603e-13</v>
+        <v>1.472029577784433e-12</v>
       </c>
       <c r="F92" t="n">
-        <v>0.01411581363641104</v>
+        <v>0.02449618458952914</v>
       </c>
       <c r="G92" t="n">
-        <v>2.891988740576591e-13</v>
+        <v>1.472029577784345e-12</v>
       </c>
       <c r="H92" t="n">
-        <v>2.891988740576595e-13</v>
+        <v>1.472029577784344e-12</v>
       </c>
       <c r="I92" t="n">
-        <v>0.9858841863621431</v>
+        <v>0.9755038154031106</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
@@ -3850,28 +3850,28 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.9967810472954687</v>
+        <v>0.992323717118735</v>
       </c>
       <c r="C93" t="n">
-        <v>5.817797153339705e-14</v>
+        <v>4.262636878524583e-14</v>
       </c>
       <c r="D93" t="n">
-        <v>5.817797153339725e-14</v>
+        <v>4.262636878524588e-14</v>
       </c>
       <c r="E93" t="n">
-        <v>5.817797153339725e-14</v>
+        <v>4.262636878524599e-14</v>
       </c>
       <c r="F93" t="n">
-        <v>0.003218952704240365</v>
+        <v>0.007676282881051858</v>
       </c>
       <c r="G93" t="n">
-        <v>5.81779715333972e-14</v>
+        <v>4.26263687852459e-14</v>
       </c>
       <c r="H93" t="n">
-        <v>5.81779715333973e-14</v>
+        <v>4.262636878524588e-14</v>
       </c>
       <c r="I93" t="n">
-        <v>0.9967810472954687</v>
+        <v>0.992323717118735</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
@@ -3886,28 +3886,28 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.999050560828515</v>
+        <v>0.9983261501312983</v>
       </c>
       <c r="C94" t="n">
-        <v>2.220180988727111e-14</v>
+        <v>2.353684863653683e-14</v>
       </c>
       <c r="D94" t="n">
-        <v>2.220180988727111e-14</v>
+        <v>2.353684863653683e-14</v>
       </c>
       <c r="E94" t="n">
-        <v>2.220180988727111e-14</v>
+        <v>2.353684863653689e-14</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0009494391713740717</v>
+        <v>0.001673849868584006</v>
       </c>
       <c r="G94" t="n">
-        <v>2.220180988727111e-14</v>
+        <v>2.35368486365369e-14</v>
       </c>
       <c r="H94" t="n">
-        <v>2.220180988727111e-14</v>
+        <v>2.35368486365369e-14</v>
       </c>
       <c r="I94" t="n">
-        <v>0.999050560828515</v>
+        <v>0.9983261501312983</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
@@ -3922,28 +3922,28 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.9992200017173444</v>
+        <v>0.9989297067513458</v>
       </c>
       <c r="C95" t="n">
-        <v>2.22023818285926e-14</v>
+        <v>2.223985890593023e-14</v>
       </c>
       <c r="D95" t="n">
-        <v>2.22023818285926e-14</v>
+        <v>2.223985890593023e-14</v>
       </c>
       <c r="E95" t="n">
-        <v>2.22023818285926e-14</v>
+        <v>2.223985890593023e-14</v>
       </c>
       <c r="F95" t="n">
-        <v>0.000779998282544653</v>
+        <v>0.001070293248543163</v>
       </c>
       <c r="G95" t="n">
-        <v>2.22023818285926e-14</v>
+        <v>2.223985890593023e-14</v>
       </c>
       <c r="H95" t="n">
-        <v>2.22023818285926e-14</v>
+        <v>2.223985890593023e-14</v>
       </c>
       <c r="I95" t="n">
-        <v>0.9992200017173444</v>
+        <v>0.9989297067513458</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
@@ -3958,28 +3958,28 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.9993236964844671</v>
+        <v>0.9993178462663436</v>
       </c>
       <c r="C96" t="n">
-        <v>2.22024645194216e-14</v>
+        <v>2.223109861217236e-14</v>
       </c>
       <c r="D96" t="n">
-        <v>2.22024645194216e-14</v>
+        <v>2.223109861217236e-14</v>
       </c>
       <c r="E96" t="n">
-        <v>2.22024645194216e-14</v>
+        <v>2.223109861217236e-14</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0006763035154219218</v>
+        <v>0.0006821537335454682</v>
       </c>
       <c r="G96" t="n">
-        <v>2.22024645194216e-14</v>
+        <v>2.223109861217236e-14</v>
       </c>
       <c r="H96" t="n">
-        <v>2.22024645194216e-14</v>
+        <v>2.223109861217236e-14</v>
       </c>
       <c r="I96" t="n">
-        <v>0.9993236964844671</v>
+        <v>0.9993178462663436</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
@@ -3994,32 +3994,32 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.9247297451096859</v>
+        <v>0.4584726008609832</v>
       </c>
       <c r="C97" t="n">
-        <v>2.220146464606757e-14</v>
+        <v>0.004076512838169029</v>
       </c>
       <c r="D97" t="n">
-        <v>0.002797674960697617</v>
+        <v>0.02731180171042737</v>
       </c>
       <c r="E97" t="n">
-        <v>2.220146464606757e-14</v>
+        <v>0.4676820401756877</v>
       </c>
       <c r="F97" t="n">
-        <v>2.220146464606757e-14</v>
+        <v>0.03269307193019554</v>
       </c>
       <c r="G97" t="n">
-        <v>0.06843604341956179</v>
+        <v>0.004076512838168738</v>
       </c>
       <c r="H97" t="n">
-        <v>0.004036536509988078</v>
+        <v>0.005687459646368297</v>
       </c>
       <c r="I97" t="n">
-        <v>0.9247297451096859</v>
+        <v>0.4676820401756877</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Geodermatophilales</t>
         </is>
       </c>
     </row>
@@ -4030,28 +4030,28 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.9885152673030341</v>
+        <v>0.9848044450962254</v>
       </c>
       <c r="C98" t="n">
-        <v>2.220254815185885e-14</v>
+        <v>2.220027597239947e-14</v>
       </c>
       <c r="D98" t="n">
-        <v>0.007927720389400421</v>
+        <v>0.0123369729562033</v>
       </c>
       <c r="E98" t="n">
-        <v>2.220254815185885e-14</v>
+        <v>2.220027597239947e-14</v>
       </c>
       <c r="F98" t="n">
-        <v>2.220254815185885e-14</v>
+        <v>0.002643991911216267</v>
       </c>
       <c r="G98" t="n">
-        <v>0.003332532007279718</v>
+        <v>2.220027597239947e-14</v>
       </c>
       <c r="H98" t="n">
-        <v>0.0002244803002192482</v>
+        <v>0.0002145900362882931</v>
       </c>
       <c r="I98" t="n">
-        <v>0.9885152673030341</v>
+        <v>0.9848044450962254</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
@@ -4066,28 +4066,28 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.0341083118319685</v>
+        <v>0.3003548408885114</v>
       </c>
       <c r="C99" t="n">
-        <v>0.004624409001859259</v>
+        <v>0.004570885555834362</v>
       </c>
       <c r="D99" t="n">
-        <v>0.01758150241336803</v>
+        <v>0.006449159164014603</v>
       </c>
       <c r="E99" t="n">
-        <v>0.912556204097722</v>
+        <v>0.6631591577709057</v>
       </c>
       <c r="F99" t="n">
-        <v>0.004624409001859267</v>
+        <v>0.01632326527686944</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02185969651568447</v>
+        <v>0.004570885555834354</v>
       </c>
       <c r="H99" t="n">
-        <v>0.004645467137538408</v>
+        <v>0.004571805788030047</v>
       </c>
       <c r="I99" t="n">
-        <v>0.912556204097722</v>
+        <v>0.6631591577709057</v>
       </c>
       <c r="J99" t="inlineStr">
         <is>
@@ -4102,28 +4102,28 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.9742891179914025</v>
+        <v>0.9842624219544217</v>
       </c>
       <c r="C100" t="n">
-        <v>2.219221604527878e-14</v>
+        <v>2.220351584762559e-14</v>
       </c>
       <c r="D100" t="n">
-        <v>0.02445688758391044</v>
+        <v>0.008451131331590979</v>
       </c>
       <c r="E100" t="n">
-        <v>2.219221604527878e-14</v>
+        <v>2.220351584762559e-14</v>
       </c>
       <c r="F100" t="n">
-        <v>2.219221604527878e-14</v>
+        <v>0.007114244447195481</v>
       </c>
       <c r="G100" t="n">
-        <v>0.001077317404189297</v>
+        <v>2.220351584762559e-14</v>
       </c>
       <c r="H100" t="n">
-        <v>0.0001766770204310113</v>
+        <v>0.0001722022667252236</v>
       </c>
       <c r="I100" t="n">
-        <v>0.9742891179914025</v>
+        <v>0.9842624219544217</v>
       </c>
       <c r="J100" t="inlineStr">
         <is>
@@ -4138,28 +4138,28 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.8963900396158546</v>
+        <v>0.8874829275889453</v>
       </c>
       <c r="C101" t="n">
-        <v>0.1018271590126558</v>
+        <v>0.1111812757727623</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0004086421951634966</v>
+        <v>0.000327686201773871</v>
       </c>
       <c r="E101" t="n">
-        <v>2.216849805657821e-14</v>
+        <v>2.217728088241973e-14</v>
       </c>
       <c r="F101" t="n">
-        <v>2.216849805657821e-14</v>
+        <v>0.0009802226696417927</v>
       </c>
       <c r="G101" t="n">
-        <v>0.001033112221750449</v>
+        <v>2.217728088241973e-14</v>
       </c>
       <c r="H101" t="n">
-        <v>0.0003410469545315163</v>
+        <v>2.788776683239779e-05</v>
       </c>
       <c r="I101" t="n">
-        <v>0.8963900396158546</v>
+        <v>0.8874829275889453</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
@@ -4174,28 +4174,28 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.9657083083185404</v>
+        <v>0.9471354841154935</v>
       </c>
       <c r="C102" t="n">
-        <v>3.262151670802647e-14</v>
+        <v>2.219460304105733e-14</v>
       </c>
       <c r="D102" t="n">
-        <v>0.02520261287780433</v>
+        <v>0.05171298167174838</v>
       </c>
       <c r="E102" t="n">
-        <v>3.077354486956743e-14</v>
+        <v>2.219460304105733e-14</v>
       </c>
       <c r="F102" t="n">
-        <v>3.262151670802599e-14</v>
+        <v>0.0004620764838840535</v>
       </c>
       <c r="G102" t="n">
-        <v>0.007959316874459162</v>
+        <v>2.219460304105733e-14</v>
       </c>
       <c r="H102" t="n">
-        <v>0.001129761929100026</v>
+        <v>0.0006894577288073311</v>
       </c>
       <c r="I102" t="n">
-        <v>0.9657083083185404</v>
+        <v>0.9471354841154935</v>
       </c>
       <c r="J102" t="inlineStr">
         <is>
@@ -4210,28 +4210,28 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.9994004385481123</v>
+        <v>0.9986015230394873</v>
       </c>
       <c r="C103" t="n">
-        <v>2.220224555115882e-14</v>
+        <v>2.219937658958284e-14</v>
       </c>
       <c r="D103" t="n">
-        <v>7.213682513223476e-05</v>
+        <v>4.671218470948396e-05</v>
       </c>
       <c r="E103" t="n">
-        <v>2.220224555115882e-14</v>
+        <v>2.219937658958284e-14</v>
       </c>
       <c r="F103" t="n">
-        <v>2.220224555115882e-14</v>
+        <v>0.001219804620235019</v>
       </c>
       <c r="G103" t="n">
-        <v>4.039754990760515e-05</v>
+        <v>2.219937658958284e-14</v>
       </c>
       <c r="H103" t="n">
-        <v>0.0004870270767810226</v>
+        <v>0.0001319601555015279</v>
       </c>
       <c r="I103" t="n">
-        <v>0.9994004385481123</v>
+        <v>0.9986015230394873</v>
       </c>
       <c r="J103" t="inlineStr">
         <is>
@@ -4246,28 +4246,28 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.9853218557649689</v>
+        <v>0.9878084279056768</v>
       </c>
       <c r="C104" t="n">
-        <v>2.219767048621463e-14</v>
+        <v>2.220400381287262e-14</v>
       </c>
       <c r="D104" t="n">
-        <v>0.01462845475924943</v>
+        <v>0.005999241652923642</v>
       </c>
       <c r="E104" t="n">
-        <v>2.219767048621463e-14</v>
+        <v>2.220400381287262e-14</v>
       </c>
       <c r="F104" t="n">
-        <v>2.219767048621463e-14</v>
+        <v>0.006131431909560113</v>
       </c>
       <c r="G104" t="n">
-        <v>2.82719468456287e-06</v>
+        <v>2.220400381287262e-14</v>
       </c>
       <c r="H104" t="n">
-        <v>4.686228103034568e-05</v>
+        <v>6.089853177274181e-05</v>
       </c>
       <c r="I104" t="n">
-        <v>0.9853218557649689</v>
+        <v>0.9878084279056768</v>
       </c>
       <c r="J104" t="inlineStr">
         <is>
@@ -4282,28 +4282,28 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.999679064000937</v>
+        <v>0.9984098285044835</v>
       </c>
       <c r="C105" t="n">
-        <v>2.220327390276785e-14</v>
+        <v>2.219879213644301e-14</v>
       </c>
       <c r="D105" t="n">
-        <v>2.610215239379773e-05</v>
+        <v>9.008748309685082e-05</v>
       </c>
       <c r="E105" t="n">
-        <v>2.220327390276785e-14</v>
+        <v>2.219879213644301e-14</v>
       </c>
       <c r="F105" t="n">
-        <v>2.220327390276785e-14</v>
+        <v>0.001218353054396731</v>
       </c>
       <c r="G105" t="n">
-        <v>1.115660795418502e-05</v>
+        <v>2.219879213644301e-14</v>
       </c>
       <c r="H105" t="n">
-        <v>0.000283677238648464</v>
+        <v>0.0002817309579564371</v>
       </c>
       <c r="I105" t="n">
-        <v>0.999679064000937</v>
+        <v>0.9984098285044835</v>
       </c>
       <c r="J105" t="inlineStr">
         <is>
@@ -4318,28 +4318,28 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.9957147094314179</v>
+        <v>0.9967855298218583</v>
       </c>
       <c r="C106" t="n">
-        <v>2.220189788800444e-14</v>
+        <v>2.219974909182495e-14</v>
       </c>
       <c r="D106" t="n">
-        <v>0.001431843850670775</v>
+        <v>0.0002763720505102924</v>
       </c>
       <c r="E106" t="n">
-        <v>2.220189788800444e-14</v>
+        <v>2.219974909182495e-14</v>
       </c>
       <c r="F106" t="n">
-        <v>2.220189788800444e-14</v>
+        <v>0.00263767198954981</v>
       </c>
       <c r="G106" t="n">
-        <v>0.002146232803993954</v>
+        <v>2.219974909182495e-14</v>
       </c>
       <c r="H106" t="n">
-        <v>0.0007072139138506809</v>
+        <v>0.0003004261380149995</v>
       </c>
       <c r="I106" t="n">
-        <v>0.9957147094314179</v>
+        <v>0.9967855298218583</v>
       </c>
       <c r="J106" t="inlineStr">
         <is>
@@ -4354,28 +4354,28 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.9984189675400941</v>
+        <v>0.9972353056690403</v>
       </c>
       <c r="C107" t="n">
-        <v>2.219880223261787e-14</v>
+        <v>2.219964380767551e-14</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0002183810124152391</v>
+        <v>8.319497603538743e-05</v>
       </c>
       <c r="E107" t="n">
-        <v>2.219880223261787e-14</v>
+        <v>2.219964380767551e-14</v>
       </c>
       <c r="F107" t="n">
-        <v>2.219880223261787e-14</v>
+        <v>0.002275353272977609</v>
       </c>
       <c r="G107" t="n">
-        <v>0.000289662818201201</v>
+        <v>2.219964380767551e-14</v>
       </c>
       <c r="H107" t="n">
-        <v>0.001072988629222961</v>
+        <v>0.000406146081880121</v>
       </c>
       <c r="I107" t="n">
-        <v>0.9984189675400941</v>
+        <v>0.9972353056690403</v>
       </c>
       <c r="J107" t="inlineStr">
         <is>
@@ -4390,28 +4390,28 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.9927525211395158</v>
+        <v>0.994877471891943</v>
       </c>
       <c r="C108" t="n">
-        <v>2.220276467823942e-14</v>
+        <v>2.220151294970352e-14</v>
       </c>
       <c r="D108" t="n">
-        <v>0.003702034890394012</v>
+        <v>0.001634175890344812</v>
       </c>
       <c r="E108" t="n">
-        <v>2.220276467823942e-14</v>
+        <v>2.220151294970352e-14</v>
       </c>
       <c r="F108" t="n">
-        <v>2.220276467823942e-14</v>
+        <v>0.003272324380306613</v>
       </c>
       <c r="G108" t="n">
-        <v>0.003279748395099526</v>
+        <v>2.220151294970352e-14</v>
       </c>
       <c r="H108" t="n">
-        <v>0.0002656955749240163</v>
+        <v>0.0002160278373390561</v>
       </c>
       <c r="I108" t="n">
-        <v>0.9927525211395158</v>
+        <v>0.994877471891943</v>
       </c>
       <c r="J108" t="inlineStr">
         <is>
@@ -4426,28 +4426,28 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.9986680373607368</v>
+        <v>0.9978556359252482</v>
       </c>
       <c r="C109" t="n">
-        <v>2.219955041074678e-14</v>
+        <v>2.219973328447612e-14</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0009370183276150488</v>
+        <v>0.000992711291470488</v>
       </c>
       <c r="E109" t="n">
-        <v>2.219955041074678e-14</v>
+        <v>2.219973328447612e-14</v>
       </c>
       <c r="F109" t="n">
-        <v>2.219955041074678e-14</v>
+        <v>0.0009080724280879766</v>
       </c>
       <c r="G109" t="n">
-        <v>0.0001147726801801573</v>
+        <v>2.219973328447612e-14</v>
       </c>
       <c r="H109" t="n">
-        <v>0.0002801716314011379</v>
+        <v>0.0002435803551267289</v>
       </c>
       <c r="I109" t="n">
-        <v>0.9986680373607368</v>
+        <v>0.9978556359252482</v>
       </c>
       <c r="J109" t="inlineStr">
         <is>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.9783380543065988</v>
+        <v>0.9927177392810017</v>
       </c>
       <c r="C110" t="n">
-        <v>2.219720062555223e-14</v>
+        <v>2.220275909402748e-14</v>
       </c>
       <c r="D110" t="n">
-        <v>0.02163262709131474</v>
+        <v>0.003726740001272643</v>
       </c>
       <c r="E110" t="n">
-        <v>2.219720062555223e-14</v>
+        <v>2.220275909402748e-14</v>
       </c>
       <c r="F110" t="n">
-        <v>2.219720062555223e-14</v>
+        <v>0.003514634883891872</v>
       </c>
       <c r="G110" t="n">
-        <v>6.515311344461352e-07</v>
+        <v>2.220275909402748e-14</v>
       </c>
       <c r="H110" t="n">
-        <v>2.866707088560244e-05</v>
+        <v>4.088583376728334e-05</v>
       </c>
       <c r="I110" t="n">
-        <v>0.9783380543065988</v>
+        <v>0.9927177392810017</v>
       </c>
       <c r="J110" t="inlineStr">
         <is>
@@ -4569,28 +4569,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0005185230537605103</v>
+        <v>0.001141001484326415</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9813740470937798</v>
+        <v>0.9938049856937945</v>
       </c>
       <c r="D2" t="n">
-        <v>2.220304813407538e-14</v>
+        <v>2.220091535718635e-14</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001369662017882198</v>
+        <v>0.0001453074697894983</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004442643669238318</v>
+        <v>0.004908705352022934</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01229512416529483</v>
+        <v>2.220091535718635e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>2.220304813407538e-14</v>
+        <v>2.220091535718635e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9813740470937798</v>
+        <v>0.9938049856937945</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -4605,28 +4605,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.348578771674654e-05</v>
+        <v>0.0003817503007612224</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9848672056151551</v>
+        <v>0.9973889437185532</v>
       </c>
       <c r="D3" t="n">
-        <v>2.220070956128937e-14</v>
+        <v>2.219956869791386e-14</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001218143622295932</v>
+        <v>6.817310878912649e-06</v>
       </c>
       <c r="F3" t="n">
-        <v>0.002167296213637538</v>
+        <v>0.002222488669740037</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01169386876115044</v>
+        <v>2.219956869791386e-14</v>
       </c>
       <c r="H3" t="n">
-        <v>2.220070956128937e-14</v>
+        <v>2.219956869791386e-14</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9848672056151551</v>
+        <v>0.9973889437185532</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -4641,28 +4641,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.007169372251922527</v>
+        <v>0.01373345822101726</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9843283313820949</v>
+        <v>0.9846401683196329</v>
       </c>
       <c r="D4" t="n">
-        <v>2.220527897999921e-14</v>
+        <v>2.219841995268275e-14</v>
       </c>
       <c r="E4" t="n">
-        <v>0.001667634786468191</v>
+        <v>9.07753145921755e-05</v>
       </c>
       <c r="F4" t="n">
-        <v>0.002320480169473748</v>
+        <v>0.001535598144691209</v>
       </c>
       <c r="G4" t="n">
-        <v>0.004514181409996296</v>
+        <v>2.219841995268275e-14</v>
       </c>
       <c r="H4" t="n">
-        <v>2.220527897999921e-14</v>
+        <v>2.219841995268275e-14</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9843283313820949</v>
+        <v>0.9846401683196329</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -4677,28 +4677,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.002608899259682045</v>
+        <v>0.01329334727471861</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9807175260902581</v>
+        <v>0.9834793350440559</v>
       </c>
       <c r="D5" t="n">
-        <v>2.220421437208224e-14</v>
+        <v>2.220055404643634e-14</v>
       </c>
       <c r="E5" t="n">
-        <v>0.00168734447389491</v>
+        <v>5.263978215169422e-05</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003213692365855515</v>
+        <v>0.003174677899007159</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01177253781026505</v>
+        <v>2.220055404643634e-14</v>
       </c>
       <c r="H5" t="n">
-        <v>2.220421437208224e-14</v>
+        <v>2.220055404643634e-14</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9807175260902581</v>
+        <v>0.9834793350440559</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -4713,28 +4713,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001001156038357095</v>
+        <v>0.0004023259592735646</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9878159910167741</v>
+        <v>0.996283979215638</v>
       </c>
       <c r="D6" t="n">
-        <v>2.220357754840929e-14</v>
+        <v>2.219981650522493e-14</v>
       </c>
       <c r="E6" t="n">
-        <v>0.001146754174415831</v>
+        <v>5.253364801431297e-06</v>
       </c>
       <c r="F6" t="n">
-        <v>0.004183415377807005</v>
+        <v>0.003308441460220341</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00675372382712303</v>
+        <v>2.219981650522493e-14</v>
       </c>
       <c r="H6" t="n">
-        <v>2.220357754840929e-14</v>
+        <v>2.219981650522493e-14</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9878159910167741</v>
+        <v>0.996283979215638</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -4749,28 +4749,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0001258205377084399</v>
+        <v>0.0001252468259513149</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9760346761397126</v>
+        <v>0.9878035817293981</v>
       </c>
       <c r="D7" t="n">
-        <v>2.220601127480125e-14</v>
+        <v>2.219791971575813e-14</v>
       </c>
       <c r="E7" t="n">
-        <v>0.002859423436161914</v>
+        <v>0.0003197365394297259</v>
       </c>
       <c r="F7" t="n">
-        <v>0.007666649761718113</v>
+        <v>0.01175143490515434</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01331343012465456</v>
+        <v>2.219791971575813e-14</v>
       </c>
       <c r="H7" t="n">
-        <v>2.220601127480125e-14</v>
+        <v>2.219791971575813e-14</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9760346761397126</v>
+        <v>0.9878035817293981</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -4785,28 +4785,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.0955311081549e-06</v>
+        <v>0.0002178645386417534</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9812493551403688</v>
+        <v>0.996201937177419</v>
       </c>
       <c r="D8" t="n">
-        <v>2.219857042919517e-14</v>
+        <v>2.21997366537221e-14</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001316076683441547</v>
+        <v>0.0001362148559389359</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001548921596642541</v>
+        <v>0.003443983427933573</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01587755104839445</v>
+        <v>2.21997366537221e-14</v>
       </c>
       <c r="H8" t="n">
-        <v>2.219857042919517e-14</v>
+        <v>2.21997366537221e-14</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9812493551403688</v>
+        <v>0.996201937177419</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -4821,28 +4821,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0005185230537605103</v>
+        <v>0.001141001484326415</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9813740470937798</v>
+        <v>0.9938049856937945</v>
       </c>
       <c r="D9" t="n">
-        <v>2.220304813407538e-14</v>
+        <v>2.220091535718635e-14</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001369662017882198</v>
+        <v>0.0001453074697894983</v>
       </c>
       <c r="F9" t="n">
-        <v>0.004442643669238318</v>
+        <v>0.004908705352022934</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01229512416529483</v>
+        <v>2.220091535718635e-14</v>
       </c>
       <c r="H9" t="n">
-        <v>2.220304813407538e-14</v>
+        <v>2.220091535718635e-14</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9813740470937798</v>
+        <v>0.9938049856937945</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.348578771674654e-05</v>
+        <v>0.0003817503007612224</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9848672056151551</v>
+        <v>0.9973889437185532</v>
       </c>
       <c r="D10" t="n">
-        <v>2.220070956128937e-14</v>
+        <v>2.219956869791386e-14</v>
       </c>
       <c r="E10" t="n">
-        <v>0.001218143622295932</v>
+        <v>6.817310878912649e-06</v>
       </c>
       <c r="F10" t="n">
-        <v>0.002167296213637538</v>
+        <v>0.002222488669740037</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01169386876115044</v>
+        <v>2.219956869791386e-14</v>
       </c>
       <c r="H10" t="n">
-        <v>2.220070956128937e-14</v>
+        <v>2.219956869791386e-14</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9848672056151551</v>
+        <v>0.9973889437185532</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -4893,28 +4893,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.007169372251922527</v>
+        <v>0.01373345822101726</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9843283313820949</v>
+        <v>0.9846401683196329</v>
       </c>
       <c r="D11" t="n">
-        <v>2.220527897999921e-14</v>
+        <v>2.219841995268275e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0.001667634786468191</v>
+        <v>9.07753145921755e-05</v>
       </c>
       <c r="F11" t="n">
-        <v>0.002320480169473748</v>
+        <v>0.001535598144691209</v>
       </c>
       <c r="G11" t="n">
-        <v>0.004514181409996296</v>
+        <v>2.219841995268275e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>2.220527897999921e-14</v>
+        <v>2.219841995268275e-14</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9843283313820949</v>
+        <v>0.9846401683196329</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -4929,28 +4929,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.002608899259682045</v>
+        <v>0.01329334727471861</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9807175260902581</v>
+        <v>0.9834793350440559</v>
       </c>
       <c r="D12" t="n">
-        <v>2.220421437208224e-14</v>
+        <v>2.220055404643634e-14</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00168734447389491</v>
+        <v>5.263978215169422e-05</v>
       </c>
       <c r="F12" t="n">
-        <v>0.003213692365855515</v>
+        <v>0.003174677899007159</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01177253781026505</v>
+        <v>2.220055404643634e-14</v>
       </c>
       <c r="H12" t="n">
-        <v>2.220421437208224e-14</v>
+        <v>2.220055404643634e-14</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9807175260902581</v>
+        <v>0.9834793350440559</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -4965,28 +4965,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0001001156038357095</v>
+        <v>0.0004023259592735646</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9878159910167741</v>
+        <v>0.996283979215638</v>
       </c>
       <c r="D13" t="n">
-        <v>2.220357754840929e-14</v>
+        <v>2.219981650522493e-14</v>
       </c>
       <c r="E13" t="n">
-        <v>0.001146754174415831</v>
+        <v>5.253364801431297e-06</v>
       </c>
       <c r="F13" t="n">
-        <v>0.004183415377807005</v>
+        <v>0.003308441460220341</v>
       </c>
       <c r="G13" t="n">
-        <v>0.00675372382712303</v>
+        <v>2.219981650522493e-14</v>
       </c>
       <c r="H13" t="n">
-        <v>2.220357754840929e-14</v>
+        <v>2.219981650522493e-14</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9878159910167741</v>
+        <v>0.996283979215638</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -5001,28 +5001,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0001258205377084399</v>
+        <v>0.0001252468259513149</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9760346761397126</v>
+        <v>0.9878035817293981</v>
       </c>
       <c r="D14" t="n">
-        <v>2.220601127480125e-14</v>
+        <v>2.219791971575813e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0.002859423436161914</v>
+        <v>0.0003197365394297259</v>
       </c>
       <c r="F14" t="n">
-        <v>0.007666649761718113</v>
+        <v>0.01175143490515434</v>
       </c>
       <c r="G14" t="n">
-        <v>0.01331343012465456</v>
+        <v>2.219791971575813e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>2.220601127480125e-14</v>
+        <v>2.219791971575813e-14</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9760346761397126</v>
+        <v>0.9878035817293981</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -5037,28 +5037,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8.0955311081549e-06</v>
+        <v>0.0002178645386417534</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9812493551403688</v>
+        <v>0.996201937177419</v>
       </c>
       <c r="D15" t="n">
-        <v>2.219857042919517e-14</v>
+        <v>2.21997366537221e-14</v>
       </c>
       <c r="E15" t="n">
-        <v>0.001316076683441547</v>
+        <v>0.0001362148559389359</v>
       </c>
       <c r="F15" t="n">
-        <v>0.001548921596642541</v>
+        <v>0.003443983427933573</v>
       </c>
       <c r="G15" t="n">
-        <v>0.01587755104839445</v>
+        <v>2.21997366537221e-14</v>
       </c>
       <c r="H15" t="n">
-        <v>2.219857042919517e-14</v>
+        <v>2.21997366537221e-14</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9812493551403688</v>
+        <v>0.996201937177419</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -5073,28 +5073,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.002725932147212713</v>
+        <v>0.01095419150615869</v>
       </c>
       <c r="C16" t="n">
-        <v>0.968987392690302</v>
+        <v>0.9794163875962639</v>
       </c>
       <c r="D16" t="n">
-        <v>0.02160470381453562</v>
+        <v>0.008341723574148117</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001851330469741887</v>
+        <v>0.0008431723543859583</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0008947345047833856</v>
+        <v>0.0004445249689989907</v>
       </c>
       <c r="G16" t="n">
-        <v>0.003935906373402277</v>
+        <v>2.220549266711456e-14</v>
       </c>
       <c r="H16" t="n">
-        <v>2.220344160519935e-14</v>
+        <v>2.220549266711456e-14</v>
       </c>
       <c r="I16" t="n">
-        <v>0.968987392690302</v>
+        <v>0.9794163875962639</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -5109,28 +5109,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.003616223157303237</v>
+        <v>0.002450618112969006</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9768413755888651</v>
+        <v>0.9835998405163957</v>
       </c>
       <c r="D17" t="n">
-        <v>0.002464250849610959</v>
+        <v>0.005510237796765767</v>
       </c>
       <c r="E17" t="n">
-        <v>0.001597691542337437</v>
+        <v>0.001156828863922975</v>
       </c>
       <c r="F17" t="n">
-        <v>0.008513485728472003</v>
+        <v>0.007282474709902243</v>
       </c>
       <c r="G17" t="n">
-        <v>0.006966973133389075</v>
+        <v>2.220506387647498e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>2.220852266338463e-14</v>
+        <v>2.220506387647498e-14</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9768413755888651</v>
+        <v>0.9835998405163957</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -5145,28 +5145,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0007137116205058484</v>
+        <v>0.0007132748564716023</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9821710768635614</v>
+        <v>0.995809361178565</v>
       </c>
       <c r="D18" t="n">
-        <v>0.001697450747545542</v>
+        <v>0.001606316728130589</v>
       </c>
       <c r="E18" t="n">
-        <v>0.001586257067658675</v>
+        <v>0.0005897008248031176</v>
       </c>
       <c r="F18" t="n">
-        <v>0.006619660094498067</v>
+        <v>0.001281346411985121</v>
       </c>
       <c r="G18" t="n">
-        <v>0.007211843606208254</v>
+        <v>2.220202938649468e-14</v>
       </c>
       <c r="H18" t="n">
-        <v>2.220543841132493e-14</v>
+        <v>2.220202938649468e-14</v>
       </c>
       <c r="I18" t="n">
-        <v>0.9821710768635614</v>
+        <v>0.995809361178565</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -5181,28 +5181,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01013198088240113</v>
+        <v>0.005521664332668272</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9656688465248346</v>
+        <v>0.9640986749365251</v>
       </c>
       <c r="D19" t="n">
-        <v>0.003372632806385464</v>
+        <v>0.0168029682567178</v>
       </c>
       <c r="E19" t="n">
-        <v>0.00181960047574211</v>
+        <v>0.001202671814298906</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0119335212019405</v>
+        <v>0.01237402065974557</v>
       </c>
       <c r="G19" t="n">
-        <v>0.007073418108673977</v>
+        <v>2.221288122256671e-14</v>
       </c>
       <c r="H19" t="n">
-        <v>2.221364646140985e-14</v>
+        <v>2.221288122256671e-14</v>
       </c>
       <c r="I19" t="n">
-        <v>0.9656688465248346</v>
+        <v>0.9640986749365251</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -5217,28 +5217,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.00249449728748815</v>
+        <v>0.002414512093837028</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9548694533894764</v>
+        <v>0.9413311026049732</v>
       </c>
       <c r="D20" t="n">
-        <v>0.008107850527173673</v>
+        <v>0.03211616440453149</v>
       </c>
       <c r="E20" t="n">
-        <v>0.001832786111205995</v>
+        <v>0.001124703064415317</v>
       </c>
       <c r="F20" t="n">
-        <v>0.02570806700448281</v>
+        <v>0.02301351783219847</v>
       </c>
       <c r="G20" t="n">
-        <v>0.006987345680150758</v>
+        <v>2.222271893979305e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>2.221514359145374e-14</v>
+        <v>2.222271893979305e-14</v>
       </c>
       <c r="I20" t="n">
-        <v>0.9548694533894764</v>
+        <v>0.9413311026049732</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -5253,28 +5253,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.01130308563910531</v>
+        <v>0.000484414319305632</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4311412779708155</v>
+        <v>0.9825763782358981</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2768458852246042</v>
+        <v>0.01255281574664478</v>
       </c>
       <c r="E21" t="n">
-        <v>0.02610769121444989</v>
+        <v>0.000147776187178051</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1160304516615727</v>
+        <v>0.004238615510929042</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1385716082892346</v>
+        <v>2.220207593888329e-14</v>
       </c>
       <c r="H21" t="n">
-        <v>2.179595691201368e-13</v>
+        <v>2.220207593888329e-14</v>
       </c>
       <c r="I21" t="n">
-        <v>0.4311412779708155</v>
+        <v>0.9825763782358981</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -5289,28 +5289,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.008286110630044873</v>
+        <v>0.009951698830806615</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9712758089206934</v>
+        <v>0.9616153095796627</v>
       </c>
       <c r="D22" t="n">
-        <v>0.01159078873846476</v>
+        <v>0.02050710804774777</v>
       </c>
       <c r="E22" t="n">
-        <v>0.002121520675430424</v>
+        <v>0.001249457727243438</v>
       </c>
       <c r="F22" t="n">
-        <v>0.002542849820181739</v>
+        <v>0.006676425814495058</v>
       </c>
       <c r="G22" t="n">
-        <v>0.004182921215162437</v>
+        <v>2.221218731975121e-14</v>
       </c>
       <c r="H22" t="n">
-        <v>2.220969451350309e-14</v>
+        <v>2.221218731975121e-14</v>
       </c>
       <c r="I22" t="n">
-        <v>0.9712758089206934</v>
+        <v>0.9616153095796627</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -5325,28 +5325,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.002479933733143916</v>
+        <v>0.006208498728574689</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9594778303874332</v>
+        <v>0.9913271376924481</v>
       </c>
       <c r="D23" t="n">
-        <v>0.001309431402184771</v>
+        <v>0.0007807117262550786</v>
       </c>
       <c r="E23" t="n">
-        <v>0.001157247609789796</v>
+        <v>0.0003034941348058277</v>
       </c>
       <c r="F23" t="n">
-        <v>0.009833702002685525</v>
+        <v>0.001380157717871848</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0257418548647406</v>
+        <v>2.220158960941505e-14</v>
       </c>
       <c r="H23" t="n">
-        <v>2.220894285764271e-14</v>
+        <v>2.220158960941505e-14</v>
       </c>
       <c r="I23" t="n">
-        <v>0.9594778303874332</v>
+        <v>0.9913271376924481</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -5361,28 +5361,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.0004647548263075625</v>
+        <v>0.002523453614391052</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9942045344601593</v>
+        <v>0.9965988129307779</v>
       </c>
       <c r="D24" t="n">
-        <v>2.220164545167204e-14</v>
+        <v>2.220038108889372e-14</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0006985778287702419</v>
+        <v>3.666491506122251e-06</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0007319053053642138</v>
+        <v>0.0008740669632584099</v>
       </c>
       <c r="G24" t="n">
-        <v>0.003900227579354171</v>
+        <v>2.220038108889372e-14</v>
       </c>
       <c r="H24" t="n">
-        <v>2.220164545167204e-14</v>
+        <v>2.220038108889372e-14</v>
       </c>
       <c r="I24" t="n">
-        <v>0.9942045344601593</v>
+        <v>0.9965988129307779</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -5397,28 +5397,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.532907516543244e-05</v>
+        <v>0.0001453251836552766</v>
       </c>
       <c r="C25" t="n">
-        <v>0.980283972142909</v>
+        <v>0.9948318186995109</v>
       </c>
       <c r="D25" t="n">
-        <v>2.220270525940033e-14</v>
+        <v>2.219931829295856e-14</v>
       </c>
       <c r="E25" t="n">
-        <v>0.00020120183611385</v>
+        <v>4.842147121588484e-07</v>
       </c>
       <c r="F25" t="n">
-        <v>0.005185297281782948</v>
+        <v>0.005022371902055011</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01431419966398433</v>
+        <v>2.219931829295856e-14</v>
       </c>
       <c r="H25" t="n">
-        <v>2.220270525940033e-14</v>
+        <v>2.219931829295856e-14</v>
       </c>
       <c r="I25" t="n">
-        <v>0.980283972142909</v>
+        <v>0.9948318186995109</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -5433,28 +5433,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.005317014161038555</v>
+        <v>0.01504493139020022</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9890921575195047</v>
+        <v>0.9838054885161298</v>
       </c>
       <c r="D26" t="n">
-        <v>2.220363474882913e-14</v>
+        <v>2.21973062069997e-14</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0005106252618547084</v>
+        <v>2.278882535506723e-05</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001273461466410062</v>
+        <v>0.001126791268248424</v>
       </c>
       <c r="G26" t="n">
-        <v>0.003806741591147474</v>
+        <v>2.21973062069997e-14</v>
       </c>
       <c r="H26" t="n">
-        <v>2.220363474882913e-14</v>
+        <v>2.21973062069997e-14</v>
       </c>
       <c r="I26" t="n">
-        <v>0.9890921575195047</v>
+        <v>0.9838054885161298</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -5469,28 +5469,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.002027049708561544</v>
+        <v>0.004852308173861585</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9918585702556617</v>
+        <v>0.9912770075397143</v>
       </c>
       <c r="D27" t="n">
-        <v>2.220304295099704e-14</v>
+        <v>2.220303749665934e-14</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0008144989457584152</v>
+        <v>4.888509328177781e-05</v>
       </c>
       <c r="F27" t="n">
-        <v>0.00109923763010277</v>
+        <v>0.003821799193075651</v>
       </c>
       <c r="G27" t="n">
-        <v>0.004200643459871171</v>
+        <v>2.220303749665934e-14</v>
       </c>
       <c r="H27" t="n">
-        <v>2.220304295099704e-14</v>
+        <v>2.220303749665934e-14</v>
       </c>
       <c r="I27" t="n">
-        <v>0.9918585702556617</v>
+        <v>0.9912770075397143</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -5505,28 +5505,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.0003191518293190044</v>
+        <v>0.000149967129280251</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9733664549928012</v>
+        <v>0.985278686063604</v>
       </c>
       <c r="D28" t="n">
-        <v>2.220600518444686e-14</v>
+        <v>2.219744510842188e-14</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0005333474438980592</v>
+        <v>5.248302984735494e-05</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0161939740812539</v>
+        <v>0.01451886377720177</v>
       </c>
       <c r="G28" t="n">
-        <v>0.009587071652683516</v>
+        <v>2.219744510842188e-14</v>
       </c>
       <c r="H28" t="n">
-        <v>2.220600518444686e-14</v>
+        <v>2.219744510842188e-14</v>
       </c>
       <c r="I28" t="n">
-        <v>0.9733664549928012</v>
+        <v>0.985278686063604</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -5541,28 +5541,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>8.007458671219846e-05</v>
+        <v>6.281777372930143e-05</v>
       </c>
       <c r="C29" t="n">
-        <v>0.9764173790868134</v>
+        <v>0.9865627837405436</v>
       </c>
       <c r="D29" t="n">
-        <v>2.220633751661344e-14</v>
+        <v>2.219810989957358e-14</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0004644923948199147</v>
+        <v>3.514777785065849e-05</v>
       </c>
       <c r="F29" t="n">
-        <v>0.01219296719384344</v>
+        <v>0.01333925070780984</v>
       </c>
       <c r="G29" t="n">
-        <v>0.01084508673776674</v>
+        <v>2.219810989957358e-14</v>
       </c>
       <c r="H29" t="n">
-        <v>2.220633751661344e-14</v>
+        <v>2.219810989957358e-14</v>
       </c>
       <c r="I29" t="n">
-        <v>0.9764173790868134</v>
+        <v>0.9865627837405436</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -5577,28 +5577,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.0001737796854497377</v>
+        <v>0.0003579789712220265</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9868622829135082</v>
+        <v>0.9931974958950223</v>
       </c>
       <c r="D30" t="n">
-        <v>2.220175779804814e-14</v>
+        <v>2.219950845750427e-14</v>
       </c>
       <c r="E30" t="n">
-        <v>0.000770273279960332</v>
+        <v>8.593467574998324e-05</v>
       </c>
       <c r="F30" t="n">
-        <v>0.00272027788087617</v>
+        <v>0.006358590457939235</v>
       </c>
       <c r="G30" t="n">
-        <v>0.009473386240161225</v>
+        <v>2.219950845750427e-14</v>
       </c>
       <c r="H30" t="n">
-        <v>2.220175779804814e-14</v>
+        <v>2.219950845750427e-14</v>
       </c>
       <c r="I30" t="n">
-        <v>0.9868622829135082</v>
+        <v>0.9931974958950223</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -5613,28 +5613,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.4311025631481753</v>
+        <v>0.3485937355070793</v>
       </c>
       <c r="C31" t="n">
-        <v>0.4493897358053529</v>
+        <v>0.4617472353476594</v>
       </c>
       <c r="D31" t="n">
-        <v>4.5961778727623e-13</v>
+        <v>6.071789231535646e-13</v>
       </c>
       <c r="E31" t="n">
-        <v>4.596177872762299e-13</v>
+        <v>6.071789231535652e-13</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1195077010446335</v>
+        <v>0.1896590291428327</v>
       </c>
       <c r="G31" t="n">
-        <v>4.596177872762303e-13</v>
+        <v>6.071789231535633e-13</v>
       </c>
       <c r="H31" t="n">
-        <v>4.596177872762303e-13</v>
+        <v>6.071789231535634e-13</v>
       </c>
       <c r="I31" t="n">
-        <v>0.4493897358053529</v>
+        <v>0.4617472353476594</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.01956271232999709</v>
+        <v>0.01925192336106966</v>
       </c>
       <c r="C32" t="n">
-        <v>0.9769137799307838</v>
+        <v>0.9761521730085346</v>
       </c>
       <c r="D32" t="n">
-        <v>2.219886136015727e-14</v>
+        <v>2.220024346972884e-14</v>
       </c>
       <c r="E32" t="n">
-        <v>2.219886136015727e-14</v>
+        <v>2.220024346972884e-14</v>
       </c>
       <c r="F32" t="n">
-        <v>0.003523507739130393</v>
+        <v>0.004595903630307001</v>
       </c>
       <c r="G32" t="n">
-        <v>2.219886136015727e-14</v>
+        <v>2.220024346972884e-14</v>
       </c>
       <c r="H32" t="n">
-        <v>2.219886136015727e-14</v>
+        <v>2.220024346972884e-14</v>
       </c>
       <c r="I32" t="n">
-        <v>0.9769137799307838</v>
+        <v>0.9761521730085346</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -5685,28 +5685,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.3029834889790099</v>
+        <v>0.2795417397283032</v>
       </c>
       <c r="C33" t="n">
-        <v>0.480232900461144</v>
+        <v>0.488861223822871</v>
       </c>
       <c r="D33" t="n">
-        <v>6.601945228821734e-13</v>
+        <v>6.478264713727716e-13</v>
       </c>
       <c r="E33" t="n">
-        <v>6.601945228821732e-13</v>
+        <v>6.478264713727716e-13</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2167836105572056</v>
+        <v>0.2315970364462344</v>
       </c>
       <c r="G33" t="n">
-        <v>6.601945228821731e-13</v>
+        <v>6.478264713727712e-13</v>
       </c>
       <c r="H33" t="n">
-        <v>6.601945228821731e-13</v>
+        <v>6.478264713727712e-13</v>
       </c>
       <c r="I33" t="n">
-        <v>0.480232900461144</v>
+        <v>0.488861223822871</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -5721,28 +5721,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.004841136571579032</v>
+        <v>0.002021169219733395</v>
       </c>
       <c r="C34" t="n">
-        <v>0.9945771630298182</v>
+        <v>0.9975290673437823</v>
       </c>
       <c r="D34" t="n">
-        <v>2.220001655013918e-14</v>
+        <v>2.219957058071835e-14</v>
       </c>
       <c r="E34" t="n">
-        <v>2.220001655013918e-14</v>
+        <v>2.219957058071835e-14</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0005817003985139515</v>
+        <v>0.0004497634363955823</v>
       </c>
       <c r="G34" t="n">
-        <v>2.220001655013918e-14</v>
+        <v>2.219957058071835e-14</v>
       </c>
       <c r="H34" t="n">
-        <v>2.220001655013918e-14</v>
+        <v>2.219957058071835e-14</v>
       </c>
       <c r="I34" t="n">
-        <v>0.9945771630298182</v>
+        <v>0.9975290673437823</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -5757,28 +5757,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.0130249463490711</v>
+        <v>0.02167639501521415</v>
       </c>
       <c r="C35" t="n">
-        <v>0.9858438749403077</v>
+        <v>0.9775510589559753</v>
       </c>
       <c r="D35" t="n">
-        <v>2.219823478524441e-14</v>
+        <v>2.219479416265981e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>2.219823478524441e-14</v>
+        <v>2.219479416265981e-14</v>
       </c>
       <c r="F35" t="n">
-        <v>0.001131178710532411</v>
+        <v>0.000772546028721943</v>
       </c>
       <c r="G35" t="n">
-        <v>2.219823478524441e-14</v>
+        <v>2.219479416265981e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>2.219823478524441e-14</v>
+        <v>2.219479416265981e-14</v>
       </c>
       <c r="I35" t="n">
-        <v>0.9858438749403077</v>
+        <v>0.9775510589559753</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -5793,28 +5793,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>5.875788574618177e-05</v>
+        <v>0.0001187938739155571</v>
       </c>
       <c r="C36" t="n">
-        <v>0.9978395417475361</v>
+        <v>0.998972763913851</v>
       </c>
       <c r="D36" t="n">
-        <v>2.219912103140937e-14</v>
+        <v>2.220121179014786e-14</v>
       </c>
       <c r="E36" t="n">
-        <v>2.219912103140937e-14</v>
+        <v>2.220121179014786e-14</v>
       </c>
       <c r="F36" t="n">
-        <v>0.00210170036662897</v>
+        <v>0.0009084422121446109</v>
       </c>
       <c r="G36" t="n">
-        <v>2.219912103140937e-14</v>
+        <v>2.220121179014786e-14</v>
       </c>
       <c r="H36" t="n">
-        <v>2.219912103140937e-14</v>
+        <v>2.220121179014786e-14</v>
       </c>
       <c r="I36" t="n">
-        <v>0.9978395417475361</v>
+        <v>0.998972763913851</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -5829,28 +5829,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.01269395020384063</v>
+        <v>0.405094725754283</v>
       </c>
       <c r="C37" t="n">
-        <v>0.9127482059345461</v>
+        <v>0.4645630874358677</v>
       </c>
       <c r="D37" t="n">
-        <v>0.07395868404457365</v>
+        <v>2.078562986783648e-12</v>
       </c>
       <c r="E37" t="n">
-        <v>2.220471915175983e-14</v>
+        <v>2.07856298678365e-12</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0005991598169729685</v>
+        <v>0.1303421868015351</v>
       </c>
       <c r="G37" t="n">
-        <v>2.220471915175983e-14</v>
+        <v>2.07856298678365e-12</v>
       </c>
       <c r="H37" t="n">
-        <v>2.220471915175983e-14</v>
+        <v>2.07856298678365e-12</v>
       </c>
       <c r="I37" t="n">
-        <v>0.9127482059345461</v>
+        <v>0.4645630874358677</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -5865,28 +5865,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.001034533837196146</v>
+        <v>0.0002965733681864621</v>
       </c>
       <c r="C38" t="n">
-        <v>0.9906514873027437</v>
+        <v>0.9918507223594674</v>
       </c>
       <c r="D38" t="n">
-        <v>2.219974943132573e-14</v>
+        <v>2.219904679372917e-14</v>
       </c>
       <c r="E38" t="n">
-        <v>2.219974943132573e-14</v>
+        <v>2.219904679372917e-14</v>
       </c>
       <c r="F38" t="n">
-        <v>0.008313978859971269</v>
+        <v>0.007852704272257359</v>
       </c>
       <c r="G38" t="n">
-        <v>2.219974943132573e-14</v>
+        <v>2.219904679372917e-14</v>
       </c>
       <c r="H38" t="n">
-        <v>2.219974943132573e-14</v>
+        <v>2.219904679372917e-14</v>
       </c>
       <c r="I38" t="n">
-        <v>0.9906514873027437</v>
+        <v>0.9918507223594674</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -5901,28 +5901,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.0002840038219819681</v>
+        <v>0.0008387894712894887</v>
       </c>
       <c r="C39" t="n">
-        <v>0.9878872921938836</v>
+        <v>0.9875893970854737</v>
       </c>
       <c r="D39" t="n">
-        <v>2.219806880078247e-14</v>
+        <v>2.219842959411032e-14</v>
       </c>
       <c r="E39" t="n">
-        <v>2.219806880078247e-14</v>
+        <v>2.219842959411032e-14</v>
       </c>
       <c r="F39" t="n">
-        <v>0.01182870398404569</v>
+        <v>0.01157181344314801</v>
       </c>
       <c r="G39" t="n">
-        <v>2.219806880078247e-14</v>
+        <v>2.219842959411032e-14</v>
       </c>
       <c r="H39" t="n">
-        <v>2.219806880078247e-14</v>
+        <v>2.219842959411032e-14</v>
       </c>
       <c r="I39" t="n">
-        <v>0.9878872921938836</v>
+        <v>0.9875893970854737</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -5937,28 +5937,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.0002326377783677484</v>
+        <v>0.0004243956946599511</v>
       </c>
       <c r="C40" t="n">
-        <v>0.9856015558983594</v>
+        <v>0.9869498149390993</v>
       </c>
       <c r="D40" t="n">
-        <v>2.219751409774313e-14</v>
+        <v>2.21977561429232e-14</v>
       </c>
       <c r="E40" t="n">
-        <v>2.219751409774313e-14</v>
+        <v>2.21977561429232e-14</v>
       </c>
       <c r="F40" t="n">
-        <v>0.01416580632318412</v>
+        <v>0.01262578936615183</v>
       </c>
       <c r="G40" t="n">
-        <v>2.219751409774313e-14</v>
+        <v>2.21977561429232e-14</v>
       </c>
       <c r="H40" t="n">
-        <v>2.219751409774313e-14</v>
+        <v>2.21977561429232e-14</v>
       </c>
       <c r="I40" t="n">
-        <v>0.9856015558983594</v>
+        <v>0.9869498149390993</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -5973,28 +5973,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.00357613307060563</v>
+        <v>0.01143683310699833</v>
       </c>
       <c r="C41" t="n">
-        <v>0.9848657447512835</v>
+        <v>0.983923403884121</v>
       </c>
       <c r="D41" t="n">
-        <v>0.001708268944525205</v>
+        <v>0.003057231848485088</v>
       </c>
       <c r="E41" t="n">
-        <v>2.220329521928495e-14</v>
+        <v>2.220158591697506e-14</v>
       </c>
       <c r="F41" t="n">
-        <v>2.220329521928495e-14</v>
+        <v>0.001316690843551207</v>
       </c>
       <c r="G41" t="n">
-        <v>0.009774300299808514</v>
+        <v>2.220158591697506e-14</v>
       </c>
       <c r="H41" t="n">
-        <v>7.555293373252062e-05</v>
+        <v>0.0002658403167997909</v>
       </c>
       <c r="I41" t="n">
-        <v>0.9848657447512835</v>
+        <v>0.983923403884121</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -6009,28 +6009,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.004127173995179365</v>
+        <v>0.01907581695252415</v>
       </c>
       <c r="C42" t="n">
-        <v>0.9796208330879319</v>
+        <v>0.9675380606856345</v>
       </c>
       <c r="D42" t="n">
-        <v>0.01114148825270834</v>
+        <v>0.01180163082879423</v>
       </c>
       <c r="E42" t="n">
-        <v>2.220645905652409e-14</v>
+        <v>2.221040072933456e-14</v>
       </c>
       <c r="F42" t="n">
-        <v>2.220645905652409e-14</v>
+        <v>0.001225181916853035</v>
       </c>
       <c r="G42" t="n">
-        <v>0.005011884697280963</v>
+        <v>2.221040072933456e-14</v>
       </c>
       <c r="H42" t="n">
-        <v>9.861996685511166e-05</v>
+        <v>0.0003593096161496484</v>
       </c>
       <c r="I42" t="n">
-        <v>0.9796208330879319</v>
+        <v>0.9675380606856345</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -6045,28 +6045,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.1602467892152651</v>
+        <v>0.1064862088976797</v>
       </c>
       <c r="C43" t="n">
-        <v>0.8344054548112737</v>
+        <v>0.8761457076219928</v>
       </c>
       <c r="D43" t="n">
-        <v>0.002887070721481105</v>
+        <v>0.0155721788032705</v>
       </c>
       <c r="E43" t="n">
-        <v>2.218220758493484e-14</v>
+        <v>2.222166137468551e-14</v>
       </c>
       <c r="F43" t="n">
-        <v>2.218220758493484e-14</v>
+        <v>0.001550737688215376</v>
       </c>
       <c r="G43" t="n">
-        <v>0.002350083249826675</v>
+        <v>2.222166137468551e-14</v>
       </c>
       <c r="H43" t="n">
-        <v>0.0001106020021089851</v>
+        <v>0.0002451669887970492</v>
       </c>
       <c r="I43" t="n">
-        <v>0.8344054548112737</v>
+        <v>0.8761457076219928</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -6081,28 +6081,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.001440367825578818</v>
+        <v>0.007380759367062529</v>
       </c>
       <c r="C44" t="n">
-        <v>0.981236474772447</v>
+        <v>0.9860723694529088</v>
       </c>
       <c r="D44" t="n">
-        <v>0.01306819430049734</v>
+        <v>0.005904580894085597</v>
       </c>
       <c r="E44" t="n">
-        <v>2.22022741221528e-14</v>
+        <v>2.220430617294381e-14</v>
       </c>
       <c r="F44" t="n">
-        <v>2.22022741221528e-14</v>
+        <v>0.000619091676100654</v>
       </c>
       <c r="G44" t="n">
-        <v>0.004210099506082188</v>
+        <v>2.220430617294381e-14</v>
       </c>
       <c r="H44" t="n">
-        <v>4.4863595349951e-05</v>
+        <v>2.319860979811349e-05</v>
       </c>
       <c r="I44" t="n">
-        <v>0.981236474772447</v>
+        <v>0.9860723694529088</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -6117,28 +6117,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.0007902410655226203</v>
+        <v>0.00438709394929062</v>
       </c>
       <c r="C45" t="n">
-        <v>0.9832224005674836</v>
+        <v>0.9810863025677085</v>
       </c>
       <c r="D45" t="n">
-        <v>0.01195064555089606</v>
+        <v>0.01306361402742522</v>
       </c>
       <c r="E45" t="n">
-        <v>2.220224017067068e-14</v>
+        <v>2.220226376254562e-14</v>
       </c>
       <c r="F45" t="n">
-        <v>2.220224017067068e-14</v>
+        <v>0.001235189082301502</v>
       </c>
       <c r="G45" t="n">
-        <v>0.003963422442636382</v>
+        <v>2.220226376254562e-14</v>
       </c>
       <c r="H45" t="n">
-        <v>7.329037341686645e-05</v>
+        <v>0.0002278003732297171</v>
       </c>
       <c r="I45" t="n">
-        <v>0.9832224005674836</v>
+        <v>0.9810863025677085</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -6153,28 +6153,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.001120394137356877</v>
+        <v>0.002139994348976123</v>
       </c>
       <c r="C46" t="n">
-        <v>0.9911971308123831</v>
+        <v>0.9824452667450904</v>
       </c>
       <c r="D46" t="n">
-        <v>0.003123728889748222</v>
+        <v>0.004248533720295726</v>
       </c>
       <c r="E46" t="n">
-        <v>2.220331414833529e-14</v>
+        <v>2.220424087734344e-14</v>
       </c>
       <c r="F46" t="n">
-        <v>2.220331414833529e-14</v>
+        <v>0.01029900701029258</v>
       </c>
       <c r="G46" t="n">
-        <v>0.004292706536487198</v>
+        <v>2.220424087734344e-14</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0002660396239803232</v>
+        <v>0.0008671981753008387</v>
       </c>
       <c r="I46" t="n">
-        <v>0.9911971308123831</v>
+        <v>0.9824452667450904</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -6189,28 +6189,28 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.002619139969659666</v>
+        <v>0.003868249517778126</v>
       </c>
       <c r="C47" t="n">
-        <v>0.9889358224750958</v>
+        <v>0.9817469705076487</v>
       </c>
       <c r="D47" t="n">
-        <v>0.003251969009139725</v>
+        <v>0.007638568292714219</v>
       </c>
       <c r="E47" t="n">
-        <v>2.220424082803178e-14</v>
+        <v>2.220655718409696e-14</v>
       </c>
       <c r="F47" t="n">
-        <v>2.220424082803178e-14</v>
+        <v>0.006074240251075579</v>
       </c>
       <c r="G47" t="n">
-        <v>0.005024505067290557</v>
+        <v>2.220655718409696e-14</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0001685634787699802</v>
+        <v>0.0006719714307389007</v>
       </c>
       <c r="I47" t="n">
-        <v>0.9889358224750958</v>
+        <v>0.9817469705076487</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -6225,28 +6225,28 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.0002227098393935481</v>
+        <v>0.002584996374363643</v>
       </c>
       <c r="C48" t="n">
-        <v>0.9684771636332347</v>
+        <v>0.9815319400279983</v>
       </c>
       <c r="D48" t="n">
-        <v>0.02893052814993634</v>
+        <v>0.0147757863213899</v>
       </c>
       <c r="E48" t="n">
-        <v>2.219174504694575e-14</v>
+        <v>2.21991797397379e-14</v>
       </c>
       <c r="F48" t="n">
-        <v>2.219174504694575e-14</v>
+        <v>0.0007834152175432518</v>
       </c>
       <c r="G48" t="n">
-        <v>0.002303761985522523</v>
+        <v>2.21991797397379e-14</v>
       </c>
       <c r="H48" t="n">
-        <v>6.583639186873664e-05</v>
+        <v>0.00032386205866048</v>
       </c>
       <c r="I48" t="n">
-        <v>0.9684771636332347</v>
+        <v>0.9815319400279983</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -6261,28 +6261,28 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.002014977177366756</v>
+        <v>0.002829687377193208</v>
       </c>
       <c r="C49" t="n">
-        <v>0.9830782715019108</v>
+        <v>0.9753639064542775</v>
       </c>
       <c r="D49" t="n">
-        <v>0.00839650325227374</v>
+        <v>0.009433813503446853</v>
       </c>
       <c r="E49" t="n">
-        <v>2.220501505811262e-14</v>
+        <v>2.22087763324833e-14</v>
       </c>
       <c r="F49" t="n">
-        <v>2.220501505811262e-14</v>
+        <v>0.0107503725016212</v>
       </c>
       <c r="G49" t="n">
-        <v>0.006143361922485687</v>
+        <v>2.22087763324833e-14</v>
       </c>
       <c r="H49" t="n">
-        <v>0.000366886145918573</v>
+        <v>0.00162222016341688</v>
       </c>
       <c r="I49" t="n">
-        <v>0.9830782715019108</v>
+        <v>0.9753639064542775</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -6297,28 +6297,28 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.01578935781589332</v>
+        <v>0.01737154159585235</v>
       </c>
       <c r="C50" t="n">
-        <v>0.9754543274235079</v>
+        <v>0.9798688931268604</v>
       </c>
       <c r="D50" t="n">
-        <v>0.003089392666628128</v>
+        <v>0.001538907073758818</v>
       </c>
       <c r="E50" t="n">
-        <v>2.220445597089919e-14</v>
+        <v>2.219660534875893e-14</v>
       </c>
       <c r="F50" t="n">
-        <v>2.220445597089919e-14</v>
+        <v>0.0009233527158431432</v>
       </c>
       <c r="G50" t="n">
-        <v>0.005487766933323986</v>
+        <v>2.219660534875893e-14</v>
       </c>
       <c r="H50" t="n">
-        <v>0.0001791551606021569</v>
+        <v>0.0002973054876409087</v>
       </c>
       <c r="I50" t="n">
-        <v>0.9754543274235079</v>
+        <v>0.9798688931268604</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -6333,28 +6333,28 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.002880692149526036</v>
+        <v>0.01211271542977218</v>
       </c>
       <c r="C51" t="n">
-        <v>0.9906002156519879</v>
+        <v>0.9824493083382289</v>
       </c>
       <c r="D51" t="n">
-        <v>0.002310686663408709</v>
+        <v>0.004475056256543678</v>
       </c>
       <c r="E51" t="n">
-        <v>2.220399976612872e-14</v>
+        <v>2.2202441443762e-14</v>
       </c>
       <c r="F51" t="n">
-        <v>2.220399976612872e-14</v>
+        <v>0.0007326585260828227</v>
       </c>
       <c r="G51" t="n">
-        <v>0.004146545212908298</v>
+        <v>2.2202441443762e-14</v>
       </c>
       <c r="H51" t="n">
-        <v>6.186032212468957e-05</v>
+        <v>0.0002302614493281129</v>
       </c>
       <c r="I51" t="n">
-        <v>0.9906002156519879</v>
+        <v>0.9824493083382289</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -6440,28 +6440,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01644554460857417</v>
+        <v>0.02354516239236549</v>
       </c>
       <c r="C2" t="n">
-        <v>2.220290982103906e-14</v>
+        <v>2.219391100596531e-14</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9761147970662876</v>
+        <v>0.9756351793966231</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002477946697598159</v>
+        <v>0.0001852514049733841</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0004136518911741184</v>
+        <v>0.0006344068059713152</v>
       </c>
       <c r="G2" t="n">
-        <v>0.004548059736321695</v>
+        <v>2.219391100596531e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>2.220290982103906e-14</v>
+        <v>2.219391100596531e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9761147970662876</v>
+        <v>0.9756351793966231</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -6476,28 +6476,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.002212363478155178</v>
+        <v>0.001407118002371684</v>
       </c>
       <c r="C3" t="n">
-        <v>2.221343480227551e-14</v>
+        <v>2.219855752127933e-14</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9653024006109728</v>
+        <v>0.9777431329719124</v>
       </c>
       <c r="E3" t="n">
-        <v>0.008167414426251735</v>
+        <v>0.002346598987611819</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01156846709528355</v>
+        <v>0.01850315003803737</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01274935438929233</v>
+        <v>2.219855752127933e-14</v>
       </c>
       <c r="H3" t="n">
-        <v>2.221343480227551e-14</v>
+        <v>2.219855752127933e-14</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9653024006109728</v>
+        <v>0.9777431329719124</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -6512,28 +6512,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.008240381395135072</v>
+        <v>0.01387687073983512</v>
       </c>
       <c r="C4" t="n">
-        <v>2.220496110259494e-14</v>
+        <v>2.219796007077223e-14</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9831550598985122</v>
+        <v>0.9845961369554258</v>
       </c>
       <c r="E4" t="n">
-        <v>0.002595731361966699</v>
+        <v>0.0002271685421303327</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0006705987393896955</v>
+        <v>0.00129982376254214</v>
       </c>
       <c r="G4" t="n">
-        <v>0.005338228604951814</v>
+        <v>2.219796007077223e-14</v>
       </c>
       <c r="H4" t="n">
-        <v>2.220496110259494e-14</v>
+        <v>2.219796007077223e-14</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9831550598985122</v>
+        <v>0.9845961369554258</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -6548,28 +6548,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04982816148539091</v>
+        <v>0.3672639565768421</v>
       </c>
       <c r="C5" t="n">
-        <v>2.220978897179666e-14</v>
+        <v>4.163747841932791e-13</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9346981401952431</v>
+        <v>0.4076682088422278</v>
       </c>
       <c r="E5" t="n">
-        <v>0.00173623953914996</v>
+        <v>0.008022201584526524</v>
       </c>
       <c r="F5" t="n">
-        <v>0.002557090297898272</v>
+        <v>0.2170456329951545</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01118036848227327</v>
+        <v>4.163747841932792e-13</v>
       </c>
       <c r="H5" t="n">
-        <v>2.220978897179666e-14</v>
+        <v>4.163747841932792e-13</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9346981401952431</v>
+        <v>0.4076682088422278</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -6584,28 +6584,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.002908103715502573</v>
+        <v>0.2705809989162219</v>
       </c>
       <c r="C6" t="n">
-        <v>2.220803466963719e-14</v>
+        <v>5.618787816505879e-13</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9665891800533094</v>
+        <v>0.4319832676554161</v>
       </c>
       <c r="E6" t="n">
-        <v>0.001548105387358309</v>
+        <v>0.008257018213126997</v>
       </c>
       <c r="F6" t="n">
-        <v>0.008449961285956209</v>
+        <v>0.2891787152135493</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02050464955782902</v>
+        <v>5.618787816505885e-13</v>
       </c>
       <c r="H6" t="n">
-        <v>2.220803466963719e-14</v>
+        <v>5.618787816505887e-13</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9665891800533094</v>
+        <v>0.4319832676554161</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -6620,28 +6620,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01644554460857417</v>
+        <v>0.02354516239236549</v>
       </c>
       <c r="C7" t="n">
-        <v>2.220290982103906e-14</v>
+        <v>2.219391100596531e-14</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9761147970662876</v>
+        <v>0.9756351793966231</v>
       </c>
       <c r="E7" t="n">
-        <v>0.002477946697598159</v>
+        <v>0.0001852514049733841</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0004136518911741184</v>
+        <v>0.0006344068059713152</v>
       </c>
       <c r="G7" t="n">
-        <v>0.004548059736321695</v>
+        <v>2.219391100596531e-14</v>
       </c>
       <c r="H7" t="n">
-        <v>2.220290982103906e-14</v>
+        <v>2.219391100596531e-14</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9761147970662876</v>
+        <v>0.9756351793966231</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -6656,28 +6656,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.002212363478155178</v>
+        <v>0.001407118002371684</v>
       </c>
       <c r="C8" t="n">
-        <v>2.221343480227551e-14</v>
+        <v>2.219855752127933e-14</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9653024006109728</v>
+        <v>0.9777431329719124</v>
       </c>
       <c r="E8" t="n">
-        <v>0.008167414426251735</v>
+        <v>0.002346598987611819</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01156846709528355</v>
+        <v>0.01850315003803737</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01274935438929233</v>
+        <v>2.219855752127933e-14</v>
       </c>
       <c r="H8" t="n">
-        <v>2.221343480227551e-14</v>
+        <v>2.219855752127933e-14</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9653024006109728</v>
+        <v>0.9777431329719124</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -6692,28 +6692,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.008240381395135072</v>
+        <v>0.01387687073983512</v>
       </c>
       <c r="C9" t="n">
-        <v>2.220496110259494e-14</v>
+        <v>2.219796007077223e-14</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9831550598985122</v>
+        <v>0.9845961369554258</v>
       </c>
       <c r="E9" t="n">
-        <v>0.002595731361966699</v>
+        <v>0.0002271685421303327</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0006705987393896955</v>
+        <v>0.00129982376254214</v>
       </c>
       <c r="G9" t="n">
-        <v>0.005338228604951814</v>
+        <v>2.219796007077223e-14</v>
       </c>
       <c r="H9" t="n">
-        <v>2.220496110259494e-14</v>
+        <v>2.219796007077223e-14</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9831550598985122</v>
+        <v>0.9845961369554258</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -6728,28 +6728,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.04982816148539091</v>
+        <v>0.3672639565768421</v>
       </c>
       <c r="C10" t="n">
-        <v>2.220978897179666e-14</v>
+        <v>4.163747841932791e-13</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9346981401952431</v>
+        <v>0.4076682088422278</v>
       </c>
       <c r="E10" t="n">
-        <v>0.00173623953914996</v>
+        <v>0.008022201584526524</v>
       </c>
       <c r="F10" t="n">
-        <v>0.002557090297898272</v>
+        <v>0.2170456329951545</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01118036848227327</v>
+        <v>4.163747841932792e-13</v>
       </c>
       <c r="H10" t="n">
-        <v>2.220978897179666e-14</v>
+        <v>4.163747841932792e-13</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9346981401952431</v>
+        <v>0.4076682088422278</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -6764,28 +6764,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.002908103715502573</v>
+        <v>0.2705809989162219</v>
       </c>
       <c r="C11" t="n">
-        <v>2.220803466963719e-14</v>
+        <v>5.618787816505879e-13</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9665891800533094</v>
+        <v>0.4319832676554161</v>
       </c>
       <c r="E11" t="n">
-        <v>0.001548105387358309</v>
+        <v>0.008257018213126997</v>
       </c>
       <c r="F11" t="n">
-        <v>0.008449961285956209</v>
+        <v>0.2891787152135493</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02050464955782902</v>
+        <v>5.618787816505885e-13</v>
       </c>
       <c r="H11" t="n">
-        <v>2.220803466963719e-14</v>
+        <v>5.618787816505887e-13</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9665891800533094</v>
+        <v>0.4319832676554161</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -6800,28 +6800,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.004852709297132517</v>
+        <v>0.002060091406877476</v>
       </c>
       <c r="C12" t="n">
-        <v>2.221175933402397e-14</v>
+        <v>2.220209980968366e-14</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9352021931350825</v>
+        <v>0.9910838237434615</v>
       </c>
       <c r="E12" t="n">
-        <v>0.002696053256821756</v>
+        <v>0.001410402952580269</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01932350371004298</v>
+        <v>0.005445681897014145</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03792554060087597</v>
+        <v>2.220209980968366e-14</v>
       </c>
       <c r="H12" t="n">
-        <v>2.221175933402397e-14</v>
+        <v>2.220209980968366e-14</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9352021931350825</v>
+        <v>0.9910838237434615</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -6836,28 +6836,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01185523852409688</v>
+        <v>0.01197715220896687</v>
       </c>
       <c r="C13" t="n">
-        <v>2.220614815317152e-14</v>
+        <v>2.220627346541637e-14</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9568263698829869</v>
+        <v>0.9760712361258251</v>
       </c>
       <c r="E13" t="n">
-        <v>0.00430179001660454</v>
+        <v>0.00209345360476116</v>
       </c>
       <c r="F13" t="n">
-        <v>0.02487668793195073</v>
+        <v>0.009858158060380165</v>
       </c>
       <c r="G13" t="n">
-        <v>0.002139913644316699</v>
+        <v>2.220627346541637e-14</v>
       </c>
       <c r="H13" t="n">
-        <v>2.220614815317152e-14</v>
+        <v>2.220627346541637e-14</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9568263698829869</v>
+        <v>0.9760712361258251</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -6872,28 +6872,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.06733304265931411</v>
+        <v>0.04312851525438399</v>
       </c>
       <c r="C14" t="n">
-        <v>2.221562386520864e-14</v>
+        <v>2.220018489538628e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0.891901843888133</v>
+        <v>0.9484932141423452</v>
       </c>
       <c r="E14" t="n">
-        <v>0.003836470287365808</v>
+        <v>0.001676173163014189</v>
       </c>
       <c r="F14" t="n">
-        <v>0.02798492196056755</v>
+        <v>0.006702097440189922</v>
       </c>
       <c r="G14" t="n">
-        <v>0.008943721204575227</v>
+        <v>2.220018489538628e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>2.221562386520864e-14</v>
+        <v>2.220018489538628e-14</v>
       </c>
       <c r="I14" t="n">
-        <v>0.891901843888133</v>
+        <v>0.9484932141423452</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -6908,28 +6908,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.004305143680390939</v>
+        <v>0.0350499497116652</v>
       </c>
       <c r="C15" t="n">
-        <v>2.220967409529063e-14</v>
+        <v>2.587766762636226e-14</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9656698129318412</v>
+        <v>0.9265610618370916</v>
       </c>
       <c r="E15" t="n">
-        <v>0.001757581400732125</v>
+        <v>0.002843469207147048</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01256560862295427</v>
+        <v>0.03554551924401822</v>
       </c>
       <c r="G15" t="n">
-        <v>0.01570185336403704</v>
+        <v>2.587766762636227e-14</v>
       </c>
       <c r="H15" t="n">
-        <v>2.220967409529063e-14</v>
+        <v>2.587766762636228e-14</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9656698129318412</v>
+        <v>0.9265610618370916</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -6944,28 +6944,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01513853836420824</v>
+        <v>0.01246792664402137</v>
       </c>
       <c r="C16" t="n">
-        <v>2.220490701654116e-14</v>
+        <v>2.220254319847825e-14</v>
       </c>
       <c r="D16" t="n">
-        <v>0.97302638703973</v>
+        <v>0.9808819602252115</v>
       </c>
       <c r="E16" t="n">
-        <v>0.003083767243743628</v>
+        <v>0.002215336016844152</v>
       </c>
       <c r="F16" t="n">
-        <v>0.003173241297123585</v>
+        <v>0.004434777113856367</v>
       </c>
       <c r="G16" t="n">
-        <v>0.005578066055150147</v>
+        <v>2.220254319847825e-14</v>
       </c>
       <c r="H16" t="n">
-        <v>2.220490701654116e-14</v>
+        <v>2.220254319847825e-14</v>
       </c>
       <c r="I16" t="n">
-        <v>0.97302638703973</v>
+        <v>0.9808819602252115</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -6980,28 +6980,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.001089951517511963</v>
+        <v>0.0001963832782714911</v>
       </c>
       <c r="C17" t="n">
-        <v>2.220728025752737e-14</v>
+        <v>2.219844370754467e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>0.970671952872272</v>
+        <v>0.989550135878271</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0005696054157654966</v>
+        <v>6.334083832659993e-05</v>
       </c>
       <c r="F17" t="n">
-        <v>0.01627254403134707</v>
+        <v>0.01019014000506423</v>
       </c>
       <c r="G17" t="n">
-        <v>0.01139594616305891</v>
+        <v>2.219844370754467e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>2.220728025752737e-14</v>
+        <v>2.219844370754467e-14</v>
       </c>
       <c r="I17" t="n">
-        <v>0.970671952872272</v>
+        <v>0.989550135878271</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -7016,28 +7016,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01453167454221088</v>
+        <v>0.001098897072015016</v>
       </c>
       <c r="C18" t="n">
-        <v>2.221914569253507e-14</v>
+        <v>2.219780167346635e-14</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9578696325852558</v>
+        <v>0.9813573922036641</v>
       </c>
       <c r="E18" t="n">
-        <v>0.003296508609155535</v>
+        <v>0.001206686412070845</v>
       </c>
       <c r="F18" t="n">
-        <v>0.01569060294589979</v>
+        <v>0.01633702431218336</v>
       </c>
       <c r="G18" t="n">
-        <v>0.008611581317433522</v>
+        <v>2.219780167346635e-14</v>
       </c>
       <c r="H18" t="n">
-        <v>2.221914569253507e-14</v>
+        <v>2.219780167346635e-14</v>
       </c>
       <c r="I18" t="n">
-        <v>0.9578696325852558</v>
+        <v>0.9813573922036641</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -7052,28 +7052,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01372583176852161</v>
+        <v>0.0008136741173101498</v>
       </c>
       <c r="C19" t="n">
-        <v>2.222295801510271e-14</v>
+        <v>2.219826958564498e-14</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9524852727598442</v>
+        <v>0.9862221369385292</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001677215543149066</v>
+        <v>0.000480299918902372</v>
       </c>
       <c r="F19" t="n">
-        <v>0.01718828634433819</v>
+        <v>0.01248388902519164</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01492339358410247</v>
+        <v>2.219826958564498e-14</v>
       </c>
       <c r="H19" t="n">
-        <v>2.222295801510271e-14</v>
+        <v>2.219826958564498e-14</v>
       </c>
       <c r="I19" t="n">
-        <v>0.9524852727598442</v>
+        <v>0.9862221369385292</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -7088,28 +7088,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.001911479490814773</v>
+        <v>0.004103686459917764</v>
       </c>
       <c r="C20" t="n">
-        <v>2.220643380518407e-14</v>
+        <v>2.219562697267608e-14</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9544263165838331</v>
+        <v>0.9641893067659613</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0004382389858760453</v>
+        <v>2.249975057432429e-05</v>
       </c>
       <c r="F20" t="n">
-        <v>0.03284790796996672</v>
+        <v>0.03168450702348014</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01037605696946491</v>
+        <v>2.219562697267608e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>2.220643380518407e-14</v>
+        <v>2.219562697267608e-14</v>
       </c>
       <c r="I20" t="n">
-        <v>0.9544263165838331</v>
+        <v>0.9641893067659613</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -7124,28 +7124,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.0006838663349705452</v>
+        <v>0.0004061147963820233</v>
       </c>
       <c r="C21" t="n">
-        <v>2.220368962034931e-14</v>
+        <v>2.219816903951591e-14</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9881018062005975</v>
+        <v>0.9882464743349746</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0007694930853675917</v>
+        <v>3.674679979248275e-05</v>
       </c>
       <c r="F21" t="n">
-        <v>0.005797288065193166</v>
+        <v>0.01131066406878426</v>
       </c>
       <c r="G21" t="n">
-        <v>0.004647546313826649</v>
+        <v>2.219816903951591e-14</v>
       </c>
       <c r="H21" t="n">
-        <v>2.220368962034931e-14</v>
+        <v>2.219816903951591e-14</v>
       </c>
       <c r="I21" t="n">
-        <v>0.9881018062005975</v>
+        <v>0.9882464743349746</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -7160,28 +7160,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.004358732081369913</v>
+        <v>0.008576222896995462</v>
       </c>
       <c r="C22" t="n">
-        <v>2.220480960976388e-14</v>
+        <v>2.220564472929778e-14</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9867528214607491</v>
+        <v>0.9805820764249076</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001102367150348533</v>
+        <v>7.839188894771697e-05</v>
       </c>
       <c r="F22" t="n">
-        <v>0.002864148298028872</v>
+        <v>0.01076330878908253</v>
       </c>
       <c r="G22" t="n">
-        <v>0.004921931009459079</v>
+        <v>2.220564472929778e-14</v>
       </c>
       <c r="H22" t="n">
-        <v>2.220480960976388e-14</v>
+        <v>2.220564472929778e-14</v>
       </c>
       <c r="I22" t="n">
-        <v>0.9867528214607491</v>
+        <v>0.9805820764249076</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -7196,28 +7196,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.0007284962572556228</v>
+        <v>0.0006660653502226846</v>
       </c>
       <c r="C23" t="n">
-        <v>2.22003216610611e-14</v>
+        <v>2.219993003432295e-14</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9950977337373338</v>
+        <v>0.993363584904185</v>
       </c>
       <c r="E23" t="n">
-        <v>2.22003216610611e-14</v>
+        <v>2.219993003432295e-14</v>
       </c>
       <c r="F23" t="n">
-        <v>0.004173770005321774</v>
+        <v>0.005970349745503735</v>
       </c>
       <c r="G23" t="n">
-        <v>2.22003216610611e-14</v>
+        <v>2.219993003432295e-14</v>
       </c>
       <c r="H23" t="n">
-        <v>2.22003216610611e-14</v>
+        <v>2.219993003432295e-14</v>
       </c>
       <c r="I23" t="n">
-        <v>0.9950977337373338</v>
+        <v>0.993363584904185</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -7232,28 +7232,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.003813128410650885</v>
+        <v>0.002317782898126518</v>
       </c>
       <c r="C24" t="n">
-        <v>2.220303399078457e-14</v>
+        <v>2.220207972095973e-14</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9895370193160827</v>
+        <v>0.9938324583444957</v>
       </c>
       <c r="E24" t="n">
-        <v>2.220303399078457e-14</v>
+        <v>2.220207972095973e-14</v>
       </c>
       <c r="F24" t="n">
-        <v>0.006649852273177515</v>
+        <v>0.003849758757288951</v>
       </c>
       <c r="G24" t="n">
-        <v>2.220303399078457e-14</v>
+        <v>2.220207972095973e-14</v>
       </c>
       <c r="H24" t="n">
-        <v>2.220303399078457e-14</v>
+        <v>2.220207972095973e-14</v>
       </c>
       <c r="I24" t="n">
-        <v>0.9895370193160827</v>
+        <v>0.9938324583444957</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -7268,28 +7268,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.1298128393664449</v>
+        <v>0.1258161472353646</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1223675054471406</v>
+        <v>0.1239199254722287</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2438350815237586</v>
+        <v>0.2452145529549704</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1223675054471406</v>
+        <v>0.1239199254722287</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1368820573212339</v>
+        <v>0.1332895979207512</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1223675054471406</v>
+        <v>0.1239199254722283</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1223675054471406</v>
+        <v>0.1239199254722283</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2438350815237586</v>
+        <v>0.2452145529549704</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -7304,28 +7304,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.1143345593905006</v>
+        <v>0.008331860300247112</v>
       </c>
       <c r="C26" t="n">
-        <v>2.218237147028575e-14</v>
+        <v>2.219987548491304e-14</v>
       </c>
       <c r="D26" t="n">
-        <v>0.885398022768823</v>
+        <v>0.9905114584166169</v>
       </c>
       <c r="E26" t="n">
-        <v>2.218237147028575e-14</v>
+        <v>2.219987548491304e-14</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0002674178405876326</v>
+        <v>0.001156681283047186</v>
       </c>
       <c r="G26" t="n">
-        <v>2.218237147028575e-14</v>
+        <v>2.219987548491304e-14</v>
       </c>
       <c r="H26" t="n">
-        <v>2.218237147028575e-14</v>
+        <v>2.219987548491304e-14</v>
       </c>
       <c r="I26" t="n">
-        <v>0.885398022768823</v>
+        <v>0.9905114584166169</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -7340,28 +7340,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.001174439936119267</v>
+        <v>0.005890487807150453</v>
       </c>
       <c r="C27" t="n">
-        <v>2.220087482892078e-14</v>
+        <v>2.220434353871381e-14</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9939963840849158</v>
+        <v>0.9862363933569607</v>
       </c>
       <c r="E27" t="n">
-        <v>2.220087482892078e-14</v>
+        <v>2.220434353871381e-14</v>
       </c>
       <c r="F27" t="n">
-        <v>0.004829175978876045</v>
+        <v>0.007873118835800032</v>
       </c>
       <c r="G27" t="n">
-        <v>2.220087482892078e-14</v>
+        <v>2.220434353871381e-14</v>
       </c>
       <c r="H27" t="n">
-        <v>2.220087482892078e-14</v>
+        <v>2.220434353871381e-14</v>
       </c>
       <c r="I27" t="n">
-        <v>0.9939963840849158</v>
+        <v>0.9862363933569607</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -7376,28 +7376,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.01420808344002799</v>
+        <v>0.04321219406781738</v>
       </c>
       <c r="C28" t="n">
-        <v>2.219966269310507e-14</v>
+        <v>2.219325486975644e-14</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9832117970308666</v>
+        <v>0.9520311633254992</v>
       </c>
       <c r="E28" t="n">
-        <v>2.219966269310507e-14</v>
+        <v>2.219325486975644e-14</v>
       </c>
       <c r="F28" t="n">
-        <v>0.002580119529016695</v>
+        <v>0.004756642606594531</v>
       </c>
       <c r="G28" t="n">
-        <v>2.219966269310507e-14</v>
+        <v>2.219325486975644e-14</v>
       </c>
       <c r="H28" t="n">
-        <v>2.219966269310507e-14</v>
+        <v>2.219325486975644e-14</v>
       </c>
       <c r="I28" t="n">
-        <v>0.9832117970308666</v>
+        <v>0.9520311633254992</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -7412,28 +7412,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.009434015537397332</v>
+        <v>0.01554093809667252</v>
       </c>
       <c r="C29" t="n">
-        <v>2.219957274766242e-14</v>
+        <v>2.219853213733301e-14</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9893996475816512</v>
+        <v>0.9823111289608453</v>
       </c>
       <c r="E29" t="n">
-        <v>2.219957274766242e-14</v>
+        <v>2.219853213733301e-14</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001166336880862672</v>
+        <v>0.002147932942393421</v>
       </c>
       <c r="G29" t="n">
-        <v>2.219957274766242e-14</v>
+        <v>2.219853213733301e-14</v>
       </c>
       <c r="H29" t="n">
-        <v>2.219957274766242e-14</v>
+        <v>2.219853213733301e-14</v>
       </c>
       <c r="I29" t="n">
-        <v>0.9893996475816512</v>
+        <v>0.9823111289608453</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -7448,28 +7448,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.004089083656725836</v>
+        <v>0.01507334288921889</v>
       </c>
       <c r="C30" t="n">
-        <v>2.220227735322934e-14</v>
+        <v>2.220083260619043e-14</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9933859272255482</v>
+        <v>0.9810055804093741</v>
       </c>
       <c r="E30" t="n">
-        <v>2.220227735322934e-14</v>
+        <v>2.220083260619043e-14</v>
       </c>
       <c r="F30" t="n">
-        <v>0.002524989117637129</v>
+        <v>0.003921076701318306</v>
       </c>
       <c r="G30" t="n">
-        <v>2.220227735322934e-14</v>
+        <v>2.220083260619043e-14</v>
       </c>
       <c r="H30" t="n">
-        <v>2.220227735322934e-14</v>
+        <v>2.220083260619043e-14</v>
       </c>
       <c r="I30" t="n">
-        <v>0.9933859272255482</v>
+        <v>0.9810055804093741</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -7484,28 +7484,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.03737637286956496</v>
+        <v>0.0195313573865371</v>
       </c>
       <c r="C31" t="n">
-        <v>2.219723930852404e-14</v>
+        <v>2.219679265061941e-14</v>
       </c>
       <c r="D31" t="n">
-        <v>0.957580134196831</v>
+        <v>0.9787475787932839</v>
       </c>
       <c r="E31" t="n">
-        <v>2.219723930852404e-14</v>
+        <v>2.219679265061941e-14</v>
       </c>
       <c r="F31" t="n">
-        <v>2.219723930852404e-14</v>
+        <v>0.001352047026666678</v>
       </c>
       <c r="G31" t="n">
-        <v>0.004571707569006602</v>
+        <v>2.219679265061941e-14</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0004717853645308817</v>
+        <v>0.0003690167934459197</v>
       </c>
       <c r="I31" t="n">
-        <v>0.957580134196831</v>
+        <v>0.9787475787932839</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -7520,28 +7520,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.02451924017571631</v>
+        <v>0.007973570540195823</v>
       </c>
       <c r="C32" t="n">
-        <v>2.425947529647073e-14</v>
+        <v>2.220639599111571e-14</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9370357200270949</v>
+        <v>0.9771328191615279</v>
       </c>
       <c r="E32" t="n">
-        <v>2.394594311696557e-14</v>
+        <v>2.220639599111571e-14</v>
       </c>
       <c r="F32" t="n">
-        <v>2.425947529647072e-14</v>
+        <v>0.01043574468713521</v>
       </c>
       <c r="G32" t="n">
-        <v>0.01948564457225185</v>
+        <v>2.220639599111571e-14</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0189593952248643</v>
+        <v>0.004457865611074379</v>
       </c>
       <c r="I32" t="n">
-        <v>0.9370357200270949</v>
+        <v>0.9771328191615279</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -7556,28 +7556,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.04297130819329522</v>
+        <v>0.02344456681990538</v>
       </c>
       <c r="C33" t="n">
-        <v>2.220477597483961e-14</v>
+        <v>2.22070224013639e-14</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9451290776658015</v>
+        <v>0.9638150776604575</v>
       </c>
       <c r="E33" t="n">
-        <v>2.220477597483961e-14</v>
+        <v>2.22070224013639e-14</v>
       </c>
       <c r="F33" t="n">
-        <v>2.220477597483961e-14</v>
+        <v>0.01189572175131434</v>
       </c>
       <c r="G33" t="n">
-        <v>0.00970655925026446</v>
+        <v>2.22070224013639e-14</v>
       </c>
       <c r="H33" t="n">
-        <v>0.002193054890572207</v>
+        <v>0.0008446337682562322</v>
       </c>
       <c r="I33" t="n">
-        <v>0.9451290776658015</v>
+        <v>0.9638150776604575</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -7592,28 +7592,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.0419334603113249</v>
+        <v>0.02044836378548729</v>
       </c>
       <c r="C34" t="n">
-        <v>2.220359461832335e-14</v>
+        <v>2.220174102208598e-14</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9484714901778035</v>
+        <v>0.9729490800541757</v>
       </c>
       <c r="E34" t="n">
-        <v>2.220359461832335e-14</v>
+        <v>2.220174102208598e-14</v>
       </c>
       <c r="F34" t="n">
-        <v>2.220359461832335e-14</v>
+        <v>0.00571685214403722</v>
       </c>
       <c r="G34" t="n">
-        <v>0.007877015792614718</v>
+        <v>2.220174102208598e-14</v>
       </c>
       <c r="H34" t="n">
-        <v>0.001718033718190277</v>
+        <v>0.0008857040162331523</v>
       </c>
       <c r="I34" t="n">
-        <v>0.9484714901778035</v>
+        <v>0.9729490800541757</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -7628,28 +7628,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.4602848731861104</v>
+        <v>0.3259931555763794</v>
       </c>
       <c r="C35" t="n">
-        <v>2.222015443392514e-14</v>
+        <v>2.218123140025092e-14</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5387299996319647</v>
+        <v>0.673656640001089</v>
       </c>
       <c r="E35" t="n">
-        <v>2.222015443392514e-14</v>
+        <v>2.218123140025092e-14</v>
       </c>
       <c r="F35" t="n">
-        <v>2.222015443392514e-14</v>
+        <v>0.0003188211413132686</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0009313013623078617</v>
+        <v>2.218123140025092e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>5.382581955032767e-05</v>
+        <v>3.138328115179029e-05</v>
       </c>
       <c r="I35" t="n">
-        <v>0.5387299996319647</v>
+        <v>0.673656640001089</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -7664,28 +7664,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.01176158013760384</v>
+        <v>0.01401896893461327</v>
       </c>
       <c r="C36" t="n">
-        <v>2.219995435563907e-14</v>
+        <v>2.220107103736888e-14</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9802979970798302</v>
+        <v>0.9768873455298545</v>
       </c>
       <c r="E36" t="n">
-        <v>2.219995435563907e-14</v>
+        <v>2.220107103736888e-14</v>
       </c>
       <c r="F36" t="n">
-        <v>2.219995435563907e-14</v>
+        <v>0.008485945047451576</v>
       </c>
       <c r="G36" t="n">
-        <v>0.007506555160004862</v>
+        <v>2.220107103736888e-14</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0004338676224945042</v>
+        <v>0.0006077404880140267</v>
       </c>
       <c r="I36" t="n">
-        <v>0.9802979970798302</v>
+        <v>0.9768873455298545</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -7700,28 +7700,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.2376544226327649</v>
+        <v>0.2025282311751811</v>
       </c>
       <c r="C37" t="n">
-        <v>2.220156612216118e-14</v>
+        <v>2.220568341979556e-14</v>
       </c>
       <c r="D37" t="n">
-        <v>0.7583768710081643</v>
+        <v>0.7872590798062647</v>
       </c>
       <c r="E37" t="n">
-        <v>2.220156612216118e-14</v>
+        <v>2.220568341979556e-14</v>
       </c>
       <c r="F37" t="n">
-        <v>2.220156612216118e-14</v>
+        <v>0.008873075806469746</v>
       </c>
       <c r="G37" t="n">
-        <v>0.003408500198002741</v>
+        <v>2.220568341979556e-14</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0005602061610014715</v>
+        <v>0.001339613212017647</v>
       </c>
       <c r="I37" t="n">
-        <v>0.7583768710081643</v>
+        <v>0.7872590798062647</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -7807,28 +7807,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2500950232567741</v>
+        <v>0.3099884569311659</v>
       </c>
       <c r="C2" t="n">
-        <v>1.068148883957288e-11</v>
+        <v>1.65790099891807e-12</v>
       </c>
       <c r="D2" t="n">
-        <v>0.238951723476253</v>
+        <v>0.003210966298344543</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2791293952291012</v>
+        <v>0.4347774758265661</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1612189413964651</v>
+        <v>0.2520231009389497</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07060491662004383</v>
+        <v>1.657900998918065e-12</v>
       </c>
       <c r="H2" t="n">
-        <v>1.068148883957288e-11</v>
+        <v>1.657900998918065e-12</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2791293952291012</v>
+        <v>0.4347774758265661</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -7843,28 +7843,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02972900650274916</v>
+        <v>0.1241999089664896</v>
       </c>
       <c r="C3" t="n">
-        <v>0.004533596793809775</v>
+        <v>0.004523517034562149</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02311795496165803</v>
+        <v>0.004537772250093428</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9012747470858059</v>
+        <v>0.8291329969421494</v>
       </c>
       <c r="F3" t="n">
-        <v>0.004533596793809789</v>
+        <v>0.01667238167779846</v>
       </c>
       <c r="G3" t="n">
-        <v>0.004705584450979109</v>
+        <v>0.00452351703456187</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03210551341118831</v>
+        <v>0.01640990609434481</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9012747470858059</v>
+        <v>0.8291329969421494</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -7879,28 +7879,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05620844618052362</v>
+        <v>0.138334290429185</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0043555107429876</v>
+        <v>0.00442650528093919</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02927799650297701</v>
+        <v>0.004454966832382068</v>
       </c>
       <c r="E4" t="n">
-        <v>0.847667632141855</v>
+        <v>0.805833741185658</v>
       </c>
       <c r="F4" t="n">
-        <v>0.004355510742987587</v>
+        <v>0.02109555265113253</v>
       </c>
       <c r="G4" t="n">
-        <v>0.004542902696367314</v>
+        <v>0.00442650528093919</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05359200099230187</v>
+        <v>0.02142843833976407</v>
       </c>
       <c r="I4" t="n">
-        <v>0.847667632141855</v>
+        <v>0.805833741185658</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -7986,28 +7986,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.04358299173399723</v>
+        <v>0.01440247776358335</v>
       </c>
       <c r="C2" t="n">
-        <v>4.083115898306143e-14</v>
+        <v>2.756897491245367e-14</v>
       </c>
       <c r="D2" t="n">
-        <v>4.083115898306138e-14</v>
+        <v>2.756897491245369e-14</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0470054312195679</v>
+        <v>0.01673707559505806</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9068786867353573</v>
+        <v>0.9688604466412484</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00253289031095512</v>
+        <v>2.756897491245336e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>4.083115898306141e-14</v>
+        <v>2.756897491245336e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9068786867353573</v>
+        <v>0.9688604466412484</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -8022,28 +8022,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.00664317819587827</v>
+        <v>0.006055556355619084</v>
       </c>
       <c r="C3" t="n">
-        <v>3.08811121684372e-14</v>
+        <v>2.220161561440409e-14</v>
       </c>
       <c r="D3" t="n">
-        <v>3.088111216843723e-14</v>
+        <v>2.220161561440409e-14</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0389266453187415</v>
+        <v>0.01349623539466425</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9524744882408145</v>
+        <v>0.980448208249628</v>
       </c>
       <c r="G3" t="n">
-        <v>0.001955688244473159</v>
+        <v>2.220161561440409e-14</v>
       </c>
       <c r="H3" t="n">
-        <v>3.088111216843721e-14</v>
+        <v>2.220161561440409e-14</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9524744882408145</v>
+        <v>0.980448208249628</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -8058,28 +8058,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.959419818389696e-05</v>
+        <v>0.0003809622588914542</v>
       </c>
       <c r="C4" t="n">
-        <v>2.219782191610272e-14</v>
+        <v>2.219871195680417e-14</v>
       </c>
       <c r="D4" t="n">
-        <v>2.219782191610272e-14</v>
+        <v>2.219871195680417e-14</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02436335812483079</v>
+        <v>0.01268531790280026</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9749821318948794</v>
+        <v>0.9869337198382194</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0005849157820394377</v>
+        <v>2.219871195680417e-14</v>
       </c>
       <c r="H4" t="n">
-        <v>2.219782191610272e-14</v>
+        <v>2.219871195680417e-14</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9749821318948794</v>
+        <v>0.9869337198382194</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -8094,28 +8094,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.521409240903966e-05</v>
+        <v>0.0001859487595947383</v>
       </c>
       <c r="C5" t="n">
-        <v>2.21983302351089e-14</v>
+        <v>2.219919382694427e-14</v>
       </c>
       <c r="D5" t="n">
-        <v>2.21983302351089e-14</v>
+        <v>2.219919382694427e-14</v>
       </c>
       <c r="E5" t="n">
-        <v>0.02768606876708466</v>
+        <v>0.01021731790571545</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9716131904078199</v>
+        <v>0.989596733334601</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0006055267326198897</v>
+        <v>2.219919382694427e-14</v>
       </c>
       <c r="H5" t="n">
-        <v>2.21983302351089e-14</v>
+        <v>2.219919382694427e-14</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9716131904078199</v>
+        <v>0.989596733334601</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -8130,28 +8130,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02684294099880762</v>
+        <v>0.01872721734721383</v>
       </c>
       <c r="C6" t="n">
-        <v>4.953902293702219e-14</v>
+        <v>7.906408086222854e-14</v>
       </c>
       <c r="D6" t="n">
-        <v>4.953902293702218e-14</v>
+        <v>7.90640808622286e-14</v>
       </c>
       <c r="E6" t="n">
-        <v>0.005973352478719289</v>
+        <v>0.0002206811536454194</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9063064357463677</v>
+        <v>0.9810521014988245</v>
       </c>
       <c r="G6" t="n">
-        <v>0.06087727077595691</v>
+        <v>7.90640808622287e-14</v>
       </c>
       <c r="H6" t="n">
-        <v>4.953902293702248e-14</v>
+        <v>7.90640808622288e-14</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9063064357463677</v>
+        <v>0.9810521014988245</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -8166,28 +8166,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.04358299173399723</v>
+        <v>0.01440247776358335</v>
       </c>
       <c r="C7" t="n">
-        <v>4.083115898306143e-14</v>
+        <v>2.756897491245367e-14</v>
       </c>
       <c r="D7" t="n">
-        <v>4.083115898306138e-14</v>
+        <v>2.756897491245369e-14</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0470054312195679</v>
+        <v>0.01673707559505806</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9068786867353573</v>
+        <v>0.9688604466412484</v>
       </c>
       <c r="G7" t="n">
-        <v>0.00253289031095512</v>
+        <v>2.756897491245336e-14</v>
       </c>
       <c r="H7" t="n">
-        <v>4.083115898306141e-14</v>
+        <v>2.756897491245336e-14</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9068786867353573</v>
+        <v>0.9688604466412484</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -8202,28 +8202,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.00664317819587827</v>
+        <v>0.006055556355619084</v>
       </c>
       <c r="C8" t="n">
-        <v>3.08811121684372e-14</v>
+        <v>2.220161561440409e-14</v>
       </c>
       <c r="D8" t="n">
-        <v>3.088111216843723e-14</v>
+        <v>2.220161561440409e-14</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0389266453187415</v>
+        <v>0.01349623539466425</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9524744882408145</v>
+        <v>0.980448208249628</v>
       </c>
       <c r="G8" t="n">
-        <v>0.001955688244473159</v>
+        <v>2.220161561440409e-14</v>
       </c>
       <c r="H8" t="n">
-        <v>3.088111216843721e-14</v>
+        <v>2.220161561440409e-14</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9524744882408145</v>
+        <v>0.980448208249628</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -8238,28 +8238,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.959419818389696e-05</v>
+        <v>0.0003809622588914542</v>
       </c>
       <c r="C9" t="n">
-        <v>2.219782191610272e-14</v>
+        <v>2.219871195680417e-14</v>
       </c>
       <c r="D9" t="n">
-        <v>2.219782191610272e-14</v>
+        <v>2.219871195680417e-14</v>
       </c>
       <c r="E9" t="n">
-        <v>0.02436335812483079</v>
+        <v>0.01268531790280026</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9749821318948794</v>
+        <v>0.9869337198382194</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0005849157820394377</v>
+        <v>2.219871195680417e-14</v>
       </c>
       <c r="H9" t="n">
-        <v>2.219782191610272e-14</v>
+        <v>2.219871195680417e-14</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9749821318948794</v>
+        <v>0.9869337198382194</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -8274,28 +8274,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9.521409240903966e-05</v>
+        <v>0.0001859487595947383</v>
       </c>
       <c r="C10" t="n">
-        <v>2.21983302351089e-14</v>
+        <v>2.219919382694427e-14</v>
       </c>
       <c r="D10" t="n">
-        <v>2.21983302351089e-14</v>
+        <v>2.219919382694427e-14</v>
       </c>
       <c r="E10" t="n">
-        <v>0.02768606876708466</v>
+        <v>0.01021731790571545</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9716131904078199</v>
+        <v>0.989596733334601</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0006055267326198897</v>
+        <v>2.219919382694427e-14</v>
       </c>
       <c r="H10" t="n">
-        <v>2.21983302351089e-14</v>
+        <v>2.219919382694427e-14</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9716131904078199</v>
+        <v>0.989596733334601</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -8310,28 +8310,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02684294099880762</v>
+        <v>0.01872721734721383</v>
       </c>
       <c r="C11" t="n">
-        <v>4.953902293702219e-14</v>
+        <v>7.906408086222854e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>4.953902293702218e-14</v>
+        <v>7.90640808622286e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0.005973352478719289</v>
+        <v>0.0002206811536454194</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9063064357463677</v>
+        <v>0.9810521014988245</v>
       </c>
       <c r="G11" t="n">
-        <v>0.06087727077595691</v>
+        <v>7.90640808622287e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>4.953902293702248e-14</v>
+        <v>7.90640808622288e-14</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9063064357463677</v>
+        <v>0.9810521014988245</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -8346,28 +8346,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7.715243179806967e-07</v>
+        <v>1.916939622487776e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>2.21973594570528e-14</v>
+        <v>2.219863128140464e-14</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0001738308104584765</v>
+        <v>5.000762711903876e-05</v>
       </c>
       <c r="E12" t="n">
-        <v>0.01445978516762953</v>
+        <v>0.01130413302916562</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9851302994788056</v>
+        <v>0.9886266899474239</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0002353130187440647</v>
+        <v>2.219863128140464e-14</v>
       </c>
       <c r="H12" t="n">
-        <v>2.21973594570528e-14</v>
+        <v>2.219863128140464e-14</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9851302994788056</v>
+        <v>0.9886266899474239</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -8382,28 +8382,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02753813978549201</v>
+        <v>0.01274466645153862</v>
       </c>
       <c r="C13" t="n">
-        <v>2.220579745554227e-14</v>
+        <v>2.220630020116361e-14</v>
       </c>
       <c r="D13" t="n">
-        <v>0.03296249862103211</v>
+        <v>0.01543040743261343</v>
       </c>
       <c r="E13" t="n">
-        <v>0.003199436086372705</v>
+        <v>0.0006339876888197689</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9137491189485816</v>
+        <v>0.9711909384269616</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02255080655847723</v>
+        <v>2.220630020116361e-14</v>
       </c>
       <c r="H13" t="n">
-        <v>2.220579745554227e-14</v>
+        <v>2.220630020116361e-14</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9137491189485816</v>
+        <v>0.9711909384269616</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -8418,28 +8418,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01840606949777094</v>
+        <v>0.009083363216400799</v>
       </c>
       <c r="C14" t="n">
-        <v>2.220470645151938e-14</v>
+        <v>2.220461131910169e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0342437159977108</v>
+        <v>0.02082245765735875</v>
       </c>
       <c r="E14" t="n">
-        <v>0.003226029749443823</v>
+        <v>0.0007773618445430424</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9177202917768069</v>
+        <v>0.9693168172816308</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02640389297822319</v>
+        <v>2.220461131910169e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>2.220470645151938e-14</v>
+        <v>2.220461131910169e-14</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9177202917768069</v>
+        <v>0.9693168172816308</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -8454,28 +8454,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0294437190991563</v>
+        <v>0.01262476164863714</v>
       </c>
       <c r="C15" t="n">
-        <v>2.220960772078767e-14</v>
+        <v>2.220579238556984e-14</v>
       </c>
       <c r="D15" t="n">
-        <v>0.04171447488851166</v>
+        <v>0.02926954722615415</v>
       </c>
       <c r="E15" t="n">
-        <v>0.002957546976419814</v>
+        <v>0.00101319398398581</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8960042151180312</v>
+        <v>0.9570924971411563</v>
       </c>
       <c r="G15" t="n">
-        <v>0.02988004391783662</v>
+        <v>2.220579238556984e-14</v>
       </c>
       <c r="H15" t="n">
-        <v>2.220960772078767e-14</v>
+        <v>2.220579238556984e-14</v>
       </c>
       <c r="I15" t="n">
-        <v>0.8960042151180312</v>
+        <v>0.9570924971411563</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -8490,28 +8490,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0130001455006154</v>
+        <v>0.005050881689611672</v>
       </c>
       <c r="C16" t="n">
-        <v>2.483809014022288e-14</v>
+        <v>2.413154199933523e-14</v>
       </c>
       <c r="D16" t="n">
-        <v>0.05112750670454733</v>
+        <v>0.1027058031712489</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00407521676032578</v>
+        <v>0.002703524343879033</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9084250684891808</v>
+        <v>0.8895397907951881</v>
       </c>
       <c r="G16" t="n">
-        <v>0.02337206254528105</v>
+        <v>2.413154199933532e-14</v>
       </c>
       <c r="H16" t="n">
-        <v>2.48380901402228e-14</v>
+        <v>2.413154199933533e-14</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9084250684891808</v>
+        <v>0.8895397907951881</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -8526,28 +8526,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01773633796334572</v>
+        <v>0.005856482636193911</v>
       </c>
       <c r="C17" t="n">
-        <v>2.738569325142057e-14</v>
+        <v>3.136531183713736e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>0.07327277937580363</v>
+        <v>0.1789095074790134</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004461043017841087</v>
+        <v>0.003409197486887445</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8749771145284294</v>
+        <v>0.8118248123978112</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0295527251145254</v>
+        <v>3.136531183713736e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>2.738569325142062e-14</v>
+        <v>3.136531183713737e-14</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8749771145284294</v>
+        <v>0.8118248123978112</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -8562,28 +8562,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.003892963234787333</v>
+        <v>0.003587560866373677</v>
       </c>
       <c r="C18" t="n">
-        <v>2.220026887752606e-14</v>
+        <v>2.219921557075901e-14</v>
       </c>
       <c r="D18" t="n">
-        <v>2.220026887752606e-14</v>
+        <v>2.219921557075901e-14</v>
       </c>
       <c r="E18" t="n">
-        <v>0.02334962122302569</v>
+        <v>0.0273270444786028</v>
       </c>
       <c r="F18" t="n">
-        <v>0.972412957302737</v>
+        <v>0.9690853946549347</v>
       </c>
       <c r="G18" t="n">
-        <v>0.000344458239383227</v>
+        <v>2.219921557075901e-14</v>
       </c>
       <c r="H18" t="n">
-        <v>2.220026887752606e-14</v>
+        <v>2.219921557075901e-14</v>
       </c>
       <c r="I18" t="n">
-        <v>0.972412957302737</v>
+        <v>0.9690853946549347</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -8598,28 +8598,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.02909136938107246</v>
+        <v>0.03266770246978404</v>
       </c>
       <c r="C19" t="n">
-        <v>2.220561076857789e-14</v>
+        <v>2.245835571135877e-13</v>
       </c>
       <c r="D19" t="n">
-        <v>2.220561076857789e-14</v>
+        <v>2.245835571135875e-13</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0005623141531166106</v>
+        <v>0.0001318088661280591</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9484465451429684</v>
+        <v>0.9672004886631896</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02189977132277585</v>
+        <v>2.245835571135868e-13</v>
       </c>
       <c r="H19" t="n">
-        <v>2.220561076857789e-14</v>
+        <v>2.245835571135871e-13</v>
       </c>
       <c r="I19" t="n">
-        <v>0.9484465451429684</v>
+        <v>0.9672004886631896</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -8634,28 +8634,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.03108944192917097</v>
+        <v>0.0674153164285515</v>
       </c>
       <c r="C20" t="n">
-        <v>2.220381812560442e-14</v>
+        <v>5.423849626992948e-12</v>
       </c>
       <c r="D20" t="n">
-        <v>2.220381812560442e-14</v>
+        <v>5.423849626992941e-12</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0007593234212523126</v>
+        <v>0.01214607197825623</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9581110943928899</v>
+        <v>0.9204386115714968</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01004014025662017</v>
+        <v>5.423849626992932e-12</v>
       </c>
       <c r="H20" t="n">
-        <v>2.220381812560442e-14</v>
+        <v>5.423849626992932e-12</v>
       </c>
       <c r="I20" t="n">
-        <v>0.9581110943928899</v>
+        <v>0.9204386115714968</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -8670,28 +8670,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.02061705315765197</v>
+        <v>0.02949973245057924</v>
       </c>
       <c r="C21" t="n">
-        <v>2.221058471989816e-14</v>
+        <v>3.289001399415517e-14</v>
       </c>
       <c r="D21" t="n">
-        <v>2.221058471989816e-14</v>
+        <v>3.289001399415517e-14</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0003642019292619043</v>
+        <v>1.233351601984516e-05</v>
       </c>
       <c r="F21" t="n">
-        <v>0.952369080651835</v>
+        <v>0.9704879340332694</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02664966426118445</v>
+        <v>3.28900139941545e-14</v>
       </c>
       <c r="H21" t="n">
-        <v>2.221058471989816e-14</v>
+        <v>3.289001399415452e-14</v>
       </c>
       <c r="I21" t="n">
-        <v>0.952369080651835</v>
+        <v>0.9704879340332694</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -8706,28 +8706,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01288465988899037</v>
+        <v>0.1040937270140652</v>
       </c>
       <c r="C22" t="n">
-        <v>2.220628461930169e-14</v>
+        <v>1.857526633284029e-12</v>
       </c>
       <c r="D22" t="n">
-        <v>2.220628461930169e-14</v>
+        <v>1.857526633284032e-12</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0004661092492214523</v>
+        <v>0.00372521954266688</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9600888481815623</v>
+        <v>0.8921810534358379</v>
       </c>
       <c r="G22" t="n">
-        <v>0.02656038268015922</v>
+        <v>1.857526633284035e-12</v>
       </c>
       <c r="H22" t="n">
-        <v>2.220628461930169e-14</v>
+        <v>1.857526633284035e-12</v>
       </c>
       <c r="I22" t="n">
-        <v>0.9600888481815623</v>
+        <v>0.8921810534358379</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -8742,28 +8742,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.02334153264527451</v>
+        <v>0.151661737225733</v>
       </c>
       <c r="C23" t="n">
-        <v>2.220831163769455e-14</v>
+        <v>5.73174004776566e-12</v>
       </c>
       <c r="D23" t="n">
-        <v>2.220831163769455e-14</v>
+        <v>5.731740047765659e-12</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0004893422269271069</v>
+        <v>0.01149262684129601</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9521980479531792</v>
+        <v>0.8368456359100441</v>
       </c>
       <c r="G23" t="n">
-        <v>0.02397107717455257</v>
+        <v>5.731740047765644e-12</v>
       </c>
       <c r="H23" t="n">
-        <v>2.220831163769455e-14</v>
+        <v>5.731740047765647e-12</v>
       </c>
       <c r="I23" t="n">
-        <v>0.9521980479531792</v>
+        <v>0.8368456359100441</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -8778,28 +8778,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.001193022254863296</v>
+        <v>0.002634671832208004</v>
       </c>
       <c r="C24" t="n">
-        <v>0.001164126588095203</v>
+        <v>1.10919705794787e-13</v>
       </c>
       <c r="D24" t="n">
-        <v>0.001164126588095209</v>
+        <v>1.109197057947869e-13</v>
       </c>
       <c r="E24" t="n">
-        <v>0.001164126588095208</v>
+        <v>1.109197057947875e-13</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9929863448046606</v>
+        <v>0.9973653281672373</v>
       </c>
       <c r="G24" t="n">
-        <v>0.001164126588095203</v>
+        <v>1.109197057947877e-13</v>
       </c>
       <c r="H24" t="n">
-        <v>0.001164126588095209</v>
+        <v>1.109197057947875e-13</v>
       </c>
       <c r="I24" t="n">
-        <v>0.9929863448046606</v>
+        <v>0.9973653281672373</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -8814,28 +8814,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01262834795561488</v>
+        <v>0.008222497735112549</v>
       </c>
       <c r="C25" t="n">
-        <v>1.961532007408418e-13</v>
+        <v>4.167629668638689e-14</v>
       </c>
       <c r="D25" t="n">
-        <v>1.961532007408416e-13</v>
+        <v>4.167629668638692e-14</v>
       </c>
       <c r="E25" t="n">
-        <v>1.961532007408425e-13</v>
+        <v>4.1676296686387e-14</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9873716520434045</v>
+        <v>0.9917775022646791</v>
       </c>
       <c r="G25" t="n">
-        <v>1.961532007408272e-13</v>
+        <v>4.167629668638701e-14</v>
       </c>
       <c r="H25" t="n">
-        <v>1.961532007408273e-13</v>
+        <v>4.167629668638699e-14</v>
       </c>
       <c r="I25" t="n">
-        <v>0.9873716520434045</v>
+        <v>0.9917775022646791</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -8850,28 +8850,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.290393149484396e-14</v>
+        <v>8.176791996718956e-06</v>
       </c>
       <c r="C26" t="n">
-        <v>2.290393149484396e-14</v>
+        <v>2.219910959405778e-14</v>
       </c>
       <c r="D26" t="n">
-        <v>2.290393149484396e-14</v>
+        <v>2.219910959405778e-14</v>
       </c>
       <c r="E26" t="n">
-        <v>0.4750931875483199</v>
+        <v>0.9953274960470829</v>
       </c>
       <c r="F26" t="n">
-        <v>0.04981362490326836</v>
+        <v>0.00466432716083145</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4750931875483201</v>
+        <v>2.219910959405778e-14</v>
       </c>
       <c r="H26" t="n">
-        <v>2.290393149484396e-14</v>
+        <v>2.219910959405778e-14</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4750931875483201</v>
+        <v>0.9953274960470829</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -8886,28 +8886,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.03202952465662963</v>
+        <v>0.01953445692864897</v>
       </c>
       <c r="C27" t="n">
-        <v>1.366523464689543e-13</v>
+        <v>8.272259242854388e-14</v>
       </c>
       <c r="D27" t="n">
-        <v>1.366523464689542e-13</v>
+        <v>8.272259242854399e-14</v>
       </c>
       <c r="E27" t="n">
-        <v>1.366523464689539e-13</v>
+        <v>8.272259242854407e-14</v>
       </c>
       <c r="F27" t="n">
-        <v>0.967970475342687</v>
+        <v>0.9804655430709375</v>
       </c>
       <c r="G27" t="n">
-        <v>1.366523464689544e-13</v>
+        <v>8.27225924285438e-14</v>
       </c>
       <c r="H27" t="n">
-        <v>1.366523464689542e-13</v>
+        <v>8.272259242854403e-14</v>
       </c>
       <c r="I27" t="n">
-        <v>0.967970475342687</v>
+        <v>0.9804655430709375</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -8922,28 +8922,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.05346704545138201</v>
+        <v>0.04645845833120692</v>
       </c>
       <c r="C28" t="n">
-        <v>1.654424930977851e-13</v>
+        <v>1.379828329690362e-13</v>
       </c>
       <c r="D28" t="n">
-        <v>1.654424930977851e-13</v>
+        <v>1.37982832969036e-13</v>
       </c>
       <c r="E28" t="n">
-        <v>1.654424930977853e-13</v>
+        <v>1.379828329690361e-13</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9465329545477907</v>
+        <v>0.9535415416681031</v>
       </c>
       <c r="G28" t="n">
-        <v>1.654424930977852e-13</v>
+        <v>1.379828329690361e-13</v>
       </c>
       <c r="H28" t="n">
-        <v>1.654424930977848e-13</v>
+        <v>1.379828329690362e-13</v>
       </c>
       <c r="I28" t="n">
-        <v>0.9465329545477907</v>
+        <v>0.9535415416681031</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -8958,28 +8958,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.09089648825405958</v>
+        <v>0.116244707745591</v>
       </c>
       <c r="C29" t="n">
-        <v>1.691423004935903e-13</v>
+        <v>4.803444518575114e-13</v>
       </c>
       <c r="D29" t="n">
-        <v>1.691423004935902e-13</v>
+        <v>4.803444518575114e-13</v>
       </c>
       <c r="E29" t="n">
-        <v>1.691423004935901e-13</v>
+        <v>4.80344451857512e-13</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9091035117450947</v>
+        <v>0.8837552922520072</v>
       </c>
       <c r="G29" t="n">
-        <v>1.691423004935876e-13</v>
+        <v>4.803444518575056e-13</v>
       </c>
       <c r="H29" t="n">
-        <v>1.691423004935876e-13</v>
+        <v>4.803444518575058e-13</v>
       </c>
       <c r="I29" t="n">
-        <v>0.9091035117450947</v>
+        <v>0.8837552922520072</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -8994,28 +8994,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.02360207481310673</v>
+        <v>0.01588958482157209</v>
       </c>
       <c r="C30" t="n">
-        <v>2.221099303371473e-14</v>
+        <v>2.220803396027238e-14</v>
       </c>
       <c r="D30" t="n">
-        <v>0.003152932609423618</v>
+        <v>0.007033210031856753</v>
       </c>
       <c r="E30" t="n">
-        <v>2.221099303371473e-14</v>
+        <v>2.220803396027238e-14</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9624450862562488</v>
+        <v>0.9722163029648233</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0003099540270036761</v>
+        <v>2.220803396027238e-14</v>
       </c>
       <c r="H30" t="n">
-        <v>0.01048995229417269</v>
+        <v>0.004860902181681238</v>
       </c>
       <c r="I30" t="n">
-        <v>0.9624450862562488</v>
+        <v>0.9722163029648233</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -9030,28 +9030,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.01162315324855371</v>
+        <v>0.007391489128943802</v>
       </c>
       <c r="C31" t="n">
-        <v>2.22102142716556e-14</v>
+        <v>2.220187847315192e-14</v>
       </c>
       <c r="D31" t="n">
-        <v>0.01212212320476432</v>
+        <v>0.002290837859048945</v>
       </c>
       <c r="E31" t="n">
-        <v>2.22102142716556e-14</v>
+        <v>2.220187847315192e-14</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9722476611988423</v>
+        <v>0.9896430349458877</v>
       </c>
       <c r="G31" t="n">
-        <v>0.00085486357415528</v>
+        <v>2.220187847315192e-14</v>
       </c>
       <c r="H31" t="n">
-        <v>0.003152198773639959</v>
+        <v>0.0006746380660530979</v>
       </c>
       <c r="I31" t="n">
-        <v>0.9722476611988423</v>
+        <v>0.9896430349458877</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -9066,28 +9066,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.8909183809425234</v>
+        <v>0.9944492342433493</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1030424836951768</v>
+        <v>2.220169867205142e-14</v>
       </c>
       <c r="D32" t="n">
-        <v>0.006009386066709324</v>
+        <v>0.003684964768608333</v>
       </c>
       <c r="E32" t="n">
-        <v>2.217955186098426e-14</v>
+        <v>2.220169867205142e-14</v>
       </c>
       <c r="F32" t="n">
-        <v>2.217955186098426e-14</v>
+        <v>0.001652409560078782</v>
       </c>
       <c r="G32" t="n">
-        <v>1.093891148222379e-06</v>
+        <v>2.220169867205142e-14</v>
       </c>
       <c r="H32" t="n">
-        <v>2.865540439789539e-05</v>
+        <v>0.0002133914278969023</v>
       </c>
       <c r="I32" t="n">
-        <v>0.8909183809425234</v>
+        <v>0.9944492342433493</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -9173,28 +9173,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.005841463551719899</v>
+        <v>0.001360606072435539</v>
       </c>
       <c r="C2" t="n">
-        <v>1.201045678956198e-13</v>
+        <v>2.219548033437619e-14</v>
       </c>
       <c r="D2" t="n">
-        <v>1.201045678956198e-13</v>
+        <v>2.219548033437619e-14</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01124549507861782</v>
+        <v>9.358919003062581e-06</v>
       </c>
       <c r="F2" t="n">
-        <v>0.073260463328224</v>
+        <v>0.02081987635205734</v>
       </c>
       <c r="G2" t="n">
-        <v>0.909652578041078</v>
+        <v>0.9778101586564375</v>
       </c>
       <c r="H2" t="n">
-        <v>1.201045678956209e-13</v>
+        <v>2.219548033437619e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0.909652578041078</v>
+        <v>0.9778101586564375</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -9209,28 +9209,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.008097330996837316</v>
+        <v>0.00210276497268153</v>
       </c>
       <c r="C3" t="n">
-        <v>1.429825670624821e-13</v>
+        <v>2.219702882241232e-14</v>
       </c>
       <c r="D3" t="n">
-        <v>1.429825670624822e-13</v>
+        <v>2.219702882241232e-14</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01323640333600777</v>
+        <v>1.342377798563243e-05</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08192531121552576</v>
+        <v>0.01886148629952177</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8967409544512001</v>
+        <v>0.9790223249497444</v>
       </c>
       <c r="H3" t="n">
-        <v>1.429825670624822e-13</v>
+        <v>2.219702882241232e-14</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8967409544512001</v>
+        <v>0.9790223249497444</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -9245,28 +9245,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08621367587574862</v>
+        <v>0.01165733486883717</v>
       </c>
       <c r="C4" t="n">
-        <v>9.639387122748204e-14</v>
+        <v>2.220033890666674e-14</v>
       </c>
       <c r="D4" t="n">
-        <v>9.639387122748207e-14</v>
+        <v>2.220033890666674e-14</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02185555409458353</v>
+        <v>0.0001629501980033252</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03960604141987968</v>
+        <v>0.002479998510271683</v>
       </c>
       <c r="G4" t="n">
-        <v>0.852324728609499</v>
+        <v>0.9856997164228213</v>
       </c>
       <c r="H4" t="n">
-        <v>9.639387122748147e-14</v>
+        <v>2.220033890666674e-14</v>
       </c>
       <c r="I4" t="n">
-        <v>0.852324728609499</v>
+        <v>0.9856997164228213</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -9281,28 +9281,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.005841463551719899</v>
+        <v>0.001360606072435539</v>
       </c>
       <c r="C5" t="n">
-        <v>1.201045678956198e-13</v>
+        <v>2.219548033437619e-14</v>
       </c>
       <c r="D5" t="n">
-        <v>1.201045678956198e-13</v>
+        <v>2.219548033437619e-14</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01124549507861782</v>
+        <v>9.358919003062581e-06</v>
       </c>
       <c r="F5" t="n">
-        <v>0.073260463328224</v>
+        <v>0.02081987635205734</v>
       </c>
       <c r="G5" t="n">
-        <v>0.909652578041078</v>
+        <v>0.9778101586564375</v>
       </c>
       <c r="H5" t="n">
-        <v>1.201045678956209e-13</v>
+        <v>2.219548033437619e-14</v>
       </c>
       <c r="I5" t="n">
-        <v>0.909652578041078</v>
+        <v>0.9778101586564375</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -9317,28 +9317,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.008097330996837316</v>
+        <v>0.00210276497268153</v>
       </c>
       <c r="C6" t="n">
-        <v>1.429825670624821e-13</v>
+        <v>2.219702882241232e-14</v>
       </c>
       <c r="D6" t="n">
-        <v>1.429825670624822e-13</v>
+        <v>2.219702882241232e-14</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01323640333600777</v>
+        <v>1.342377798563243e-05</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08192531121552576</v>
+        <v>0.01886148629952177</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8967409544512001</v>
+        <v>0.9790223249497444</v>
       </c>
       <c r="H6" t="n">
-        <v>1.429825670624822e-13</v>
+        <v>2.219702882241232e-14</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8967409544512001</v>
+        <v>0.9790223249497444</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -9353,28 +9353,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.08621367587574862</v>
+        <v>0.01165733486883717</v>
       </c>
       <c r="C7" t="n">
-        <v>9.639387122748204e-14</v>
+        <v>2.220033890666674e-14</v>
       </c>
       <c r="D7" t="n">
-        <v>9.639387122748207e-14</v>
+        <v>2.220033890666674e-14</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02185555409458353</v>
+        <v>0.0001629501980033252</v>
       </c>
       <c r="F7" t="n">
-        <v>0.03960604141987968</v>
+        <v>0.002479998510271683</v>
       </c>
       <c r="G7" t="n">
-        <v>0.852324728609499</v>
+        <v>0.9856997164228213</v>
       </c>
       <c r="H7" t="n">
-        <v>9.639387122748147e-14</v>
+        <v>2.220033890666674e-14</v>
       </c>
       <c r="I7" t="n">
-        <v>0.852324728609499</v>
+        <v>0.9856997164228213</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -9389,28 +9389,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01586474520230019</v>
+        <v>0.2063029570242359</v>
       </c>
       <c r="C8" t="n">
-        <v>7.304966822188253e-14</v>
+        <v>1.863461526222807e-12</v>
       </c>
       <c r="D8" t="n">
-        <v>0.08918045873251361</v>
+        <v>0.2304113523414573</v>
       </c>
       <c r="E8" t="n">
-        <v>0.008508832616957247</v>
+        <v>0.07340029458196476</v>
       </c>
       <c r="F8" t="n">
-        <v>0.06512527616081049</v>
+        <v>0.2260533268458553</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8213206872872723</v>
+        <v>0.2638320692027599</v>
       </c>
       <c r="H8" t="n">
-        <v>7.304966822188244e-14</v>
+        <v>1.863461526222809e-12</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8213206872872723</v>
+        <v>0.2638320692027599</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -9425,28 +9425,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.07989933656375318</v>
+        <v>0.01945594959752797</v>
       </c>
       <c r="C9" t="n">
-        <v>5.249259901820226e-14</v>
+        <v>2.220647470735002e-14</v>
       </c>
       <c r="D9" t="n">
-        <v>0.006270872063623908</v>
+        <v>0.003191004670173731</v>
       </c>
       <c r="E9" t="n">
-        <v>0.00874490558206472</v>
+        <v>0.0009588046795350505</v>
       </c>
       <c r="F9" t="n">
-        <v>0.06560219618838978</v>
+        <v>0.007888279865825168</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8394826896020634</v>
+        <v>0.9685059611868937</v>
       </c>
       <c r="H9" t="n">
-        <v>5.249259901820249e-14</v>
+        <v>2.220647470735002e-14</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8394826896020634</v>
+        <v>0.9685059611868937</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -9461,28 +9461,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02555591033320717</v>
+        <v>0.09877645094673275</v>
       </c>
       <c r="C10" t="n">
-        <v>1.368679253082398e-13</v>
+        <v>1.691085528133093e-12</v>
       </c>
       <c r="D10" t="n">
-        <v>0.06109589421449549</v>
+        <v>0.2671986837704292</v>
       </c>
       <c r="E10" t="n">
-        <v>0.02704458566341329</v>
+        <v>0.1421823511812906</v>
       </c>
       <c r="F10" t="n">
-        <v>0.07728227776061604</v>
+        <v>0.2019086523158113</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8090213320279942</v>
+        <v>0.2899338617823539</v>
       </c>
       <c r="H10" t="n">
-        <v>1.368679253082393e-13</v>
+        <v>1.6910855281331e-12</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8090213320279942</v>
+        <v>0.2899338617823539</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -9497,28 +9497,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.03162306295771675</v>
+        <v>0.0003428414995373285</v>
       </c>
       <c r="C11" t="n">
-        <v>2.374534503691822e-13</v>
+        <v>2.219957307540235e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>2.374534503691822e-13</v>
+        <v>2.219957307540235e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0.01784310508909262</v>
+        <v>9.460221234628538e-05</v>
       </c>
       <c r="F11" t="n">
-        <v>0.05681515062975667</v>
+        <v>0.005927046423723368</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8937186813227216</v>
+        <v>0.9936355098643266</v>
       </c>
       <c r="H11" t="n">
-        <v>2.374534503691823e-13</v>
+        <v>2.219957307540235e-14</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8937186813227216</v>
+        <v>0.9936355098643266</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -9533,28 +9533,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0002976936875025112</v>
+        <v>0.0006380515475776692</v>
       </c>
       <c r="C12" t="n">
-        <v>2.219788389342389e-14</v>
+        <v>2.220015720693251e-14</v>
       </c>
       <c r="D12" t="n">
-        <v>2.219788389342389e-14</v>
+        <v>2.220015720693251e-14</v>
       </c>
       <c r="E12" t="n">
-        <v>2.219788389342389e-14</v>
+        <v>2.220015720693251e-14</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01248264592530641</v>
+        <v>0.004458098323745925</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9872196603871022</v>
+        <v>0.9949038501285876</v>
       </c>
       <c r="H12" t="n">
-        <v>2.219788389342389e-14</v>
+        <v>2.220015720693251e-14</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9872196603871022</v>
+        <v>0.9949038501285876</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -9569,28 +9569,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1684741606773292</v>
+        <v>0.1391335732766161</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1254888011185754</v>
+        <v>0.1303069077127963</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1254888011185754</v>
+        <v>0.1303069077127963</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1254888011185755</v>
+        <v>0.1303069077127963</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1409081261604628</v>
+        <v>0.1464530733576223</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1886625086879064</v>
+        <v>0.1931857225145762</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1254888011185754</v>
+        <v>0.1303069077127964</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1886625086879064</v>
+        <v>0.1931857225145762</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -9605,28 +9605,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1406143076138857</v>
+        <v>0.00176277700713652</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1325245633936921</v>
+        <v>2.220002707591607e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1325245633936921</v>
+        <v>2.220002707591607e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1325245633936921</v>
+        <v>2.220002707591607e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1340164598697804</v>
+        <v>0.0008992015236111187</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1952709789415654</v>
+        <v>0.9973380214691635</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1325245633936922</v>
+        <v>2.220002707591607e-14</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1952709789415654</v>
+        <v>0.9973380214691635</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -9641,28 +9641,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02404300355340114</v>
+        <v>0.02146370029400034</v>
       </c>
       <c r="C15" t="n">
-        <v>0.004079833281982029</v>
+        <v>2.220965169266724e-14</v>
       </c>
       <c r="D15" t="n">
-        <v>0.04810510360351777</v>
+        <v>0.0079772142015202</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2705529962989963</v>
+        <v>2.220965169266724e-14</v>
       </c>
       <c r="F15" t="n">
-        <v>0.00407983328198204</v>
+        <v>0.005431794828006188</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6450500521526991</v>
+        <v>0.9651271011658751</v>
       </c>
       <c r="H15" t="n">
-        <v>0.004089177827421746</v>
+        <v>1.895105537973482e-07</v>
       </c>
       <c r="I15" t="n">
-        <v>0.6450500521526991</v>
+        <v>0.9651271011658751</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -9677,28 +9677,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3048383457587813</v>
+        <v>0.05278130384804881</v>
       </c>
       <c r="C16" t="n">
-        <v>2.219637960826815e-14</v>
+        <v>2.2221847791297e-14</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0005074405285538908</v>
+        <v>0.01446570554912015</v>
       </c>
       <c r="E16" t="n">
-        <v>2.219637960826815e-14</v>
+        <v>2.2221847791297e-14</v>
       </c>
       <c r="F16" t="n">
-        <v>2.219637960826815e-14</v>
+        <v>0.002840507006130605</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6946277342844074</v>
+        <v>0.9299086585488167</v>
       </c>
       <c r="H16" t="n">
-        <v>2.647942819067935e-05</v>
+        <v>3.825047839403486e-06</v>
       </c>
       <c r="I16" t="n">
-        <v>0.6946277342844074</v>
+        <v>0.9299086585488167</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -9713,28 +9713,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.00839112076600911</v>
+        <v>0.002440434564983802</v>
       </c>
       <c r="C17" t="n">
-        <v>0.004315230506695442</v>
+        <v>2.219339715730663e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>0.01946281993745008</v>
+        <v>0.03226537172322399</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2547179761443841</v>
+        <v>2.219339715730663e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>0.004315230506695454</v>
+        <v>0.00168302245687249</v>
       </c>
       <c r="G17" t="n">
-        <v>0.703142356541875</v>
+        <v>0.9624655268637569</v>
       </c>
       <c r="H17" t="n">
-        <v>0.005655265596890829</v>
+        <v>0.001145644391118432</v>
       </c>
       <c r="I17" t="n">
-        <v>0.703142356541875</v>
+        <v>0.9624655268637569</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -9749,28 +9749,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0116504930314059</v>
+        <v>0.004214811010277339</v>
       </c>
       <c r="C18" t="n">
-        <v>0.00427876668835402</v>
+        <v>2.219957097750179e-14</v>
       </c>
       <c r="D18" t="n">
-        <v>0.01602952113679083</v>
+        <v>0.02312507570666893</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2288719939589658</v>
+        <v>2.219957097750179e-14</v>
       </c>
       <c r="F18" t="n">
-        <v>0.004278766688354021</v>
+        <v>0.0008692530132106478</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7289543548404879</v>
+        <v>0.9705490596783675</v>
       </c>
       <c r="H18" t="n">
-        <v>0.005936103655641678</v>
+        <v>0.001241800591431326</v>
       </c>
       <c r="I18" t="n">
-        <v>0.7289543548404879</v>
+        <v>0.9705490596783675</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -9785,28 +9785,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01260526100386658</v>
+        <v>0.004670400230159294</v>
       </c>
       <c r="C19" t="n">
-        <v>0.004437343684702078</v>
+        <v>2.220395192227979e-14</v>
       </c>
       <c r="D19" t="n">
-        <v>0.007259747122289806</v>
+        <v>0.02207551246766285</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2769232992227699</v>
+        <v>2.220395192227979e-14</v>
       </c>
       <c r="F19" t="n">
-        <v>0.004437343684702074</v>
+        <v>0.003375223208709733</v>
       </c>
       <c r="G19" t="n">
-        <v>0.689255351424665</v>
+        <v>0.9689476541382429</v>
       </c>
       <c r="H19" t="n">
-        <v>0.005081653857004667</v>
+        <v>0.0009312099551808097</v>
       </c>
       <c r="I19" t="n">
-        <v>0.689255351424665</v>
+        <v>0.9689476541382429</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -9892,28 +9892,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0003321969915384206</v>
+        <v>8.98227170628328e-05</v>
       </c>
       <c r="C2" t="n">
-        <v>2.219986145327185e-14</v>
+        <v>2.220062240634081e-14</v>
       </c>
       <c r="D2" t="n">
-        <v>2.219986145327185e-14</v>
+        <v>2.220062240634081e-14</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02490247576797225</v>
+        <v>0.02510673304582311</v>
       </c>
       <c r="F2" t="n">
-        <v>0.005078188004612775</v>
+        <v>0.005893115701484355</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0008613696883866496</v>
+        <v>2.220062240634081e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9688257695474455</v>
+        <v>0.9689103285355632</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9688257695474455</v>
+        <v>0.9689103285355632</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -9928,28 +9928,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.009314485141621967</v>
+        <v>0.0005262840703135417</v>
       </c>
       <c r="C3" t="n">
-        <v>2.221101133124516e-14</v>
+        <v>2.220575248459325e-14</v>
       </c>
       <c r="D3" t="n">
-        <v>2.221101133124516e-14</v>
+        <v>2.220575248459325e-14</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0191140688639339</v>
+        <v>0.01280111724842323</v>
       </c>
       <c r="F3" t="n">
-        <v>0.006532074708004591</v>
+        <v>0.008680671552980999</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0009645784567737072</v>
+        <v>2.220575248459325e-14</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9640747928296215</v>
+        <v>0.9779919271282156</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9640747928296215</v>
+        <v>0.9779919271282156</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -9964,28 +9964,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0003321969915384206</v>
+        <v>8.98227170628328e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>2.219986145327185e-14</v>
+        <v>2.220062240634081e-14</v>
       </c>
       <c r="D4" t="n">
-        <v>2.219986145327185e-14</v>
+        <v>2.220062240634081e-14</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02490247576797225</v>
+        <v>0.02510673304582311</v>
       </c>
       <c r="F4" t="n">
-        <v>0.005078188004612775</v>
+        <v>0.005893115701484355</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0008613696883866496</v>
+        <v>2.220062240634081e-14</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9688257695474455</v>
+        <v>0.9689103285355632</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9688257695474455</v>
+        <v>0.9689103285355632</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -10000,28 +10000,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.009314485141621967</v>
+        <v>0.0005262840703135417</v>
       </c>
       <c r="C5" t="n">
-        <v>2.221101133124516e-14</v>
+        <v>2.220575248459325e-14</v>
       </c>
       <c r="D5" t="n">
-        <v>2.221101133124516e-14</v>
+        <v>2.220575248459325e-14</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0191140688639339</v>
+        <v>0.01280111724842323</v>
       </c>
       <c r="F5" t="n">
-        <v>0.006532074708004591</v>
+        <v>0.008680671552980999</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0009645784567737072</v>
+        <v>2.220575248459325e-14</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9640747928296215</v>
+        <v>0.9779919271282156</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9640747928296215</v>
+        <v>0.9779919271282156</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -10036,28 +10036,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.002481346977504911</v>
+        <v>0.0002619962410854168</v>
       </c>
       <c r="C6" t="n">
-        <v>2.220727770423423e-14</v>
+        <v>2.220437828293735e-14</v>
       </c>
       <c r="D6" t="n">
-        <v>2.220727770423423e-14</v>
+        <v>2.220437828293735e-14</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01673465408372521</v>
+        <v>0.007068220056890903</v>
       </c>
       <c r="F6" t="n">
-        <v>0.008847169847378719</v>
+        <v>0.01276478679365173</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0008690104831313556</v>
+        <v>2.220437828293735e-14</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9710678186082153</v>
+        <v>0.9799049969083053</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9710678186082153</v>
+        <v>0.9799049969083053</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -10072,28 +10072,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.007441383972686991</v>
+        <v>0.0004583129196511935</v>
       </c>
       <c r="C7" t="n">
-        <v>2.221136815772309e-14</v>
+        <v>2.220423601070752e-14</v>
       </c>
       <c r="D7" t="n">
-        <v>2.221136815772309e-14</v>
+        <v>2.220423601070752e-14</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01589321002069779</v>
+        <v>0.006378323191268275</v>
       </c>
       <c r="F7" t="n">
-        <v>0.007949000626397857</v>
+        <v>0.01118922435235063</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0006151863689255997</v>
+        <v>2.220423601070752e-14</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9681012190112473</v>
+        <v>0.9819741395366632</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9681012190112473</v>
+        <v>0.9819741395366632</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -10108,28 +10108,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0004000977547958095</v>
+        <v>7.711639177693262e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>2.220928031133517e-14</v>
+        <v>2.219926968864055e-14</v>
       </c>
       <c r="D8" t="n">
-        <v>2.220928031133517e-14</v>
+        <v>2.219926968864055e-14</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01433497575650261</v>
+        <v>0.003203307660718011</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01546336924101989</v>
+        <v>0.01716156730402372</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0005542945422548286</v>
+        <v>2.219926968864055e-14</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9692472627053824</v>
+        <v>0.9795580086434147</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9692472627053824</v>
+        <v>0.9795580086434147</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -10144,28 +10144,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.002228222884248115</v>
+        <v>0.1384731497367225</v>
       </c>
       <c r="C9" t="n">
-        <v>2.22014086284692e-14</v>
+        <v>0.1381338055160199</v>
       </c>
       <c r="D9" t="n">
-        <v>2.22014086284692e-14</v>
+        <v>0.1381338055160199</v>
       </c>
       <c r="E9" t="n">
-        <v>2.22014086284692e-14</v>
+        <v>0.1381338055160199</v>
       </c>
       <c r="F9" t="n">
-        <v>0.007713977493589244</v>
+        <v>0.1449320391754674</v>
       </c>
       <c r="G9" t="n">
-        <v>2.22014086284692e-14</v>
+        <v>0.1381338055160199</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9900577996220739</v>
+        <v>0.1640595890237306</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9900577996220739</v>
+        <v>0.1640595890237306</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
